--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A4149-4F78-4B6F-8D89-C453FD66A6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B0BD7-3FBA-4424-B117-42C37A3C90EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="660" windowWidth="15810" windowHeight="13860" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="48">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -187,9 +187,6 @@
     <t>All 5 seeds</t>
   </si>
   <si>
-    <t>steve</t>
-  </si>
-  <si>
     <t>hpc-steve</t>
   </si>
   <si>
@@ -212,13 +209,16 @@
   </si>
   <si>
     <t>3) In the main text, we only included results summary on Realistic data set.</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,14 +270,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,41 +354,39 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -827,10 +825,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -861,7 +859,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,13 +871,13 @@
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -965,11 +963,21 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -978,19 +986,19 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,14 +1012,14 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1027,7 +1035,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,7 +1060,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,13 +1073,13 @@
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -1175,20 +1183,20 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>40</v>
+      <c r="D7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
@@ -1200,20 +1208,20 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>40</v>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
@@ -1252,7 +1260,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1268,10 +1276,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,13 +1289,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="5"/>
@@ -1296,21 +1304,21 @@
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="19"/>
       <c r="E2" s="20"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,8 +1334,9 @@
         <v>38</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1346,161 +1355,298 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
+      <c r="E5" s="2">
+        <v>145879</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>200437</v>
+      </c>
       <c r="F6" s="2"/>
+      <c r="G6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
+      <c r="E7" s="2">
+        <v>310111</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>528401</v>
+      </c>
       <c r="F8" s="2"/>
+      <c r="G8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>145879</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>200437</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>310111</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>528401</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A26:H26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1518,7 +1664,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,10 +1677,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -1545,27 +1691,27 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="15" t="s">
         <v>44</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1586,8 +1732,12 @@
         <v>38</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="M3" s="2"/>
     </row>
@@ -1614,8 +1764,12 @@
         <v>38</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="M5" s="5"/>
     </row>
@@ -1640,8 +1794,12 @@
         <v>38</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="M7" s="5"/>
     </row>
@@ -1666,8 +1824,12 @@
         <v>38</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="M9" s="5"/>
     </row>
@@ -1692,8 +1854,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
@@ -1703,8 +1864,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
@@ -1718,8 +1878,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="5"/>
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
@@ -1760,12 +1919,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1809,13 +1968,13 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -2023,13 +2182,13 @@
       <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14" t="s">
+      <c r="E9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2049,11 +2208,11 @@
       <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
@@ -2065,11 +2224,11 @@
       <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
@@ -2078,11 +2237,11 @@
       <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
@@ -2090,11 +2249,11 @@
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2126,7 +2285,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2156,7 +2315,7 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2178,13 +2337,13 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -2239,15 +2398,15 @@
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2283,15 +2442,15 @@
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2331,19 +2490,19 @@
       <c r="L7" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2362,7 +2521,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13B0BD7-3FBA-4424-B117-42C37A3C90EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E706DF-9252-437F-83E1-F7ACA81B7C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="660" windowWidth="15810" windowHeight="13860" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="75" windowWidth="15810" windowHeight="13860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="49">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>mSigHdp v0.0.0.9019
+(on branch for-NR-version-plus-fixes)
+hdpx v0.1.5.0099
+(on branch NR-version-plus-fixes)</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -373,6 +379,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -387,6 +396,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -825,10 +840,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -858,32 +873,33 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -957,33 +973,31 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="5"/>
       <c r="D8" s="9" t="s">
         <v>39</v>
@@ -1012,14 +1026,14 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1044,9 +1058,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="A10:H10"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1073,13 +1088,13 @@
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -1278,8 +1293,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,30 +1304,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>44</v>
@@ -1612,14 +1627,14 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1677,23 +1692,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
@@ -1702,10 +1717,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1"/>
       <c r="F2" s="15" t="s">
         <v>44</v>
@@ -1968,13 +1983,13 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -2182,13 +2197,13 @@
       <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22" t="s">
+      <c r="E9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2208,11 +2223,11 @@
       <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
@@ -2224,11 +2239,11 @@
       <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
@@ -2237,11 +2252,11 @@
       <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
@@ -2249,11 +2264,11 @@
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2337,13 +2352,13 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -2401,12 +2416,12 @@
       <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2445,12 +2460,12 @@
       <c r="E5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="F5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2490,19 +2505,19 @@
       <c r="L7" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E706DF-9252-437F-83E1-F7ACA81B7C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5649E79F-7FE5-4083-B96A-8AAD10A972BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="75" windowWidth="15810" windowHeight="13860" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
-    <sheet name="SBS" sheetId="5" r:id="rId2"/>
-    <sheet name="indel" sheetId="6" r:id="rId3"/>
+    <sheet name="SBS" sheetId="11" r:id="rId2"/>
+    <sheet name="indel" sheetId="10" r:id="rId3"/>
     <sheet name="SBS_2" sheetId="8" r:id="rId4"/>
     <sheet name="indel_2" sheetId="9" r:id="rId5"/>
     <sheet name="SBS_down_samp" sheetId="1" r:id="rId6"/>
@@ -44,7 +44,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9DDD6275-7898-4A02-980C-D30D0F5F97B0}</author>
-    <author>tc={73D48284-8BC7-4ACA-975C-0D168DC85586}</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{9DDD6275-7898-4A02-980C-D30D0F5F97B0}">
@@ -55,20 +54,12 @@
     Running on new HPC cluster</t>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{73D48284-8BC7-4ACA-975C-0D168DC85586}">
-      <text>
-        <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    Running on monster2</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -154,13 +145,7 @@
     <t>hdp-NR()</t>
   </si>
   <si>
-    <t>Runs on Realistic with specified seed number</t>
-  </si>
-  <si>
     <t>Params</t>
-  </si>
-  <si>
-    <t>Running machine</t>
   </si>
   <si>
     <t>NR_hdp_gb_1</t>
@@ -218,6 +203,35 @@
 (on branch for-NR-version-plus-fixes)
 hdpx v0.1.5.0099
 (on branch NR-version-plus-fixes)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Data set name</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>mSigHdp = 1.1.7; hdpx = 0.3.4</t>
+  </si>
+  <si>
+    <t>signeR = 1.18.1; NMF = 0.30.1</t>
+  </si>
+  <si>
+    <t>mSigHdp = 2.0.1(2022-May-12);
+hdpx = 1.0.1</t>
+  </si>
+  <si>
+    <t>mSigHdp = 2.0.1.10(master branch)
+hdpx = 1.0.3.9(master branch)</t>
+  </si>
+  <si>
+    <t>1.1.3(2021-Jun-18)</t>
+  </si>
+  <si>
+    <t>signeR = 1.20.0; NMF = 0.24.0</t>
   </si>
 </sst>
 </file>
@@ -277,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -328,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -348,12 +368,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -362,9 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -382,6 +393,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -397,11 +411,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,9 +734,6 @@
   <threadedComment ref="F3" dT="2022-06-25T23:15:02.23" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{9DDD6275-7898-4A02-980C-D30D0F5F97B0}">
     <text>Running on new HPC cluster</text>
   </threadedComment>
-  <threadedComment ref="F5" dT="2022-06-23T10:45:19.33" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{73D48284-8BC7-4ACA-975C-0D168DC85586}">
-    <text>Running on monster2</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -707,7 +745,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,10 +878,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -867,262 +905,364 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDDA077-72E5-435A-BABA-F8FEAAA77040}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DFF80A-C422-4360-9D1E-94068848F4B1}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" activeCellId="3" sqref="F3:H3 F5:H5 F7:H7 F9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1">
-        <v>145879</v>
-      </c>
-      <c r="E2" s="1">
-        <v>200437</v>
-      </c>
-      <c r="F2" s="1">
-        <v>310111</v>
-      </c>
-      <c r="G2" s="1">
-        <v>528401</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1076753</v>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B9" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>145879</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>200437</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>310111</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>528401</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
+        <v>1076753</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="B7:B8"/>
+  <mergeCells count="6">
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04EE0E6-428D-4109-BBB3-725C08EC29DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A9EF94-C3F0-491E-B97E-7A2B5FFF7AB0}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="20" t="s">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1">
-        <v>145879</v>
-      </c>
-      <c r="E2" s="1">
-        <v>200437</v>
-      </c>
-      <c r="F2" s="1">
-        <v>310111</v>
-      </c>
-      <c r="G2" s="1">
-        <v>528401</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1076753</v>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="1"/>
@@ -1132,155 +1272,236 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>42</v>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="H13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="26"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:H1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1291,66 +1512,67 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>29</v>
+      <c r="C1" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="21"/>
+      <c r="G1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="16" t="s">
-        <v>47</v>
+      <c r="G3" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1365,7 +1587,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2"/>
@@ -1374,10 +1596,10 @@
         <v>145879</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1390,10 +1612,10 @@
         <v>200437</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1406,7 +1628,10 @@
         <v>310111</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1419,10 +1644,10 @@
         <v>528401</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1435,7 +1660,10 @@
         <v>1076753</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1462,14 +1690,14 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>145879</v>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1478,95 +1706,76 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>200437</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>310111</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="10" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>528401</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>1076753</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -1577,24 +1786,24 @@
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1603,65 +1812,25 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
+      <c r="A25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1679,7 +1848,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,41 +1861,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="F1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>43</v>
+      <c r="F2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1735,23 +1904,23 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
+      <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="2"/>
       <c r="M3" s="2"/>
@@ -1776,13 +1945,13 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -1806,13 +1975,13 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5"/>
@@ -1829,20 +1998,22 @@
       <c r="H8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5"/>
@@ -1861,12 +2032,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1885,12 +2056,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1929,17 +2100,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1962,13 +2133,13 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="8" width="10.5703125" customWidth="1"/>
@@ -1979,84 +2150,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="20" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -2069,104 +2240,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
@@ -2190,20 +2363,20 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23" t="s">
+      <c r="E9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2218,57 +2391,59 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
       <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2286,7 +2461,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2300,19 +2475,21 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E9:H13"/>
     <mergeCell ref="I9:I13"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2331,13 +2508,13 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="8" width="10.5703125" customWidth="1"/>
@@ -2348,80 +2525,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="20" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="16">
         <v>500</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
+      <c r="B3" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2455,17 +2632,17 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2505,23 +2682,23 @@
       <c r="L7" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2536,12 +2713,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5649E79F-7FE5-4083-B96A-8AAD10A972BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC254D-7DA4-47AD-9609-EA90273870C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="1620" windowWidth="15810" windowHeight="13860" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -291,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,12 +313,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -386,25 +380,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,36 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -878,10 +865,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -912,7 +899,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" activeCellId="3" sqref="F3:H3 F5:H5 F7:H7 F9:H9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,29 +909,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -959,7 +946,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="2"/>
@@ -967,13 +954,13 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -985,7 +972,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2"/>
@@ -993,19 +980,19 @@
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1016,19 +1003,19 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1040,7 +1027,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="5"/>
@@ -1048,13 +1035,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1066,7 +1053,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="5"/>
@@ -1082,7 +1069,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
         <v>200437</v>
@@ -1096,7 +1083,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
         <v>310111</v>
@@ -1110,7 +1097,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
         <v>528401</v>
@@ -1118,13 +1105,13 @@
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="24" t="s">
-        <v>37</v>
+      <c r="H14" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
         <v>1076753</v>
@@ -1132,13 +1119,13 @@
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="24" t="s">
-        <v>37</v>
+      <c r="H15" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1150,7 +1137,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>36</v>
@@ -1158,7 +1145,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1199,12 +1186,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1218,8 +1205,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,32 +1216,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1272,7 +1259,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="2"/>
@@ -1280,16 +1267,16 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1304,7 +1291,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2"/>
@@ -1312,13 +1299,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
@@ -1327,7 +1314,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1341,22 +1328,22 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1371,7 +1358,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="5"/>
@@ -1379,16 +1366,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1403,7 +1390,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="5"/>
@@ -1422,7 +1409,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1436,7 +1423,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -1451,7 +1438,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="26"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1464,7 +1451,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="26"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1476,13 +1463,13 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
+      <c r="B16" s="19"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1496,12 +1483,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1512,10 +1499,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,30 +1513,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>42</v>
@@ -1562,7 +1549,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2"/>
@@ -1587,13 +1574,13 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>145879</v>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="8" t="s">
@@ -1608,47 +1595,33 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>200437</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>310111</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>528401</v>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>22</v>
+      <c r="G8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1656,16 +1629,8 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>1076753</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -1675,67 +1640,65 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>55</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -1746,91 +1709,51 @@
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A18:H18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1861,23 +1784,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
@@ -1886,10 +1809,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="1"/>
       <c r="F2" s="12" t="s">
         <v>42</v>
@@ -1908,7 +1831,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2"/>
@@ -2002,7 +1925,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="5"/>
@@ -2150,56 +2073,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
@@ -2208,7 +2131,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2"/>
@@ -2242,7 +2165,7 @@
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="2"/>
@@ -2270,7 +2193,7 @@
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>310111</v>
@@ -2296,7 +2219,7 @@
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>528401</v>
@@ -2322,7 +2245,7 @@
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>1076753</v>
@@ -2363,20 +2286,20 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21" t="s">
+      <c r="E9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2391,59 +2314,59 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="27"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+      <c r="B12" s="29"/>
       <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="29"/>
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2525,56 +2448,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>500</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
@@ -2583,7 +2506,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2"/>
@@ -2593,12 +2516,12 @@
       <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2637,12 +2560,12 @@
       <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="F5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2682,19 +2605,19 @@
       <c r="L7" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC254D-7DA4-47AD-9609-EA90273870C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB7309-267A-456F-BEA8-C04BD3FABCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="1620" windowWidth="15810" windowHeight="13860" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -413,11 +413,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -909,28 +909,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="26"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="5"/>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
         <v>200437</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
         <v>310111</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
         <v>528401</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5">
         <v>1076753</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1137,7 +1137,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>36</v>
@@ -1216,31 +1216,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="26"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
@@ -1390,7 +1390,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="5"/>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1423,7 +1423,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -1483,12 +1483,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1501,8 +1501,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" activeCellId="2" sqref="G5:H5 G8:H8 G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,13 +1513,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="5"/>
@@ -1533,9 +1533,9 @@
       <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
       <c r="E2" s="26"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1583,10 +1583,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1617,10 +1617,10 @@
         <v>36</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1653,10 +1653,10 @@
         <v>36</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1784,10 +1784,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="26" t="s">
@@ -1809,8 +1809,8 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="1"/>
@@ -2077,13 +2077,13 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="2"/>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>310111</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>528401</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>1076753</v>
@@ -2430,7 +2430,7 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2452,13 +2452,13 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB7309-267A-456F-BEA8-C04BD3FABCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B222F00-EFC6-4A4D-A982-98432EA56F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6645" yWindow="1665" windowWidth="21060" windowHeight="13860" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -43,15 +43,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={9DDD6275-7898-4A02-980C-D30D0F5F97B0}</author>
+    <author>tc={03387F0B-E401-4BD4-B95B-38BE57A81858}</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{9DDD6275-7898-4A02-980C-D30D0F5F97B0}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{03387F0B-E401-4BD4-B95B-38BE57A81858}">
       <text>
         <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
-    Running on new HPC cluster</t>
+    From monster2, Downloading large data files for mSigHdp and SigProfilerExtractor, starting at 2022-Jul-21th</t>
       </text>
     </comment>
   </commentList>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="58">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -232,13 +232,19 @@
   </si>
   <si>
     <t>signeR = 1.20.0; NMF = 0.24.0</t>
+  </si>
+  <si>
+    <t>non_hyper</t>
+  </si>
+  <si>
+    <t>1) Filling colors: White - not started; Red - failed;  Green - running; Blue - Finished; Brown - Finished with large files downloaded; Violet - Finished with result revision; Black - Finished with result revision and image files (e.g., large Rdata file and python pickle files) downloaded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +296,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -342,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -365,9 +383,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,6 +425,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -425,10 +443,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,8 +748,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F3" dT="2022-06-25T23:15:02.23" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{9DDD6275-7898-4A02-980C-D30D0F5F97B0}">
-    <text>Running on new HPC cluster</text>
+  <threadedComment ref="E3" dT="2022-07-21T14:51:33.18" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{03387F0B-E401-4BD4-B95B-38BE57A81858}">
+    <text>From monster2, Downloading large data files for mSigHdp and SigProfilerExtractor, starting at 2022-Jul-21th</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -946,7 +976,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="2"/>
@@ -954,13 +984,13 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -972,7 +1002,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2"/>
@@ -980,19 +1010,19 @@
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1003,19 +1033,19 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1027,7 +1057,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="5"/>
@@ -1035,13 +1065,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1063,7 +1093,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1077,7 +1107,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1091,7 +1121,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1105,7 +1135,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1119,7 +1149,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1145,7 +1175,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1206,7 +1236,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1289,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="2"/>
@@ -1267,16 +1297,16 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1291,7 +1321,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2"/>
@@ -1299,13 +1329,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
@@ -1314,7 +1344,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1328,22 +1358,22 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1358,7 +1388,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="5"/>
@@ -1366,16 +1396,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1400,7 +1430,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="2"/>
@@ -1429,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="2"/>
@@ -1438,7 +1468,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1451,7 +1481,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1463,13 +1493,13 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1499,10 +1529,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" activeCellId="2" sqref="G5:H5 G8:H8 G11:H11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1542,7 @@
     <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
@@ -1532,7 +1562,7 @@
       </c>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="26"/>
       <c r="C2" s="24"/>
@@ -1545,11 +1575,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2"/>
@@ -1558,11 +1588,11 @@
         <v>36</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1570,11 +1600,11 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2"/>
@@ -1583,14 +1613,15 @@
         <v>36</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1598,7 +1629,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1606,7 +1637,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1617,14 +1648,14 @@
         <v>36</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1632,7 +1663,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1640,11 +1671,11 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="5"/>
@@ -1653,14 +1684,14 @@
         <v>36</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1668,7 +1699,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -1680,7 +1711,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1688,7 +1719,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1731,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1771,7 +1802,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,9 +1832,9 @@
         <v>43</v>
       </c>
       <c r="G1" s="26"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -1814,10 +1845,10 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="1"/>
@@ -1831,7 +1862,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2"/>
@@ -1871,10 +1902,10 @@
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -1901,10 +1932,10 @@
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5"/>
@@ -1925,7 +1956,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="5"/>
@@ -1933,10 +1964,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5"/>
@@ -2049,14 +2080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,10 +2104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
@@ -2084,45 +2115,45 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
@@ -2131,26 +2162,26 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -2172,19 +2203,19 @@
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="E4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
@@ -2198,19 +2229,19 @@
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="E5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
@@ -2224,19 +2255,19 @@
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="E6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
@@ -2250,19 +2281,19 @@
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="31" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
@@ -2286,20 +2317,20 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
+      <c r="E9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="32" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2314,59 +2345,59 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
       <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="32"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="32"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2384,7 +2415,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2420,18 +2451,19 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,17 +2473,18 @@
     <col min="3" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="8" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="24" t="s">
         <v>12</v>
       </c>
@@ -2459,61 +2492,65 @@
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>500</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="27" t="s">
@@ -2522,17 +2559,20 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2543,10 +2583,11 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2557,26 +2598,29 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="2" t="s">
+      <c r="E5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2589,8 +2633,9 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2603,8 +2648,9 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>24</v>
       </c>
@@ -2618,8 +2664,9 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -2633,13 +2680,14 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2647,15 +2695,14 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A9:L9"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F5:I5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{2FEE9D40-D422-48D7-A258-C5DAE9A0D976}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{2FEE9D40-D422-48D7-A258-C5DAE9A0D976}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B222F00-EFC6-4A4D-A982-98432EA56F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2ABE32-949E-4E0C-90BF-D970EC7587B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="1665" windowWidth="21060" windowHeight="13860" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="45" windowWidth="14190" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="84">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -217,13 +217,6 @@
     <t>mSigHdp = 1.1.7; hdpx = 0.3.4</t>
   </si>
   <si>
-    <t>signeR = 1.18.1; NMF = 0.30.1</t>
-  </si>
-  <si>
-    <t>mSigHdp = 2.0.1(2022-May-12);
-hdpx = 1.0.1</t>
-  </si>
-  <si>
     <t>mSigHdp = 2.0.1.10(master branch)
 hdpx = 1.0.3.9(master branch)</t>
   </si>
@@ -231,13 +224,315 @@
     <t>1.1.3(2021-Jun-18)</t>
   </si>
   <si>
-    <t>signeR = 1.20.0; NMF = 0.24.0</t>
-  </si>
-  <si>
     <t>non_hyper</t>
   </si>
   <si>
     <t>1) Filling colors: White - not started; Red - failed;  Green - running; Blue - Finished; Brown - Finished with large files downloaded; Violet - Finished with result revision; Black - Finished with result revision and image files (e.g., large Rdata file and python pickle files) downloaded</t>
+  </si>
+  <si>
+    <t>reference_genome="GRCh37",
+cosmic_version="3.2",
+context_type="ID",
+exome=False,
+minimum_signatures=2,
+maximum_signatures=20,
+nmf_replicates=100,
+resample=True,
+seeds=seeds,
+matrix_normalization="gmm",
+nmf_init="random",
+precision="single",
+min_nmf_iterations=1000,
+max_nmf_iterations=200000,
+nmf_test_conv=1000,
+nmf_tolerance=1e-08</t>
+  </si>
+  <si>
+    <t>mSigHdp = 2.0.1 (v2.0.1-branch, 2022-May-12);
+hdpx = 1.0.1 (v1.0.1-branch, 2022-May-12)</t>
+  </si>
+  <si>
+    <t>mSigHdp = 2.0.1.10(master branch);
+hdpx = 1.0.3.9(master branch)</t>
+  </si>
+  <si>
+    <t>min_K=10, max_K=40,
+reference_genome="GRCh37",
+cosmic_version="3.2",
+context_type="96",
+exome=False,
+minimum_signatures=10,
+maximum_signatures=40,
+nmf_replicates=100,
+resample=True,
+matrix_normalization="gmm",
+nmf_init="random",
+precision="single",
+min_nmf_iterations=1000,
+max_nmf_iterations=200000,
+nmf_test_conv=1000,
+nmf_tolerance=1e-08</t>
+  </si>
+  <si>
+    <t>reference_genome="GRCh37",
+cosmic_version="3.2",
+context_type="ID",
+exome=False,
+minimum_signatures=2,
+maximum_signatures=24,
+nmf_replicates=100,
+resample=True,
+seeds=seeds,
+matrix_normalization="gmm",
+nmf_init="random",
+precision="single",
+min_nmf_iterations=1000,
+max_nmf_iterations=200000,
+nmf_test_conv=1000,
+nmf_tolerance=1e-08</t>
+  </si>
+  <si>
+    <t>reference_genome="GRCh37",
+cosmic_version="3.2",
+context_type=="96",
+exome=False,
+minimum_signatures=2,
+maximum_signatures=62,
+nmf_replicates=100,
+resample=True,
+seeds=seeds,
+matrix_normalization="gmm",
+nmf_init="random",
+precision="single",
+min_nmf_iterations=1000,
+max_nmf_iterations=200000,
+nmf_test_conv=1000,
+nmf_tolerance=1e-08</t>
+  </si>
+  <si>
+    <t>K.guess = 22,
+multi.types = TRUE,
+burnin = 5000,
+burnin.multiplier = 6,
+post.n = 200,
+post. Space = 100,
+num.child.process = 20,
+CPU.cores = 20,
+high.confidence.prop = 0.9,
+gamma.alpha = 1,
+gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>K.guess = 46,
+multi.types = TRUE,
+burnin = 5000,
+burnin.multiplier = 20,
+post.n = 200,
+post.space = 100,
+num.child.process = 20,
+CPU.cores = 20,
+high.confidence.prop = 0.9,
+gamma.alpha = 1,
+gamma.beta = 20</t>
+  </si>
+  <si>
+    <t>K.guess = 26,
+multi.types = TRUE,
+burnin= 5000,
+burnin.multiplier = 6,
+post.n= 200,
+post.space = 100,
+num.child.process = 20,
+CPU.cores = 20,
+high.confidence.prop = 0.9,
+gamma.alpha= 1,
+gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>K.guess = 22,
+multi.types = TRUE,
+burnin = 5000,
+burnin.multiplier = 6,
+post.n = 200,
+post.space = 100,
+num.child.process = 20,
+CPU.cores = 20,
+high.confidence.prop = 0.9,
+gamma.alpha = 1,
+gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>mSigHdp = 1.1.7; 
+hdpx = 0.3.4</t>
+  </si>
+  <si>
+    <t>K.guess = 64,
+multi.types = TRUE,
+burnin = 5000,
+burnin.multiplier = 20,
+post.n = 200,
+post.space = 100,
+num.child.process = 20,
+CPU.cores = 20,
+high.confidence.prop = 0.9,
+gamma.alpha = 1,
+gamma.beta = 20</t>
+  </si>
+  <si>
+    <t>reference_genome="GRCh37",
+cosmic_version="3.2",
+context_type=="96",
+exome=False,
+minimum_signatures=10,
+maximum_signatures=40,
+nmf_replicates=100,
+resample=True,
+seeds=seeds,
+matrix_normalization="gmm",
+nmf_init="random",
+precision="single",
+min_nmf_iterations=1000,
+max_nmf_iterations=200000,
+nmf_test_conv=1000,
+nmf_tolerance=1e-08</t>
+  </si>
+  <si>
+    <t>K_range = c(2, 62)</t>
+  </si>
+  <si>
+    <t>K_range = c(10, 40)</t>
+  </si>
+  <si>
+    <t>K_range = c(2, 24)</t>
+  </si>
+  <si>
+    <t>K_range = c(2, 20)</t>
+  </si>
+  <si>
+    <t>signeR = 1.18.1; 
+NMF = 0.30.1;
+Wrapper function SynSigRun::RunsigneR(), SynSigRun = 1.0.0</t>
+  </si>
+  <si>
+    <t>signeR = 1.20.0;
+NMF = 0.24.0;
+Wrapper function SynSigRun::RunsigneR(), SynSigRun = 1.0.0</t>
+  </si>
+  <si>
+    <t>signeR = 1.18.1;
+NMF = 0.30.1;
+Wrapper function SynSigRun::RunsigneR(), SynSigRun = 1.0.0</t>
+  </si>
+  <si>
+    <t>maxK = 26,
+tol = 1e-7</t>
+  </si>
+  <si>
+    <t>maxK = 22,
+tol = 1e-7</t>
+  </si>
+  <si>
+    <t>maxK = 64,
+tol = 1e-7</t>
+  </si>
+  <si>
+    <t>maxK = 46,
+tol = 1e-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SignatureAnalyzer
+ 2018-05-24 </t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 46,
+multi.types = TRUE,
+post.burnin = 5000 * 20,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 46,
+multi.types = TRUE,
+post.burnin = 5000 * 20,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 50</t>
+    </r>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 22,
+multi.types = TRUE,
+post.burnin = 5000 * 6,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 22,
+multi.types = TRUE,
+post.burnin = 5000 * 20,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 1</t>
   </si>
 </sst>
 </file>
@@ -297,10 +592,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -360,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -431,6 +726,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,26 +747,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,10 +1223,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -928,40 +1256,41 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="1" sqref="C17 C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -972,14 +1301,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
@@ -998,14 +1329,16 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1029,12 +1362,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1053,14 +1390,16 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1079,14 +1418,16 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="43" t="s">
+        <v>80</v>
+      </c>
       <c r="D11" s="5">
         <v>145879</v>
       </c>
@@ -1097,10 +1438,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="5"/>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -1111,10 +1452,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
@@ -1125,10 +1466,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="5"/>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
@@ -1139,10 +1480,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="5"/>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
@@ -1155,7 +1496,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1163,12 +1504,14 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="42" t="s">
+        <v>81</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
@@ -1215,13 +1558,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A11:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1235,43 +1580,44 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1285,14 +1631,16 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>64</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1317,14 +1665,16 @@
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1354,12 +1704,16 @@
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1384,14 +1738,16 @@
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1416,14 +1772,16 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="41" t="s">
+        <v>83</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1439,7 +1797,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1449,12 +1807,14 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="300" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="41" t="s">
+        <v>82</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1521,6 +1881,7 @@
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1529,217 +1890,212 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="24"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="1"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1747,19 +2103,17 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1769,26 +2123,25 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1801,37 +2154,38 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1840,10 +2194,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="1"/>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -1858,14 +2212,16 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1890,14 +2246,16 @@
       <c r="H4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1922,12 +2280,16 @@
       <c r="H6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
@@ -1952,14 +2314,16 @@
       <c r="H8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
@@ -2086,15 +2450,16 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="8" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -2108,13 +2473,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -2158,15 +2523,17 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+        <v>56</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="15">
         <v>145879</v>
       </c>
       <c r="E3" s="21" t="s">
@@ -2181,7 +2548,7 @@
       <c r="H3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="25" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -2194,13 +2561,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="15">
         <v>200437</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -2215,18 +2582,18 @@
       <c r="H4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="25" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="15">
         <v>310111</v>
       </c>
       <c r="E5" s="21" t="s">
@@ -2241,18 +2608,18 @@
       <c r="H5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="25" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="15">
         <v>528401</v>
       </c>
       <c r="E6" s="21" t="s">
@@ -2267,18 +2634,18 @@
       <c r="H6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="25" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="15">
         <v>1076753</v>
       </c>
       <c r="E7" s="21" t="s">
@@ -2293,7 +2660,7 @@
       <c r="H7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
@@ -2304,7 +2671,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -2313,23 +2680,25 @@
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="C9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="15">
         <v>145879</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="32" t="s">
         <v>22</v>
       </c>
@@ -2343,60 +2712,64 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+    <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="15">
         <v>200437</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="32"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+    <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="15">
         <v>310111</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="32"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="D12" s="2">
+    <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="15">
         <v>528401</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="32"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="D13" s="2">
+    <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="15">
         <v>1076753</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="32"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -2415,7 +2788,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2438,12 +2811,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A9:A13"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E9:H13"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C9:C13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2463,14 +2840,15 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="8" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
@@ -2485,13 +2863,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="14"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -2526,7 +2904,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>0</v>
@@ -2539,26 +2917,28 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>61</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
@@ -2573,7 +2953,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2587,27 +2967,29 @@
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="29" t="s">
+      <c r="E5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -2651,20 +3033,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2ABE32-949E-4E0C-90BF-D970EC7587B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBEEEC-18E3-4683-956B-499C153B2396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="45" windowWidth="14190" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="86">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -520,9 +520,41 @@
   </si>
   <si>
     <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 26,
+multi.types = TRUE,
+post.burnin = 5000 * 6,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 26,
+multi.types = TRUE,
+post.burnin = 5000 * 6,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 1</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
 K.guess = 22,
 multi.types = TRUE,
-post.burnin = 5000 * 20,
+post.burnin = 5000 * 6,
 post.n = 200,
 post.space = 100,
 post.cpiter = 3,
@@ -736,6 +768,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,6 +788,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,40 +807,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1223,10 +1255,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1256,8 +1288,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="1" sqref="C17 C11:C15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,29 +1300,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1368,7 @@
       <c r="B5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1369,7 +1401,7 @@
       <c r="B7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="23" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1419,13 +1451,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -1439,9 +1471,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -1453,9 +1485,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
@@ -1467,9 +1499,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
@@ -1481,9 +1513,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
@@ -1496,7 +1528,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1508,8 +1540,8 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="42" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1580,8 +1612,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,32 +1624,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1704,7 @@
       <c r="B5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1776,11 +1808,11 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>83</v>
+      <c r="C11" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -1797,7 +1829,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="29"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1811,8 +1843,8 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="28" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1905,29 +1937,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -1943,7 +1975,7 @@
       <c r="B3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="27" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1967,7 +1999,7 @@
       <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="27" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2003,7 +2035,7 @@
       <c r="B8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2105,13 +2137,13 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -2152,10 +2184,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,23 +2201,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -2194,10 +2226,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="1"/>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -2348,96 +2380,168 @@
       <c r="H10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
+      <c r="B11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5">
+        <v>145879</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
+      <c r="G11" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="5">
+        <v>200437</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
+      <c r="G12" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
+    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="5">
+        <v>310111</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
+      <c r="G13" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="5">
+        <v>528401</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="44"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="5">
+        <v>1076753</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2473,13 +2577,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -2524,7 +2628,7 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -2562,11 +2666,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="15">
         <v>200437</v>
       </c>
@@ -2590,9 +2694,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="15">
         <v>310111</v>
       </c>
@@ -2616,9 +2720,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="15">
         <v>528401</v>
       </c>
@@ -2642,9 +2746,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="15">
         <v>1076753</v>
       </c>
@@ -2681,10 +2785,10 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="35" t="s">
@@ -2693,13 +2797,13 @@
       <c r="D9" s="15">
         <v>145879</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32" t="s">
+      <c r="E9" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2713,64 +2817,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="15">
         <v>200437</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="15">
         <v>310111</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="32"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="15">
         <v>528401</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="15">
         <v>1076753</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="32"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2863,13 +2967,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
       <c r="J1" s="14"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -2933,12 +3037,12 @@
       <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
@@ -2983,12 +3087,12 @@
       <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="F5" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="24" t="s">
         <v>22</v>
       </c>
@@ -3033,20 +3137,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBEEEC-18E3-4683-956B-499C153B2396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9098BBF-70DA-4773-BA20-6E7472854E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -687,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -776,6 +776,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -797,6 +803,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,14 +821,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1255,10 +1258,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1300,29 +1303,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1451,13 +1454,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -1471,9 +1474,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -1485,9 +1488,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
@@ -1499,9 +1502,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
@@ -1513,9 +1516,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
@@ -1528,7 +1531,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1540,7 +1543,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="29" t="s">
         <v>81</v>
       </c>
@@ -1624,32 +1627,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1808,7 +1811,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1829,7 +1832,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="32"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1843,7 +1846,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="28" t="s">
         <v>82</v>
       </c>
@@ -1937,29 +1940,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -2137,13 +2140,13 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -2186,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,23 +2204,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="33"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -2226,10 +2229,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -2381,90 +2384,96 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="5">
         <v>145879</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="43" t="s">
+      <c r="F11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="43" t="s">
+      <c r="F12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="43" t="s">
+      <c r="F13" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="44"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="44"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="5"/>
       <c r="M16" s="5"/>
     </row>
@@ -2472,7 +2481,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="28" t="s">
         <v>83</v>
       </c>
@@ -2480,8 +2489,10 @@
         <v>36</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5"/>
@@ -2534,14 +2545,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="B11:B17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="B11:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2577,13 +2588,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -2628,13 +2639,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="15">
@@ -2666,11 +2677,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="40"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="15">
         <v>200437</v>
       </c>
@@ -2694,9 +2705,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="15">
         <v>310111</v>
       </c>
@@ -2720,9 +2731,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="40"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="15">
         <v>528401</v>
       </c>
@@ -2746,9 +2757,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="15">
         <v>1076753</v>
       </c>
@@ -2785,25 +2796,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="15">
         <v>145879</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39" t="s">
+      <c r="E9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2817,64 +2828,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="40"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="15">
         <v>200437</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="40"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="15">
         <v>310111</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="40"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="15">
         <v>528401</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="40"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="15">
         <v>1076753</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2967,13 +2978,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="14"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -3037,12 +3048,12 @@
       <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
@@ -3087,12 +3098,12 @@
       <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="F5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
       <c r="J5" s="24" t="s">
         <v>22</v>
       </c>
@@ -3137,20 +3148,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9098BBF-70DA-4773-BA20-6E7472854E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746682DC-3D52-4C64-8F03-F51655C9AB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="1620" windowWidth="14190" windowHeight="13860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="86">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -782,6 +782,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -820,9 +823,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1258,10 +1258,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1303,29 +1303,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="36"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1454,13 +1454,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -1474,9 +1474,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -1488,9 +1488,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
@@ -1502,9 +1502,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
@@ -1516,9 +1516,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1543,7 +1543,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="29" t="s">
         <v>81</v>
       </c>
@@ -1627,32 +1627,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="36"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1832,7 +1832,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="34"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1846,7 +1846,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="28" t="s">
         <v>82</v>
       </c>
@@ -1940,29 +1940,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -2140,13 +2140,13 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -2189,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,23 +2204,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -2229,10 +2229,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="1"/>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -2384,20 +2384,20 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="40" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="5">
         <v>145879</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -2407,9 +2407,9 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -2424,14 +2424,14 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -2441,34 +2441,38 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2481,7 +2485,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="28" t="s">
         <v>83</v>
       </c>
@@ -2489,10 +2493,10 @@
         <v>36</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="32" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5"/>
@@ -2588,13 +2592,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -2639,13 +2643,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="15">
@@ -2677,11 +2681,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="41"/>
+      <c r="B4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="15">
         <v>200437</v>
       </c>
@@ -2705,9 +2709,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="15">
         <v>310111</v>
       </c>
@@ -2731,9 +2735,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="15">
         <v>528401</v>
       </c>
@@ -2757,9 +2761,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="15">
         <v>1076753</v>
       </c>
@@ -2796,25 +2800,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="15">
         <v>145879</v>
       </c>
-      <c r="E9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42" t="s">
+      <c r="E9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2828,64 +2832,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="15">
         <v>200437</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="15">
         <v>310111</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="15">
         <v>528401</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="15">
         <v>1076753</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2978,13 +2982,13 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="14"/>
       <c r="K1" s="15"/>
       <c r="L1" s="15"/>
@@ -3048,12 +3052,12 @@
       <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
       <c r="J3" s="22" t="s">
         <v>45</v>
       </c>
@@ -3098,12 +3102,12 @@
       <c r="E5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="F5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="24" t="s">
         <v>22</v>
       </c>
@@ -3148,20 +3152,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746682DC-3D52-4C64-8F03-F51655C9AB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFDC3C-341C-41B7-A303-A9D110AB9978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1620" windowWidth="14190" windowHeight="13860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1245" windowWidth="14190" windowHeight="13860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -630,7 +630,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +673,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -687,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -707,9 +713,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,14 +779,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -806,8 +806,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,13 +818,13 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1258,10 +1261,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1291,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,29 +1306,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="34"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1340,23 +1343,23 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1368,29 +1371,29 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1401,23 +1404,23 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1429,7 +1432,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1439,13 +1442,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1453,14 +1456,14 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -1469,69 +1472,69 @@
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="38"/>
+      <c r="H11" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="38"/>
+      <c r="H12" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="38"/>
+      <c r="H13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="38"/>
+      <c r="H14" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1539,12 +1542,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="28" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1553,7 +1556,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1615,7 +1618,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
@@ -1627,32 +1630,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="34"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1670,26 +1673,26 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1704,23 +1707,23 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1743,26 +1746,26 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1777,7 +1780,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1787,16 +1790,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1807,14 +1810,14 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1823,7 +1826,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="2"/>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="35"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1842,19 +1845,19 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="300" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="2"/>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1876,7 +1879,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1888,13 +1891,13 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1927,8 +1930,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,29 +1943,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="36"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -1975,17 +1978,17 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1999,20 +2002,20 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="2"/>
@@ -2035,20 +2038,20 @@
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2070,7 +2073,7 @@
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2080,10 +2083,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2140,13 +2143,13 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -2189,8 +2192,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,40 +2207,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="1"/>
@@ -2251,20 +2254,20 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="21" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="2"/>
@@ -2276,8 +2279,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -2288,17 +2291,17 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="F5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -2310,8 +2313,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="5"/>
       <c r="M6" s="5"/>
     </row>
@@ -2319,20 +2322,20 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5"/>
@@ -2344,8 +2347,8 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="5"/>
       <c r="M8" s="5"/>
     </row>
@@ -2353,7 +2356,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2363,10 +2366,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5"/>
@@ -2378,125 +2381,121 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:13" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="5">
-        <v>145879</v>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="5">
-        <v>200437</v>
-      </c>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="40"/>
+    <row r="13" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="39" t="s">
+        <v>83</v>
+      </c>
       <c r="D13" s="5">
-        <v>310111</v>
+        <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="40"/>
+    <row r="14" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="5">
-        <v>528401</v>
+        <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="40"/>
+    <row r="15" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="5">
-        <v>1076753</v>
+        <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="38"/>
+      <c r="G15" s="44" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+    <row r="16" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="5">
+        <v>528401</v>
+      </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="270" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
+    <row r="17" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="5">
+        <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="32" t="s">
+      <c r="F17" s="38"/>
+      <c r="G17" s="44" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5"/>
@@ -2534,7 +2533,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2548,10 +2547,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A11:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="F13:F17"/>
     <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:D2"/>
@@ -2559,6 +2559,7 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2569,8 +2570,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,86 +2589,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="34" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>145879</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="E3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -2681,27 +2682,27 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="15">
+      <c r="C4" s="42"/>
+      <c r="D4" s="14">
         <v>200437</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="25" t="s">
+      <c r="E4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
@@ -2709,25 +2710,25 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="14">
         <v>310111</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="25" t="s">
+      <c r="E5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
@@ -2735,25 +2736,25 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="15">
+      <c r="A6" s="40"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="14">
         <v>528401</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="E6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="24" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
@@ -2761,25 +2762,25 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="15">
+      <c r="A7" s="40"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="14">
         <v>1076753</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
@@ -2790,7 +2791,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -2800,25 +2801,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>145879</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43" t="s">
+      <c r="E9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="38" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2832,64 +2833,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="15">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="14">
         <v>200437</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="15">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="14">
         <v>310111</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="14">
         <v>528401</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="38"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="15">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="14">
         <v>1076753</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="38"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -2959,7 +2960,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A9" sqref="A9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,87 +2979,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="34" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>500</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="21" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -3072,7 +3073,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3087,28 +3088,28 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="255" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="24" t="s">
+      <c r="E5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -3152,20 +3153,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFDC3C-341C-41B7-A303-A9D110AB9978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C76F17-EDFD-455B-B750-890C8796C4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1245" windowWidth="14190" windowHeight="13860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1290" windowWidth="14190" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
-    <sheet name="SBS" sheetId="11" r:id="rId2"/>
-    <sheet name="indel" sheetId="10" r:id="rId3"/>
-    <sheet name="SBS_2" sheetId="8" r:id="rId4"/>
-    <sheet name="indel_2" sheetId="9" r:id="rId5"/>
-    <sheet name="SBS_down_samp" sheetId="1" r:id="rId6"/>
-    <sheet name="indel_down_samp" sheetId="4" r:id="rId7"/>
+    <sheet name="SBS_general" sheetId="12" r:id="rId2"/>
+    <sheet name="Indel_general" sheetId="13" r:id="rId3"/>
+    <sheet name="SBS" sheetId="11" r:id="rId4"/>
+    <sheet name="indel" sheetId="10" r:id="rId5"/>
+    <sheet name="SBS_2" sheetId="8" r:id="rId6"/>
+    <sheet name="indel_2" sheetId="9" r:id="rId7"/>
+    <sheet name="SBS_down_samp" sheetId="1" r:id="rId8"/>
+    <sheet name="indel_down_samp" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="116">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -566,17 +568,116 @@
 GLOBAL.gamma.alpha = 1,
 GLOBAL.gamma.beta = 1</t>
   </si>
+  <si>
+    <t>Benchmarking mSigHdp in the original submission and proposed additional benchmarking </t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t> = benchmarking in the original submission </t>
+  </si>
+  <si>
+    <t>= additional benchmarking in revision </t>
+  </si>
+  <si>
+    <t>SBS  data sets </t>
+  </si>
+  <si>
+    <t>Synthetic data set 1 </t>
+  </si>
+  <si>
+    <t>Synthetic data set 2 </t>
+  </si>
+  <si>
+    <t>Noise </t>
+  </si>
+  <si>
+    <t>Approach </t>
+  </si>
+  <si>
+    <t>None </t>
+  </si>
+  <si>
+    <t>Moderate </t>
+  </si>
+  <si>
+    <t>Realistic </t>
+  </si>
+  <si>
+    <t>mSigHdp no downsampling </t>
+  </si>
+  <si>
+    <t>original submission </t>
+  </si>
+  <si>
+    <t>done </t>
+  </si>
+  <si>
+    <t>SigProfilerExtractor </t>
+  </si>
+  <si>
+    <t>SignatureAnalyzer </t>
+  </si>
+  <si>
+    <t>signeR </t>
+  </si>
+  <si>
+    <t>Original hdp with programming errors corrected </t>
+  </si>
+  <si>
+    <t>gamma.beta = 1</t>
+  </si>
+  <si>
+    <t>Running
+Takes 14 days already</t>
+  </si>
+  <si>
+    <t>Pending for available resources</t>
+  </si>
+  <si>
+    <t>gamma.beta = 20</t>
+  </si>
+  <si>
+    <t>mSigHdp 10k downsampling </t>
+  </si>
+  <si>
+    <t>Not yet runned</t>
+  </si>
+  <si>
+    <t>mSigHdp 5k downsampling </t>
+  </si>
+  <si>
+    <t>mSigHdp 3k downsampling </t>
+  </si>
+  <si>
+    <t>Indel data sets </t>
+  </si>
+  <si>
+    <t>gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>Some runs failed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,8 +730,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +799,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -688,56 +832,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -746,58 +1019,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -806,30 +1082,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{4DBD74BB-9B12-4298-9AA6-0A807FEE0790}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,12 +1484,12 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1144,7 +1497,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
@@ -1184,7 +1537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
@@ -1204,7 +1557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>25</v>
@@ -1216,7 +1569,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>26</v>
@@ -1228,7 +1581,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>27</v>
@@ -1240,7 +1593,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>27</v>
@@ -1252,7 +1605,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1260,15 +1613,15 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1288,6 +1641,506 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52971DA9-35F9-431D-99EC-B8057B18CDFC}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A9" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A10" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39" thickBot="1">
+      <c r="A11" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A12" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A14" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A16" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A17" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A18" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C10:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16AE307-4AD6-4677-ADDD-934D34217471}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A11" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39" thickBot="1">
+      <c r="A12" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A13" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A14" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A15" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="69"/>
+    </row>
+    <row r="16" spans="1:6" ht="26.25" thickBot="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="69"/>
+    </row>
+    <row r="17" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A17" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="69"/>
+    </row>
+    <row r="18" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A18" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="69"/>
+    </row>
+    <row r="19" spans="1:6" ht="51.75" thickBot="1">
+      <c r="A19" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C11:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DFF80A-C422-4360-9D1E-94068848F4B1}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -1298,37 +2151,37 @@
       <selection activeCell="B11" sqref="B11:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="34"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1339,7 +2192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="165">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +2210,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2"/>
@@ -1367,7 +2220,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="240">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1391,7 +2244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
@@ -1400,7 +2253,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1418,7 +2271,7 @@
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
@@ -1428,7 +2281,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="75">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1446,7 +2299,7 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="14"/>
       <c r="C10" s="5"/>
@@ -1456,14 +2309,14 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:8" ht="54" customHeight="1">
+      <c r="A11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -1476,10 +2329,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
+    <row r="12" spans="1:8" ht="54" customHeight="1">
+      <c r="A12" s="38"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -1490,10 +2343,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
+    <row r="13" spans="1:8" ht="54" customHeight="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
@@ -1504,10 +2357,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="36"/>
+    <row r="14" spans="1:8" ht="54" customHeight="1">
+      <c r="A14" s="38"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
@@ -1518,10 +2371,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="36"/>
+    <row r="15" spans="1:8" ht="54" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
@@ -1532,9 +2385,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1542,11 +2395,11 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="270" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="28" t="s">
         <v>81</v>
       </c>
@@ -1560,7 +2413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1570,7 +2423,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1580,17 +2433,17 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1611,7 +2464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A9EF94-C3F0-491E-B97E-7A2B5FFF7AB0}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -1622,40 +2475,40 @@
       <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="34"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1669,7 +2522,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="165">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1690,7 +2543,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2"/>
@@ -1703,7 +2556,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="240">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1730,7 +2583,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
@@ -1742,7 +2595,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1763,7 +2616,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="14"/>
       <c r="C8" s="2"/>
@@ -1776,7 +2629,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="75">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +2650,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="14"/>
       <c r="C10" s="5"/>
@@ -1810,11 +2663,11 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="270" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -1833,9 +2686,9 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1845,11 +2698,11 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="270" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="27" t="s">
         <v>82</v>
       </c>
@@ -1864,7 +2717,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
       <c r="C14" s="5"/>
@@ -1877,7 +2730,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="17"/>
       <c r="C15" s="5"/>
@@ -1890,21 +2743,21 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" s="17"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="17"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1923,7 +2776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA50912E-27FE-44B5-A047-41F12E48181B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -1934,7 +2787,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -1942,30 +2795,30 @@
     <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="34"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -1974,7 +2827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="165">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1992,13 +2845,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="240">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2020,21 +2873,21 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2055,21 +2908,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="75">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -2090,14 +2943,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2108,14 +2961,14 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -2126,14 +2979,14 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -2142,16 +2995,16 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -2162,12 +3015,12 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2185,18 +3038,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DE763-45BF-4630-996D-9B80B26D1A4B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -2206,24 +3059,24 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="35" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2231,11 +3084,11 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+    <row r="2" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
@@ -2250,7 +3103,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="165">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +3126,7 @@
       <c r="H3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2284,7 +3137,7 @@
       <c r="H4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="240">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2307,7 +3160,7 @@
       <c r="H5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2318,7 +3171,7 @@
       <c r="H6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2341,7 +3194,7 @@
       <c r="H7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2352,7 +3205,7 @@
       <c r="H8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="90">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2375,7 +3228,7 @@
       <c r="H9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2386,11 +3239,11 @@
       <c r="H10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="270" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -2409,9 +3262,9 @@
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2420,19 +3273,19 @@
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:13" ht="54" customHeight="1">
+      <c r="A13" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="40" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="39" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="25" t="s">
@@ -2441,67 +3294,67 @@
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="39"/>
+    <row r="14" spans="1:13" ht="54" customHeight="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="38"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="39"/>
+    <row r="15" spans="1:13" ht="54" customHeight="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="44" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="31" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="39"/>
+    <row r="16" spans="1:13" ht="54" customHeight="1">
+      <c r="A16" s="41"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="44" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="31" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="1:13" ht="54" customHeight="1">
+      <c r="A17" s="41"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="44" t="s">
+      <c r="F17" s="39"/>
+      <c r="G17" s="31" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -2516,7 +3369,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2531,17 +3384,17 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2563,7 +3416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2574,7 +3427,7 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
@@ -2588,23 +3441,23 @@
     <col min="13" max="13" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="45">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -2643,14 +3496,14 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:13" ht="60" customHeight="1">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="14">
@@ -2681,12 +3534,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="A4" s="41"/>
+      <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="14">
         <v>200437</v>
       </c>
@@ -2709,10 +3562,10 @@
       <c r="K4" s="3"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="42"/>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="A5" s="41"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="14">
         <v>310111</v>
       </c>
@@ -2735,10 +3588,10 @@
       <c r="K5" s="3"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="42"/>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="A6" s="41"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="14">
         <v>528401</v>
       </c>
@@ -2761,10 +3614,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="42"/>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
+      <c r="A7" s="41"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="14">
         <v>1076753</v>
       </c>
@@ -2787,7 +3640,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2800,26 +3653,26 @@
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:13" ht="48" customHeight="1">
+      <c r="A9" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="14">
         <v>145879</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="38" t="s">
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2832,81 +3685,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
+    <row r="10" spans="1:13" ht="48" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="14">
         <v>200437</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="38"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="42"/>
+    <row r="11" spans="1:13" ht="48" customHeight="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="14">
         <v>310111</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="38"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="42"/>
+    <row r="12" spans="1:13" ht="48" customHeight="1">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="14">
         <v>528401</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="38"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="39"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="42"/>
+    <row r="13" spans="1:13" ht="48" customHeight="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="14">
         <v>1076753</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="38"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="39"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -2920,12 +3773,12 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2942,7 +3795,7 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C9:C13"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
@@ -2952,7 +3805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2963,7 +3816,7 @@
       <selection activeCell="A9" sqref="A9:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -2978,24 +3831,24 @@
     <col min="14" max="14" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="13"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="45">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3890,7 @@
       </c>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="165">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3053,12 +3906,12 @@
       <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="21" t="s">
         <v>45</v>
       </c>
@@ -3072,7 +3925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="14"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3087,7 +3940,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="255" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="255" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -3103,12 +3956,12 @@
       <c r="E5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
@@ -3122,7 +3975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3137,7 +3990,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -3152,23 +4005,23 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -3184,12 +4037,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>34</v>
       </c>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C76F17-EDFD-455B-B750-890C8796C4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE806E-B293-4CDE-AA2D-F152AC705F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1290" windowWidth="14190" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -18,10 +18,12 @@
     <sheet name="Indel_general" sheetId="13" r:id="rId3"/>
     <sheet name="SBS" sheetId="11" r:id="rId4"/>
     <sheet name="indel" sheetId="10" r:id="rId5"/>
-    <sheet name="SBS_2" sheetId="8" r:id="rId6"/>
-    <sheet name="indel_2" sheetId="9" r:id="rId7"/>
-    <sheet name="SBS_down_samp" sheetId="1" r:id="rId8"/>
-    <sheet name="indel_down_samp" sheetId="4" r:id="rId9"/>
+    <sheet name="SBS_down_samp" sheetId="1" r:id="rId6"/>
+    <sheet name="indel_down_samp" sheetId="4" r:id="rId7"/>
+    <sheet name="SBS_2" sheetId="8" r:id="rId8"/>
+    <sheet name="indel_2" sheetId="9" r:id="rId9"/>
+    <sheet name="SBS_2_down_samp" sheetId="15" r:id="rId10"/>
+    <sheet name="indel_2_down_samp" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="133">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -629,42 +631,206 @@
     <t>gamma.beta = 1</t>
   </si>
   <si>
+    <t>Pending for available resources</t>
+  </si>
+  <si>
+    <t>gamma.beta = 20</t>
+  </si>
+  <si>
+    <t>Not yet runned</t>
+  </si>
+  <si>
+    <t>Indel data sets </t>
+  </si>
+  <si>
+    <t>gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>Some runs failed</t>
+  </si>
+  <si>
+    <t>hpc-long</t>
+  </si>
+  <si>
+    <t>hpc-super</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Running on monster2</t>
+  </si>
+  <si>
     <t>Running
-Takes 14 days already</t>
-  </si>
-  <si>
-    <t>Pending for available resources</t>
-  </si>
-  <si>
-    <t>gamma.beta = 20</t>
-  </si>
-  <si>
-    <t>mSigHdp 10k downsampling </t>
-  </si>
-  <si>
-    <t>Not yet runned</t>
-  </si>
-  <si>
-    <t>mSigHdp 5k downsampling </t>
-  </si>
-  <si>
-    <t>mSigHdp 3k downsampling </t>
-  </si>
-  <si>
-    <t>Indel data sets </t>
-  </si>
-  <si>
-    <t>gamma.beta = 50</t>
-  </si>
-  <si>
-    <t>Some runs failed</t>
+on minimonster</t>
+  </si>
+  <si>
+    <t> = additional benchmarking running</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = additional benchmarking done</t>
+  </si>
+  <si>
+    <t>Running on HPC-cluster, queue "long"</t>
+  </si>
+  <si>
+    <t>10k downsampling</t>
+  </si>
+  <si>
+    <t>5k downsampling</t>
+  </si>
+  <si>
+    <t>3k downsampling</t>
+  </si>
+  <si>
+    <r>
+      <t>SigPro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1k downsampling </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"non-hyper" - removed all spectra with &gt;10k mutations</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SigProfilerExtractor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Running on HPC-cluster, queue "super"</t>
+  </si>
+  <si>
+    <r>
+      <t>10k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = Data sets not included in Prof Steve's revision plan</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +915,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -824,7 +1003,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -960,13 +1139,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1061,48 +1255,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1110,11 +1262,92 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1122,62 +1355,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1614,10 +1847,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1640,253 +1873,1121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52971DA9-35F9-431D-99EC-B8057B18CDFC}">
-  <dimension ref="A1:F18"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF7C9A9-BAE7-4BED-BECB-93E5F2CC9436}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="45">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="77"/>
+    </row>
+    <row r="5" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A5" s="77"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:11" ht="35.1" customHeight="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="77"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="240">
+      <c r="A9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{BB77AC9D-0D8E-4A54-B106-A21D8FD578EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF84DB8-9AE4-4269-A055-41FA0F5B8B27}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" ht="45">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A3" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="77"/>
+    </row>
+    <row r="5" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A5" s="77"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="77"/>
+    </row>
+    <row r="7" spans="1:13" ht="35.1" customHeight="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="77"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="54" customHeight="1">
+      <c r="A9" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="54" customHeight="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="1:13" ht="54" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" ht="54" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="1:13" ht="54" customHeight="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{1C164972-05C4-4332-B960-F3345B2C884F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52971DA9-35F9-431D-99EC-B8057B18CDFC}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="B4" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>89</v>
-      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="51" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="52" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="67" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="54" t="s">
+      <c r="G8" s="67"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="55" t="s">
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A10" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="53" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D10" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E10" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A10" s="55" t="s">
+    <row r="11" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A11" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39" thickBot="1">
+      <c r="A12" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="39" thickBot="1">
-      <c r="A11" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="59" t="s">
+      <c r="G12" s="38" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A12" s="55" t="s">
+    <row r="13" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="59" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="55" t="s">
+      <c r="G13" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A14" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="59" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A14" s="66" t="s">
+      <c r="G14" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A15" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B15" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="67" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="67" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="55" t="s">
+    <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A17" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="59" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A18" s="53"/>
+      <c r="B18" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A16" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="59" t="s">
+      <c r="G18" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A17" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="59" t="s">
+      <c r="G19" s="42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A20" s="53"/>
+      <c r="B20" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A18" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="59" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="39" thickBot="1">
+      <c r="A21" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="70" t="s">
-        <v>110</v>
+    </row>
+    <row r="22" spans="1:7" ht="39" thickBot="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="53"/>
+      <c r="B23" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" thickBot="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C10:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:E7"/>
+  <mergeCells count="10">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C11:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1895,248 +2996,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16AE307-4AD6-4677-ADDD-934D34217471}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="B4" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>89</v>
-      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="52" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A5" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="54" t="s">
+      <c r="G9" s="65"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="53" t="s">
+      <c r="G10" s="66"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D11" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E11" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F11" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A11" s="55" t="s">
+    <row r="12" spans="1:12" ht="51.75" thickBot="1">
+      <c r="A12" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="39" thickBot="1">
-      <c r="A12" s="55" t="s">
+      <c r="G12" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="39" thickBot="1">
+      <c r="A13" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="59" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A13" s="55" t="s">
+      <c r="G13" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" thickBot="1">
+      <c r="A14" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="59" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="55" t="s">
+      <c r="G14" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A15" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="59" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="66" t="s">
+      <c r="G15" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="59" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="69"/>
-    </row>
-    <row r="16" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="69"/>
-    </row>
-    <row r="17" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A17" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="59" t="s">
+      <c r="F16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="69"/>
-    </row>
-    <row r="18" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A18" s="55" t="s">
+      <c r="G16" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" thickBot="1">
+      <c r="A17" s="53"/>
+      <c r="B17" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="59" t="s">
+      <c r="G17" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="69"/>
-    </row>
-    <row r="19" spans="1:6" ht="51.75" thickBot="1">
-      <c r="A19" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="59" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="39" thickBot="1">
+      <c r="A18" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="70"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="39" thickBot="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="69"/>
+    </row>
+    <row r="20" spans="1:7" ht="39" thickBot="1">
+      <c r="A20" s="53"/>
+      <c r="B20" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="69"/>
+    </row>
+    <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="69"/>
+    </row>
+    <row r="22" spans="1:7" ht="90" thickBot="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="70"/>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" thickBot="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="69"/>
+    </row>
+    <row r="25" spans="1:7" ht="39" thickBot="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="69"/>
+    </row>
+    <row r="26" spans="1:7" ht="39" thickBot="1">
+      <c r="A26" s="53"/>
+      <c r="B26" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="69"/>
+    </row>
+    <row r="27" spans="1:7" ht="90" thickBot="1">
+      <c r="A27" s="53"/>
+      <c r="B27" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C11:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:E8"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C12:E15"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2147,8 +3398,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2159,29 +3410,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2310,13 +3561,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="74" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -2330,9 +3581,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="54" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -2344,9 +3595,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="54" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
@@ -2358,9 +3609,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
@@ -2372,9 +3623,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
@@ -2387,7 +3638,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -2399,7 +3650,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="34"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="28" t="s">
         <v>81</v>
       </c>
@@ -2471,7 +3722,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
@@ -2483,32 +3734,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2667,7 +3918,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="72" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -2688,7 +3939,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="34"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2702,7 +3953,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="27" t="s">
         <v>82</v>
       </c>
@@ -2777,653 +4028,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA50912E-27FE-44B5-A047-41F12E48181B}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="165">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="240">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DE763-45BF-4630-996D-9B80B26D1A4B}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="165">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="240">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="90">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="270" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="5"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="5">
-        <v>145879</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="5">
-        <v>200437</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="5">
-        <v>310111</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="5">
-        <v>528401</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="5">
-        <v>1076753</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -3446,13 +4057,13 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -3497,13 +4108,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="75" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="14">
@@ -3535,11 +4146,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="14">
         <v>200437</v>
       </c>
@@ -3563,9 +4174,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="14">
         <v>310111</v>
       </c>
@@ -3589,9 +4200,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="14">
         <v>528401</v>
       </c>
@@ -3615,9 +4226,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="14">
         <v>1076753</v>
       </c>
@@ -3654,25 +4265,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="75" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="14">
         <v>145879</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="39" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -3686,64 +4297,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="14">
         <v>200437</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="39"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="14">
         <v>310111</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="39"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="14">
         <v>528401</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="39"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="14">
         <v>1076753</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="39"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -3805,7 +4416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -3813,7 +4424,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:L9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3836,13 +4447,13 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="13"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -3906,12 +4517,12 @@
       <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="21" t="s">
         <v>45</v>
       </c>
@@ -3956,12 +4567,12 @@
       <c r="E5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
@@ -4006,20 +4617,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4060,4 +4671,644 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA50912E-27FE-44B5-A047-41F12E48181B}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A1" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="165">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="240">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="75">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DE763-45BF-4630-996D-9B80B26D1A4B}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A1" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="165">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="240">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="90">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="270" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="5"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="54" customHeight="1">
+      <c r="A13" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5">
+        <v>145879</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="54" customHeight="1">
+      <c r="A14" s="77"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="5">
+        <v>200437</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="54" customHeight="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="5">
+        <v>310111</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="54" customHeight="1">
+      <c r="A16" s="77"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="5">
+        <v>528401</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="54" customHeight="1">
+      <c r="A17" s="77"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="5">
+        <v>1076753</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE806E-B293-4CDE-AA2D-F152AC705F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485196F-5D91-410D-88BA-2628331F48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="133">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -1160,7 +1160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1292,15 +1292,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,6 +1307,9 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,9 +1405,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1847,10 +1841,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1878,11 +1872,9 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1899,12 +1891,12 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="14"/>
       <c r="J1" s="16"/>
       <c r="K1" s="14"/>
@@ -1945,101 +1937,113 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="77" t="s">
+      <c r="G3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="76" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="G4" s="50" t="s">
+        <v>113</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="50" t="s">
+        <v>113</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="50" t="s">
+        <v>113</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="50" t="s">
+        <v>113</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="14"/>
@@ -2051,51 +2055,27 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="46"/>
+      <c r="J8" s="45"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="240">
-      <c r="A9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2105,92 +2085,63 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="17"/>
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="K3:K7"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="C3:C7"/>
@@ -2211,10 +2162,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2236,13 +2187,13 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -2287,13 +2238,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -2314,20 +2265,20 @@
       <c r="I3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="76" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2346,14 +2297,14 @@
       <c r="I4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="77"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2372,14 +2323,14 @@
       <c r="I5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="77"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2398,14 +2349,14 @@
       <c r="I6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="77"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="76"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2424,9 +2375,9 @@
       <c r="I7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="77"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="76"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="14"/>
@@ -2439,191 +2390,73 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="46"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:13" ht="54" customHeight="1">
-      <c r="A9" s="77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2">
-        <v>145879</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="54" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="2">
-        <v>200437</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="77"/>
-    </row>
-    <row r="11" spans="1:13" ht="54" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="2">
-        <v>310111</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="77"/>
-    </row>
-    <row r="12" spans="1:13" ht="54" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="2">
-        <v>528401</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="2">
-        <v>1076753</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="77"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="52" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="8">
     <mergeCell ref="L3:L7"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="K3:K7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="L9:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{1C164972-05C4-4332-B960-F3345B2C884F}"/>
@@ -2647,15 +2480,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="43"/>
@@ -2667,7 +2500,7 @@
       <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="33"/>
@@ -2681,18 +2514,18 @@
       <c r="A4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>117</v>
       </c>
       <c r="J4" s="44"/>
@@ -2704,7 +2537,7 @@
       <c r="A5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="44"/>
@@ -2712,10 +2545,10 @@
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J5" s="44"/>
@@ -2736,39 +2569,39 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="67" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="37" t="s">
@@ -2796,11 +2629,11 @@
         <v>98</v>
       </c>
       <c r="B11" s="37"/>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="40" t="s">
         <v>106</v>
       </c>
@@ -2813,9 +2646,9 @@
         <v>101</v>
       </c>
       <c r="B12" s="37"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="38" t="s">
         <v>100</v>
       </c>
@@ -2828,9 +2661,9 @@
         <v>102</v>
       </c>
       <c r="B13" s="37"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="38" t="s">
         <v>100</v>
       </c>
@@ -2843,9 +2676,9 @@
         <v>103</v>
       </c>
       <c r="B14" s="37"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="38" t="s">
         <v>100</v>
       </c>
@@ -2854,7 +2687,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="52" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="37" t="s">
@@ -2870,7 +2703,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="37" t="s">
         <v>107</v>
       </c>
@@ -2884,7 +2717,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="37" t="s">
@@ -2900,7 +2733,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="37" t="s">
         <v>121</v>
       </c>
@@ -2914,7 +2747,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="37" t="s">
         <v>122</v>
       </c>
@@ -2928,7 +2761,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="37" t="s">
         <v>126</v>
       </c>
@@ -2939,7 +2772,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="52" t="s">
         <v>123</v>
       </c>
       <c r="B21" s="37" t="s">
@@ -2950,7 +2783,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="37" t="s">
         <v>130</v>
       </c>
@@ -2959,7 +2792,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="37" t="s">
         <v>131</v>
       </c>
@@ -2968,7 +2801,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="37" t="s">
         <v>126</v>
       </c>
@@ -3008,15 +2841,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="43"/>
@@ -3028,7 +2861,7 @@
       <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="33"/>
@@ -3042,18 +2875,18 @@
       <c r="A4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="47" t="s">
         <v>117</v>
       </c>
       <c r="J4" s="44"/>
@@ -3064,7 +2897,7 @@
       <c r="A5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="44"/>
@@ -3072,10 +2905,10 @@
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="47" t="s">
         <v>118</v>
       </c>
       <c r="J5" s="44"/>
@@ -3103,39 +2936,39 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="33"/>
@@ -3161,11 +2994,11 @@
         <v>98</v>
       </c>
       <c r="B12" s="37"/>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="38" t="s">
         <v>100</v>
       </c>
@@ -3178,9 +3011,9 @@
         <v>101</v>
       </c>
       <c r="B13" s="37"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="38" t="s">
         <v>100</v>
       </c>
@@ -3193,9 +3026,9 @@
         <v>102</v>
       </c>
       <c r="B14" s="37"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="38" t="s">
         <v>100</v>
       </c>
@@ -3208,9 +3041,9 @@
         <v>103</v>
       </c>
       <c r="B15" s="37"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="38" t="s">
         <v>100</v>
       </c>
@@ -3219,7 +3052,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>104</v>
       </c>
       <c r="B16" s="37" t="s">
@@ -3238,7 +3071,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="37" t="s">
         <v>110</v>
       </c>
@@ -3247,7 +3080,7 @@
       <c r="E17" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="46" t="s">
         <v>111</v>
       </c>
       <c r="G17" s="38" t="s">
@@ -3255,7 +3088,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -3267,12 +3100,12 @@
         <v>100</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="67" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="37" t="s">
         <v>121</v>
       </c>
@@ -3282,10 +3115,10 @@
         <v>100</v>
       </c>
       <c r="F19" s="33"/>
-      <c r="G19" s="69"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="37" t="s">
         <v>122</v>
       </c>
@@ -3295,30 +3128,30 @@
         <v>100</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="53"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="37" t="s">
         <v>124</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="37" t="s">
         <v>125</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="70"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="52" t="s">
         <v>127</v>
       </c>
       <c r="B23" s="37" t="s">
@@ -3327,57 +3160,52 @@
       <c r="E23" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="67" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="37" t="s">
         <v>130</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="69"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="37" t="s">
         <v>131</v>
       </c>
       <c r="E25" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="37" t="s">
         <v>126</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="37" t="s">
         <v>125</v>
       </c>
       <c r="E27" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="70"/>
+      <c r="G27" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3385,6 +3213,11 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3410,29 +3243,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="72"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3561,13 +3394,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -3581,9 +3414,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="54" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="75"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
@@ -3595,9 +3428,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="54" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="75"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
@@ -3609,9 +3442,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="75"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
@@ -3623,9 +3456,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="75"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
@@ -3638,7 +3471,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="72"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3650,7 +3483,7 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="28" t="s">
         <v>81</v>
       </c>
@@ -3734,32 +3567,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="72"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3918,7 +3751,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -3939,7 +3772,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3953,7 +3786,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="27" t="s">
         <v>82</v>
       </c>
@@ -4057,13 +3890,13 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -4108,13 +3941,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="14">
@@ -4146,11 +3979,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="80"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="14">
         <v>200437</v>
       </c>
@@ -4174,9 +4007,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="14">
         <v>310111</v>
       </c>
@@ -4200,9 +4033,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="80"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="14">
         <v>528401</v>
       </c>
@@ -4226,9 +4059,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="80"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="14">
         <v>1076753</v>
       </c>
@@ -4265,25 +4098,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="14">
         <v>145879</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79" t="s">
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -4297,64 +4130,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="80"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="14">
         <v>200437</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="80"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="14">
         <v>310111</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="80"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="14">
         <v>528401</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="14">
         <v>1076753</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -4447,13 +4280,13 @@
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
       <c r="J1" s="13"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -4517,12 +4350,12 @@
       <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="21" t="s">
         <v>45</v>
       </c>
@@ -4567,12 +4400,12 @@
       <c r="E5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
@@ -4617,20 +4450,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4693,29 +4526,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -4893,13 +4726,13 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
@@ -4957,23 +4790,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -4982,10 +4815,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
@@ -5140,7 +4973,7 @@
       <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -5161,7 +4994,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5171,18 +5004,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="81" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="78" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="25" t="s">
@@ -5192,14 +5025,14 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="79"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="25" t="s">
         <v>23</v>
       </c>
@@ -5207,14 +5040,14 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="79"/>
+      <c r="F15" s="78"/>
       <c r="G15" s="31" t="s">
         <v>23</v>
       </c>
@@ -5222,14 +5055,14 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="79"/>
+      <c r="F16" s="78"/>
       <c r="G16" s="31" t="s">
         <v>23</v>
       </c>
@@ -5237,14 +5070,14 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="79"/>
+      <c r="F17" s="78"/>
       <c r="G17" s="31" t="s">
         <v>23</v>
       </c>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485196F-5D91-410D-88BA-2628331F48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717AB852-B8BF-4E85-9081-C790958F07F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -1192,9 +1192,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1405,6 +1402,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1841,10 +1841,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1874,7 +1874,7 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1882,171 +1882,171 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="25" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="70" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="14"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="50" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="75" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="50" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="76"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="50" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="76"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="50" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="76"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="76"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="75"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2055,22 +2055,22 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="45"/>
+      <c r="J8" s="44"/>
       <c r="K8" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -2084,7 +2084,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -2123,12 +2123,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2183,68 +2183,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="70" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -2265,20 +2265,20 @@
       <c r="I3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="75" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2297,14 +2297,14 @@
       <c r="I4" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="76"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="75"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2323,14 +2323,14 @@
       <c r="I5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="76"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="75"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2349,14 +2349,14 @@
       <c r="I6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="76"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2375,12 +2375,12 @@
       <c r="I7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="76"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="75"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2390,7 +2390,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="45"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13">
@@ -2408,19 +2408,19 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
@@ -2476,336 +2476,336 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="49" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="48" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="63" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="64" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="66" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="65" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="40" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="38" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="38" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="38" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="38" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="39" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="38" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="38" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="38" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="38" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="37" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2837,375 +2837,380 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="49" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="48" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="63" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="64" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="65" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="64"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51.75" thickBot="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="38" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="39" thickBot="1">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="38" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="38" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="38" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="38" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="38" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="67" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" s="66" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="38" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="68"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="38" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="68"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="66" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="37" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="68"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3213,11 +3218,6 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3231,8 +3231,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3243,29 +3243,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3280,23 +3280,23 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3308,29 +3308,29 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3341,23 +3341,23 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3369,7 +3369,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3379,13 +3379,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3394,13 +3394,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="72" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -3409,69 +3409,69 @@
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="54" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="74"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="54" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="74"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="74"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="71"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3483,8 +3483,8 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3493,7 +3493,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
@@ -3567,32 +3567,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3610,26 +3610,26 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3644,23 +3644,23 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3683,26 +3683,26 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3717,7 +3717,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3727,16 +3727,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3751,10 +3751,10 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3772,7 +3772,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3786,8 +3786,8 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="26" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3803,7 +3803,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3828,13 +3828,13 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="17"/>
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -3867,7 +3867,7 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -3886,86 +3886,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="70" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>145879</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -3979,27 +3979,27 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="14">
+      <c r="C4" s="78"/>
+      <c r="D4" s="13">
         <v>200437</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
@@ -4007,25 +4007,25 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="14">
+      <c r="A5" s="75"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="13">
         <v>310111</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
@@ -4033,25 +4033,25 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="14">
+      <c r="A6" s="75"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="13">
         <v>528401</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
@@ -4059,25 +4059,25 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="14">
+      <c r="A7" s="75"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="13">
         <v>1076753</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
@@ -4088,7 +4088,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -4098,25 +4098,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>145879</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78" t="s">
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -4130,64 +4130,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="14">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="13">
         <v>200437</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="78"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="14">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="13">
         <v>310111</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="14">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="13">
         <v>528401</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="78"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="77"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="14">
+      <c r="A13" s="75"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="13">
         <v>1076753</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="78"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -4256,7 +4256,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4276,72 +4276,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="70" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>500</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="165">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -4350,13 +4350,13 @@
       <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="21" t="s">
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="20" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -4370,7 +4370,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4385,28 +4385,28 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="255" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="23" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -4450,20 +4450,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4513,8 +4513,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4526,29 +4526,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -4561,17 +4561,17 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="82" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4585,20 +4585,20 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="2"/>
@@ -4621,20 +4621,20 @@
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -4666,10 +4666,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4726,13 +4726,13 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
@@ -4775,8 +4775,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4790,23 +4790,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -4815,10 +4815,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
@@ -4837,20 +4837,20 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="2"/>
@@ -4862,8 +4862,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -4874,17 +4874,17 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -4896,8 +4896,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="5"/>
       <c r="M6" s="5"/>
     </row>
@@ -4905,20 +4905,20 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5"/>
@@ -4930,8 +4930,8 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="5"/>
       <c r="M8" s="5"/>
     </row>
@@ -4939,7 +4939,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -4949,10 +4949,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5"/>
@@ -4964,29 +4964,29 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="270" customHeight="1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="5"/>
@@ -4994,91 +4994,91 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="71"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="81"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="79"/>
+      <c r="G14" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="81"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="81"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="79"/>
+      <c r="G16" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="81"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="79"/>
+      <c r="G17" s="30" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5"/>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717AB852-B8BF-4E85-9081-C790958F07F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B1F98-1D68-4F56-AB3D-7755975EE2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="133">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -929,7 +929,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,12 +945,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,7 +1154,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1180,9 +1174,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1216,24 +1207,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1249,38 +1240,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1292,20 +1283,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1313,31 +1313,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1355,13 +1355,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1385,12 +1385,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1402,9 +1402,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1841,10 +1838,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1874,7 +1871,9 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1882,171 +1881,189 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="24" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="69" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="13"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="77" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="75"/>
+      <c r="G4" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="77"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="77"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="75"/>
+      <c r="G5" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="77"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="75"/>
+      <c r="G6" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="77"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="50"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="49" t="s">
+      <c r="F7" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="75"/>
+      <c r="G7" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="77"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2055,22 +2072,22 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="44"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -2084,7 +2101,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -2123,12 +2140,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2183,204 +2200,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="69" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="77" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="75"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="75"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="75"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="75"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="50"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="75"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2390,7 +2407,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="44"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13">
@@ -2408,19 +2425,19 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
@@ -2476,336 +2493,336 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="48" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="47" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="62" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="63" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="65" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="67"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="64" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="39" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="37" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="37" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="37" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="38" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="37" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="37" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="37" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="36" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2837,380 +2854,375 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="48" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="47" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="62" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="63" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="64" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64" t="s">
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51.75" thickBot="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="52" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="37" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="39" thickBot="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="37" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="37" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="37" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="37" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="37" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="36" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="37" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="66" t="s">
+      <c r="F18" s="31"/>
+      <c r="G18" s="68" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="37" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="67"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="37" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="67"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="36" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="67"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="70"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="68" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="67"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="36" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="67"/>
+      <c r="G25" s="69"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="67"/>
+      <c r="G26" s="69"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="68"/>
+      <c r="G27" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3218,6 +3230,11 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3231,7 +3248,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3243,29 +3260,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3280,23 +3297,23 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3308,29 +3325,29 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3341,23 +3358,23 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3369,7 +3386,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3379,13 +3396,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3394,13 +3411,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="74" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -3409,69 +3426,69 @@
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="82" t="s">
+      <c r="H11" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="54" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="73"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="54" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="73"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="82" t="s">
+      <c r="H13" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="73"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="73"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="49" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3483,8 +3500,8 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3493,7 +3510,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3555,8 +3572,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3567,32 +3584,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3610,26 +3627,26 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3644,23 +3661,23 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
@@ -3669,7 +3686,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2"/>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3683,26 +3700,26 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3717,7 +3734,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3727,16 +3744,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3751,10 +3768,10 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3763,7 +3780,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="2"/>
@@ -3772,7 +3789,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3786,15 +3803,15 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="25" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="2"/>
@@ -3803,7 +3820,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3816,7 +3833,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3828,13 +3845,13 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -3867,7 +3884,7 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -3886,86 +3903,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="69" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>145879</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -3979,27 +3996,27 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="13">
+      <c r="C4" s="80"/>
+      <c r="D4" s="12">
         <v>200437</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
@@ -4007,25 +4024,25 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="13">
+      <c r="A5" s="77"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="12">
         <v>310111</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
@@ -4033,25 +4050,25 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="13">
+      <c r="A6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="12">
         <v>528401</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
@@ -4059,25 +4076,25 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="13">
+      <c r="A7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="12">
         <v>1076753</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
@@ -4088,7 +4105,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -4098,25 +4115,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>145879</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -4130,64 +4147,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="13">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="12">
         <v>200437</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="13">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="12">
         <v>310111</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="13">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="12">
         <v>528401</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="13">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="12">
         <v>1076753</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -4257,7 +4274,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4276,87 +4293,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="69" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="45">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>500</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="165">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="20" t="s">
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="19" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -4370,7 +4387,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4385,28 +4402,28 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="255" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="22" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -4450,20 +4467,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4511,10 +4528,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4526,29 +4543,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="69"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -4557,93 +4574,105 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="165">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="36" customHeight="1">
+      <c r="A3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="36" customHeight="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="77"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="240">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="240">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="19" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
@@ -4652,62 +4681,68 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="75">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="75">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="5"/>
+      <c r="F15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
@@ -4717,52 +4752,91 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4775,7 +4849,7 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -4790,40 +4864,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="73" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="1"/>
@@ -4837,20 +4911,20 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="2"/>
@@ -4862,8 +4936,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -4874,17 +4948,17 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -4896,8 +4970,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="5"/>
       <c r="M6" s="5"/>
     </row>
@@ -4905,20 +4979,20 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5"/>
@@ -4930,8 +5004,8 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="29"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="5"/>
       <c r="M8" s="5"/>
     </row>
@@ -4939,7 +5013,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -4949,10 +5023,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5"/>
@@ -4964,29 +5038,29 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="270" customHeight="1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="5"/>
@@ -4994,91 +5068,91 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="82" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="79" t="s">
+      <c r="F13" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="80"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="81"/>
+      <c r="G15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="80"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="81"/>
+      <c r="G16" s="29" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="80"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="30" t="s">
+      <c r="F17" s="81"/>
+      <c r="G17" s="29" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5"/>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B1F98-1D68-4F56-AB3D-7755975EE2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00D9F0-AC06-4122-9BFA-2239324B9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12510" yWindow="2010" windowWidth="17490" windowHeight="13860" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -62,8 +62,38 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}</author>
+    <author>tc={22E2E612-D633-4B09-9D4D-78AA3C124725}</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Failed probably because it reached memory limit of qsub system (100GB) in the previous run.
+In the new run, I set memory limit to 200GB.</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{22E2E612-D633-4B09-9D4D-78AA3C124725}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    The 4 seeds with results may also be wrong.
+The error message says they were killed due to memory exceeded limit.
+I also rerun mSigHdp on 10k, with seeds 200437 310111 528401 1076753</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="133">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -830,7 +860,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,6 +957,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1154,7 +1191,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1174,9 +1211,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1296,112 +1330,121 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1697,6 +1740,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H3" dT="2022-08-08T13:23:30.12" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}">
+    <text>Failed probably because it reached memory limit of qsub system (100GB) in the previous run.
+In the new run, I set memory limit to 200GB.</text>
+  </threadedComment>
+  <threadedComment ref="H4" dT="2022-08-08T13:33:16.82" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{22E2E612-D633-4B09-9D4D-78AA3C124725}">
+    <text>The 4 seeds with results may also be wrong.
+The error message says they were killed due to memory exceeded limit.
+I also rerun mSigHdp on 10k, with seeds 200437 310111 528401 1076753</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F41E31-627D-46DB-9DAE-54D982FDFE4B}">
   <sheetPr>
@@ -1838,10 +1895,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1865,14 +1922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF7C9A9-BAE7-4BED-BECB-93E5F2CC9436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF7C9A9-BAE7-4BED-BECB-93E5F2CC9436}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K3" sqref="K3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1881,189 +1938,189 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="23" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="71" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="12"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:11" ht="45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="77" t="s">
+      <c r="K3" s="78" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I5" s="77"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="77"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="77"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="77"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2072,22 +2129,22 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -2101,7 +2158,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
@@ -2140,12 +2197,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2171,6 +2228,8 @@
     <hyperlink ref="J3" r:id="rId1" xr:uid="{BB77AC9D-0D8E-4A54-B106-A21D8FD578EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2182,7 +2241,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2200,204 +2259,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="71" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="78" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="77"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="78"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="77"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="78"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="78"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2407,7 +2466,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="43"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13">
@@ -2425,19 +2484,19 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
@@ -2493,336 +2552,336 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="47" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="64" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="65" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="67" t="s">
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="66" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="38" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="36" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="36" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="36" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="37" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="36" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="36" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="36" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="38" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="36" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="36" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="53"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="35" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2854,375 +2913,380 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="47" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="46" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="64" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="65" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65" t="s">
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="66"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="66" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66" t="s">
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="66"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="34" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51.75" thickBot="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="36" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="39" thickBot="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="36" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="36" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="36" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="36" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="36" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="35" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="36" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="68" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="69" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="36" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="69"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="70"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="36" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="69"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="54"/>
+      <c r="B21" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="70"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="69"/>
+      <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="53"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="70"/>
+      <c r="G27" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3230,11 +3294,6 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3248,8 +3307,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3260,29 +3319,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3297,23 +3356,23 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3325,29 +3384,29 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3358,23 +3417,23 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3386,7 +3445,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3396,13 +3455,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3411,13 +3470,13 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="54" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="75" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="5">
@@ -3426,69 +3485,69 @@
       <c r="E11" s="5"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="54" customHeight="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="75"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="5">
         <v>200437</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="54" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="75"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="5">
         <v>310111</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="54" customHeight="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="75"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="5">
         <v>528401</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="49" t="s">
+      <c r="H14" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="54" customHeight="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="75"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="5">
         <v>1076753</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
-      <c r="B16" s="72"/>
+      <c r="B16" s="73"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -3500,8 +3559,8 @@
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -3510,7 +3569,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3572,8 +3631,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3584,32 +3643,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3627,26 +3686,26 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3661,23 +3720,23 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
@@ -3686,7 +3745,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3700,26 +3759,26 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -3734,7 +3793,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3744,16 +3803,16 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3768,10 +3827,10 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>85</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3780,7 +3839,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="50" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="2"/>
@@ -3789,7 +3848,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3803,15 +3862,15 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="24" t="s">
         <v>82</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="50" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="2"/>
@@ -3820,7 +3879,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3833,7 +3892,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -3845,13 +3904,13 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
@@ -3903,86 +3962,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="71" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>145879</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -3996,27 +4055,27 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="12">
+      <c r="C4" s="81"/>
+      <c r="D4" s="11">
         <v>200437</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="2"/>
@@ -4024,25 +4083,25 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="12">
+      <c r="A5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="11">
         <v>310111</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="2"/>
@@ -4050,25 +4109,25 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="12">
+      <c r="A6" s="78"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="11">
         <v>528401</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="2"/>
@@ -4076,25 +4135,25 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="12">
+      <c r="A7" s="78"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="11">
         <v>1076753</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="2"/>
@@ -4105,7 +4164,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
@@ -4115,25 +4174,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -4147,64 +4206,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="12">
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="12">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="12">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="12">
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -4273,7 +4332,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4293,87 +4352,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="71" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>500</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="165">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="18" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -4387,7 +4446,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="12"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4402,28 +4461,28 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="255" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="21" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -4467,20 +4526,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4531,7 +4590,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4543,29 +4602,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="74" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -4575,74 +4634,83 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="36" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="85" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="G5" s="85" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="36" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="G6" s="47" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="85" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4656,20 +4724,20 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2"/>
@@ -4692,20 +4760,20 @@
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4727,7 +4795,7 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -4737,10 +4805,10 @@
         <v>36</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4797,13 +4865,13 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
@@ -4849,8 +4917,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4864,40 +4932,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="74" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="1"/>
@@ -4911,20 +4979,20 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="2"/>
@@ -4936,8 +5004,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="28"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="2"/>
       <c r="M4" s="2"/>
     </row>
@@ -4948,17 +5016,17 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -4970,8 +5038,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="28"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="5"/>
       <c r="M6" s="5"/>
     </row>
@@ -4979,20 +5047,20 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5"/>
@@ -5004,8 +5072,8 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="28"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="5"/>
       <c r="M8" s="5"/>
     </row>
@@ -5013,7 +5081,7 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -5023,10 +5091,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="5"/>
@@ -5038,29 +5106,29 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="270" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="5"/>
@@ -5068,91 +5136,91 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="72"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="83" t="s">
         <v>83</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="82"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="82"/>
+      <c r="G14" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="82"/>
+      <c r="G15" s="28" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="29" t="s">
+      <c r="F16" s="82"/>
+      <c r="G16" s="28" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="29" t="s">
+      <c r="F17" s="82"/>
+      <c r="G17" s="28" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5"/>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00D9F0-AC06-4122-9BFA-2239324B9914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5593DD0-BF47-44E1-B5D6-FCCDAC71A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="2010" windowWidth="17490" windowHeight="13860" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="134">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -492,6 +492,341 @@
 Arguments for function mSigHdp::SetupAndPosterior():
 GLOBAL.gamma.alpha = 1,
 GLOBAL.gamma.beta = 1</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 22,
+multi.types = TRUE,
+post.burnin = 5000 * 6,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 26,
+multi.types = TRUE,
+post.burnin = 5000 * 6,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 26,
+multi.types = TRUE,
+post.burnin = 5000 * 6,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 1</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 22,
+multi.types = TRUE,
+post.burnin = 5000 * 6,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 1</t>
+  </si>
+  <si>
+    <t>Benchmarking mSigHdp in the original submission and proposed additional benchmarking </t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t> = benchmarking in the original submission </t>
+  </si>
+  <si>
+    <t>= additional benchmarking in revision </t>
+  </si>
+  <si>
+    <t>SBS  data sets </t>
+  </si>
+  <si>
+    <t>Synthetic data set 1 </t>
+  </si>
+  <si>
+    <t>Synthetic data set 2 </t>
+  </si>
+  <si>
+    <t>Noise </t>
+  </si>
+  <si>
+    <t>Approach </t>
+  </si>
+  <si>
+    <t>None </t>
+  </si>
+  <si>
+    <t>Moderate </t>
+  </si>
+  <si>
+    <t>Realistic </t>
+  </si>
+  <si>
+    <t>mSigHdp no downsampling </t>
+  </si>
+  <si>
+    <t>original submission </t>
+  </si>
+  <si>
+    <t>done </t>
+  </si>
+  <si>
+    <t>SigProfilerExtractor </t>
+  </si>
+  <si>
+    <t>SignatureAnalyzer </t>
+  </si>
+  <si>
+    <t>signeR </t>
+  </si>
+  <si>
+    <t>Original hdp with programming errors corrected </t>
+  </si>
+  <si>
+    <t>gamma.beta = 1</t>
+  </si>
+  <si>
+    <t>Pending for available resources</t>
+  </si>
+  <si>
+    <t>gamma.beta = 20</t>
+  </si>
+  <si>
+    <t>Not yet runned</t>
+  </si>
+  <si>
+    <t>Indel data sets </t>
+  </si>
+  <si>
+    <t>gamma.beta = 50</t>
+  </si>
+  <si>
+    <t>Some runs failed</t>
+  </si>
+  <si>
+    <t>hpc-long</t>
+  </si>
+  <si>
+    <t>hpc-super</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Running on monster2</t>
+  </si>
+  <si>
+    <t>Running
+on minimonster</t>
+  </si>
+  <si>
+    <t> = additional benchmarking running</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = additional benchmarking done</t>
+  </si>
+  <si>
+    <t>Running on HPC-cluster, queue "long"</t>
+  </si>
+  <si>
+    <t>10k downsampling</t>
+  </si>
+  <si>
+    <t>5k downsampling</t>
+  </si>
+  <si>
+    <t>3k downsampling</t>
+  </si>
+  <si>
+    <r>
+      <t>SigPro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1k downsampling </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"non-hyper" - removed all spectra with &gt;10k mutations</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SigProfilerExtractor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Running on HPC-cluster, queue "super"</t>
+  </si>
+  <si>
+    <r>
+      <t>10k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3k downsampling</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = Data sets not included in Prof Steve's revision plan</t>
+    </r>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 64,
+multi.types = TRUE,
+post.burnin = 5000 * 20,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 20</t>
   </si>
   <si>
     <r>
@@ -533,326 +868,7 @@
         <scheme val="minor"/>
       </rPr>
       <t>GLOBAL.gamma.alpha = 1,
-GLOBAL.gamma.beta = 50</t>
-    </r>
-  </si>
-  <si>
-    <t>Arguments for function mSigHdp::RunHdpParallel():
-K.guess = 22,
-multi.types = TRUE,
-post.burnin = 5000 * 6,
-post.n = 200,
-post.space = 100,
-post.cpiter = 3,
-num.child.process = 20,
-CPU.cores = 20,
-cos.merge = 0.9,
-min.sample = 1
-Arguments for function mSigHdp::SetupAndPosterior():
-GLOBAL.gamma.alpha = 1,
-GLOBAL.gamma.beta = 50</t>
-  </si>
-  <si>
-    <t>Arguments for function mSigHdp::RunHdpParallel():
-K.guess = 26,
-multi.types = TRUE,
-post.burnin = 5000 * 6,
-post.n = 200,
-post.space = 100,
-post.cpiter = 3,
-num.child.process = 20,
-CPU.cores = 20,
-cos.merge = 0.9,
-min.sample = 1
-Arguments for function mSigHdp::SetupAndPosterior():
-GLOBAL.gamma.alpha = 1,
-GLOBAL.gamma.beta = 50</t>
-  </si>
-  <si>
-    <t>Arguments for function mSigHdp::RunHdpParallel():
-K.guess = 26,
-multi.types = TRUE,
-post.burnin = 5000 * 6,
-post.n = 200,
-post.space = 100,
-post.cpiter = 3,
-num.child.process = 20,
-CPU.cores = 20,
-cos.merge = 0.9,
-min.sample = 1
-Arguments for function mSigHdp::SetupAndPosterior():
-GLOBAL.gamma.alpha = 1,
-GLOBAL.gamma.beta = 1</t>
-  </si>
-  <si>
-    <t>Arguments for function mSigHdp::RunHdpParallel():
-K.guess = 22,
-multi.types = TRUE,
-post.burnin = 5000 * 6,
-post.n = 200,
-post.space = 100,
-post.cpiter = 3,
-num.child.process = 20,
-CPU.cores = 20,
-cos.merge = 0.9,
-min.sample = 1
-Arguments for function mSigHdp::SetupAndPosterior():
-GLOBAL.gamma.alpha = 1,
-GLOBAL.gamma.beta = 1</t>
-  </si>
-  <si>
-    <t>Benchmarking mSigHdp in the original submission and proposed additional benchmarking </t>
-  </si>
-  <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t> = benchmarking in the original submission </t>
-  </si>
-  <si>
-    <t>= additional benchmarking in revision </t>
-  </si>
-  <si>
-    <t>SBS  data sets </t>
-  </si>
-  <si>
-    <t>Synthetic data set 1 </t>
-  </si>
-  <si>
-    <t>Synthetic data set 2 </t>
-  </si>
-  <si>
-    <t>Noise </t>
-  </si>
-  <si>
-    <t>Approach </t>
-  </si>
-  <si>
-    <t>None </t>
-  </si>
-  <si>
-    <t>Moderate </t>
-  </si>
-  <si>
-    <t>Realistic </t>
-  </si>
-  <si>
-    <t>mSigHdp no downsampling </t>
-  </si>
-  <si>
-    <t>original submission </t>
-  </si>
-  <si>
-    <t>done </t>
-  </si>
-  <si>
-    <t>SigProfilerExtractor </t>
-  </si>
-  <si>
-    <t>SignatureAnalyzer </t>
-  </si>
-  <si>
-    <t>signeR </t>
-  </si>
-  <si>
-    <t>Original hdp with programming errors corrected </t>
-  </si>
-  <si>
-    <t>gamma.beta = 1</t>
-  </si>
-  <si>
-    <t>Pending for available resources</t>
-  </si>
-  <si>
-    <t>gamma.beta = 20</t>
-  </si>
-  <si>
-    <t>Not yet runned</t>
-  </si>
-  <si>
-    <t>Indel data sets </t>
-  </si>
-  <si>
-    <t>gamma.beta = 50</t>
-  </si>
-  <si>
-    <t>Some runs failed</t>
-  </si>
-  <si>
-    <t>hpc-long</t>
-  </si>
-  <si>
-    <t>hpc-super</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Running on monster2</t>
-  </si>
-  <si>
-    <t>Running
-on minimonster</t>
-  </si>
-  <si>
-    <t> = additional benchmarking running</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> = additional benchmarking done</t>
-  </si>
-  <si>
-    <t>Running on HPC-cluster, queue "long"</t>
-  </si>
-  <si>
-    <t>10k downsampling</t>
-  </si>
-  <si>
-    <t>5k downsampling</t>
-  </si>
-  <si>
-    <t>3k downsampling</t>
-  </si>
-  <si>
-    <r>
-      <t>SigPro</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1k downsampling </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>"non-hyper" - removed all spectra with &gt;10k mutations</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1k downsampling</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SigProfilerExtractor</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>Running on HPC-cluster, queue "super"</t>
-  </si>
-  <si>
-    <r>
-      <t>10k downsampling</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5k downsampling</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3k downsampling</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> = Data sets not included in Prof Steve's revision plan</t>
+GLOBAL.gamma.beta = 20</t>
     </r>
   </si>
 </sst>
@@ -1443,7 +1459,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2006,16 +2022,16 @@
         <v>145879</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="78" t="s">
         <v>2</v>
@@ -2035,16 +2051,16 @@
         <v>200437</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I4" s="78"/>
       <c r="J4" s="84"/>
@@ -2058,16 +2074,16 @@
         <v>310111</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I5" s="78"/>
       <c r="J5" s="84"/>
@@ -2081,16 +2097,16 @@
         <v>528401</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I6" s="78"/>
       <c r="J6" s="84"/>
@@ -2104,16 +2120,16 @@
         <v>1076753</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I7" s="78"/>
       <c r="J7" s="84"/>
@@ -2327,19 +2343,19 @@
         <v>145879</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" s="78" t="s">
         <v>2</v>
@@ -2359,19 +2375,19 @@
         <v>200437</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="78"/>
       <c r="K4" s="84"/>
@@ -2385,19 +2401,19 @@
         <v>310111</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="78"/>
       <c r="K5" s="84"/>
@@ -2411,19 +2427,19 @@
         <v>528401</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J6" s="78"/>
       <c r="K6" s="84"/>
@@ -2437,19 +2453,19 @@
         <v>1076753</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="84"/>
@@ -2557,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -2577,7 +2593,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -2588,10 +2604,10 @@
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
       <c r="A4" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>87</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>88</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -2599,10 +2615,10 @@
       <c r="F4" s="44"/>
       <c r="G4" s="41"/>
       <c r="H4" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -2611,10 +2627,10 @@
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -2622,10 +2638,10 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="H5" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -2646,7 +2662,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="65"/>
       <c r="E7" s="65"/>
@@ -2657,12 +2673,12 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
       <c r="F8" s="68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="68"/>
     </row>
@@ -2670,126 +2686,126 @@
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="33" t="s">
         <v>96</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>97</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1">
       <c r="A11" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="57"/>
       <c r="F11" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1">
       <c r="A12" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="58"/>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
       <c r="F12" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1">
       <c r="A13" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="58"/>
       <c r="D13" s="59"/>
       <c r="E13" s="60"/>
       <c r="F13" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="61"/>
       <c r="D14" s="62"/>
       <c r="E14" s="63"/>
       <c r="F14" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
       <c r="A15" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>105</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
       <c r="A16" s="54"/>
       <c r="B16" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
@@ -2797,92 +2813,92 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A18" s="54"/>
       <c r="B18" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A19" s="54"/>
       <c r="B19" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A20" s="54"/>
       <c r="B20" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
       <c r="A21" s="54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
       <c r="A22" s="54"/>
       <c r="B22" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
       <c r="A23" s="54"/>
       <c r="B23" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
       <c r="A24" s="54"/>
       <c r="B24" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2934,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -2938,7 +2954,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -2949,10 +2965,10 @@
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
       <c r="A4" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>87</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>88</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -2960,10 +2976,10 @@
       <c r="F4" s="44"/>
       <c r="G4" s="41"/>
       <c r="H4" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -2971,10 +2987,10 @@
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -2982,10 +2998,10 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="H5" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -3013,7 +3029,7 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
@@ -3024,12 +3040,12 @@
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="66"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="66"/>
     </row>
@@ -3037,12 +3053,12 @@
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="67"/>
     </row>
@@ -3050,117 +3066,117 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>97</v>
-      </c>
       <c r="F11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51.75" thickBot="1">
       <c r="A12" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="57"/>
       <c r="F12" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="39" thickBot="1">
       <c r="A13" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="58"/>
       <c r="D13" s="59"/>
       <c r="E13" s="60"/>
       <c r="F13" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25" thickBot="1">
       <c r="A14" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="58"/>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
       <c r="F14" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="61"/>
       <c r="D15" s="62"/>
       <c r="E15" s="63"/>
       <c r="F15" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
       <c r="A16" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>105</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
       <c r="A17" s="54"/>
       <c r="B17" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
@@ -3168,27 +3184,27 @@
         <v>10</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
       <c r="A19" s="54"/>
       <c r="B19" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="70"/>
@@ -3196,12 +3212,12 @@
     <row r="20" spans="1:7" ht="39" thickBot="1">
       <c r="A20" s="54"/>
       <c r="B20" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="70"/>
@@ -3209,84 +3225,79 @@
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A21" s="54"/>
       <c r="B21" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="70"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
       <c r="A22" s="54"/>
       <c r="B22" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="71"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
       <c r="A23" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="69" t="s">
         <v>127</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
       <c r="A24" s="54"/>
       <c r="B24" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
       <c r="A25" s="54"/>
       <c r="B25" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
       <c r="A26" s="54"/>
       <c r="B26" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
       <c r="A27" s="54"/>
       <c r="B27" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G27" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3294,6 +3305,11 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3307,8 +3323,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3557,11 +3573,11 @@
     </row>
     <row r="17" spans="1:8" ht="270" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="73"/>
       <c r="C17" s="25" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>36</v>
@@ -3831,7 +3847,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -3864,7 +3880,7 @@
       </c>
       <c r="B13" s="73"/>
       <c r="C13" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -3943,8 +3959,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4333,7 +4349,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4587,10 +4603,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4601,7 +4617,7 @@
     <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.5" customHeight="1">
+    <row r="1" spans="1:14" ht="49.5" customHeight="1">
       <c r="A1" s="72" t="s">
         <v>4</v>
       </c>
@@ -4620,7 +4636,7 @@
       </c>
       <c r="G1" s="74"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:14">
       <c r="A2" s="72"/>
       <c r="B2" s="74"/>
       <c r="C2" s="72"/>
@@ -4633,7 +4649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1">
+    <row r="3" spans="1:14" ht="36" customHeight="1">
       <c r="A3" s="78" t="s">
         <v>10</v>
       </c>
@@ -4647,14 +4663,11 @@
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1">
+    </row>
+    <row r="4" spans="1:14" ht="36" customHeight="1">
       <c r="A4" s="78"/>
       <c r="B4" s="73"/>
       <c r="C4" s="53"/>
@@ -4662,14 +4675,11 @@
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1">
+    </row>
+    <row r="5" spans="1:14" ht="36" customHeight="1">
       <c r="A5" s="78"/>
       <c r="B5" s="73"/>
       <c r="C5" s="53"/>
@@ -4677,14 +4687,11 @@
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
+    </row>
+    <row r="6" spans="1:14" ht="36" customHeight="1">
       <c r="A6" s="78"/>
       <c r="B6" s="73"/>
       <c r="C6" s="53"/>
@@ -4692,14 +4699,11 @@
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1">
+    </row>
+    <row r="7" spans="1:14" ht="36" customHeight="1">
       <c r="A7" s="78"/>
       <c r="B7" s="73"/>
       <c r="C7" s="53"/>
@@ -4707,20 +4711,17 @@
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="240">
+    <row r="9" spans="1:14" ht="240">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -4742,21 +4743,21 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:14">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:14">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:14" ht="30">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -4777,21 +4778,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:14">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:14">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="75">
+    <row r="15" spans="1:14" ht="75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -4812,15 +4813,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:14">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="5"/>
@@ -4829,75 +4831,137 @@
         <v>36</v>
       </c>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="54" customHeight="1">
+      <c r="A20" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="5">
+        <v>145879</v>
+      </c>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="G20" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" ht="54" customHeight="1">
+      <c r="A21" s="78"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="5">
+        <v>200437</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="G21" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="54" customHeight="1">
+      <c r="A22" s="78"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="5">
+        <v>310111</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="G22" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="54" customHeight="1">
+      <c r="A23" s="78"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="5">
+        <v>528401</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="G23" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="54" customHeight="1">
+      <c r="A24" s="78"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="5">
+        <v>1076753</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="G24" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4905,8 +4969,10 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C20:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5119,7 +5185,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -5151,7 +5217,7 @@
       </c>
       <c r="B13" s="73"/>
       <c r="C13" s="83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5593DD0-BF47-44E1-B5D6-FCCDAC71A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBFECD-2E02-4B19-BBF8-A7FCF7D69939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
     <sheet name="SBS_general" sheetId="12" r:id="rId2"/>
     <sheet name="Indel_general" sheetId="13" r:id="rId3"/>
-    <sheet name="SBS" sheetId="11" r:id="rId4"/>
-    <sheet name="indel" sheetId="10" r:id="rId5"/>
-    <sheet name="SBS_down_samp" sheetId="1" r:id="rId6"/>
-    <sheet name="indel_down_samp" sheetId="4" r:id="rId7"/>
-    <sheet name="SBS_2" sheetId="8" r:id="rId8"/>
-    <sheet name="indel_2" sheetId="9" r:id="rId9"/>
-    <sheet name="SBS_2_down_samp" sheetId="15" r:id="rId10"/>
-    <sheet name="indel_2_down_samp" sheetId="14" r:id="rId11"/>
+    <sheet name="SBS_set1" sheetId="11" r:id="rId4"/>
+    <sheet name="indel_set1" sheetId="10" r:id="rId5"/>
+    <sheet name="SBS_set1_down_samp" sheetId="1" r:id="rId6"/>
+    <sheet name="indel_set1_down_samp" sheetId="4" r:id="rId7"/>
+    <sheet name="SBS_set2" sheetId="8" r:id="rId8"/>
+    <sheet name="indel_set2" sheetId="9" r:id="rId9"/>
+    <sheet name="SBS_set2_down_samp" sheetId="15" r:id="rId10"/>
+    <sheet name="indel_set2_down_samp" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="137">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Moderate</t>
-  </si>
-  <si>
-    <t>mSigHdp = 1.1.7; hdpx = 0.3.4</t>
   </si>
   <si>
     <t>mSigHdp = 2.0.1.10(master branch)
@@ -870,6 +867,30 @@
       <t>GLOBAL.gamma.alpha = 1,
 GLOBAL.gamma.beta = 20</t>
     </r>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>HPC(wuyang)</t>
+  </si>
+  <si>
+    <t>mSigHdp = 1.1.7;
+hdpx = 0.3.4</t>
+  </si>
+  <si>
+    <t>K.guess = 46,
+multi.types = TRUE,
+burnin = 5000,
+burnin.multiplier = 20,
+post.n = 200,
+post.space = 100,
+num.child.process = 20,
+CPU.cores = 20,
+high.confidence.prop = 0.9,
+gamma.alpha = 1,
+gamma.beta = 20
+down_samp_thres = 3000</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1228,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1363,6 +1384,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,8 +1483,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1911,10 +1941,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1963,12 +1993,12 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="11"/>
       <c r="J1" s="13"/>
       <c r="K1" s="11"/>
@@ -2009,131 +2039,131 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>66</v>
+      <c r="B3" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="K3" s="79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="78"/>
+        <v>111</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="78"/>
+        <v>111</v>
+      </c>
+      <c r="I5" s="79"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="78"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="79"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="78"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="78"/>
+        <v>111</v>
+      </c>
+      <c r="I7" s="79"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11"/>
@@ -2149,18 +2179,18 @@
       <c r="K8" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -2213,12 +2243,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2279,13 +2309,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -2316,7 +2346,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
@@ -2330,146 +2360,146 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>63</v>
+      <c r="B3" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="79" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="78"/>
+        <v>110</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="78"/>
+        <v>110</v>
+      </c>
+      <c r="J5" s="79"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="79"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="78"/>
+        <v>110</v>
+      </c>
+      <c r="J6" s="79"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="78"/>
+        <v>110</v>
+      </c>
+      <c r="J7" s="79"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -2500,19 +2530,19 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
@@ -2572,15 +2602,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="A1" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -2593,7 +2623,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -2604,10 +2634,10 @@
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
       <c r="A4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -2615,10 +2645,10 @@
       <c r="F4" s="44"/>
       <c r="G4" s="41"/>
       <c r="H4" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -2627,10 +2657,10 @@
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -2638,10 +2668,10 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="H5" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -2661,244 +2691,244 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" s="67"/>
+      <c r="C9" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="E10" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>96</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1">
       <c r="A11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1">
       <c r="A12" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1">
       <c r="A13" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="34"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A15" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="54" t="s">
+      <c r="B15" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A16" s="55"/>
+      <c r="B16" s="34" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="54"/>
-      <c r="B16" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="54" t="s">
-        <v>122</v>
+      <c r="A21" s="55" t="s">
+        <v>121</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39" thickBot="1">
+      <c r="A22" s="55"/>
+      <c r="B22" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="34" t="s">
+      <c r="E22" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="55"/>
+      <c r="B23" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="34" t="s">
-        <v>130</v>
-      </c>
       <c r="E23" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2933,15 +2963,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="A1" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -2954,7 +2984,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -2965,10 +2995,10 @@
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
       <c r="A4" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -2976,10 +3006,10 @@
       <c r="F4" s="44"/>
       <c r="G4" s="41"/>
       <c r="H4" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -2987,10 +3017,10 @@
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
       <c r="A5" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
@@ -2998,10 +3028,10 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="H5" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -3028,276 +3058,281 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="67"/>
+      <c r="C10" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="68"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>96</v>
-      </c>
       <c r="F11" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51.75" thickBot="1">
       <c r="A12" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="55" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="35" t="s">
-        <v>99</v>
-      </c>
       <c r="G12" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="39" thickBot="1">
       <c r="A13" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="34"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25" thickBot="1">
       <c r="A14" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A16" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="54" t="s">
+      <c r="B16" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="69" t="s">
-        <v>118</v>
+      <c r="G18" s="70" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="70"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="54"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="70"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="54"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="71"/>
+    </row>
+    <row r="22" spans="1:7" ht="90" thickBot="1">
+      <c r="A22" s="55"/>
+      <c r="B22" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="70"/>
-    </row>
-    <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="34" t="s">
+      <c r="E22" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" thickBot="1">
+      <c r="A24" s="55"/>
+      <c r="B24" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="71"/>
+    </row>
+    <row r="25" spans="1:7" ht="39" thickBot="1">
+      <c r="A25" s="55"/>
+      <c r="B25" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="71"/>
+    </row>
+    <row r="26" spans="1:7" ht="39" thickBot="1">
+      <c r="A26" s="55"/>
+      <c r="B26" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="71"/>
-    </row>
-    <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="70"/>
-    </row>
-    <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="70"/>
-    </row>
-    <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="E26" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="70"/>
+        <v>98</v>
+      </c>
+      <c r="G26" s="71"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="71"/>
+        <v>98</v>
+      </c>
+      <c r="G27" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3305,11 +3340,6 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3321,10 +3351,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3335,29 +3365,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3372,11 +3402,11 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>50</v>
+      <c r="B3" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
@@ -3389,251 +3419,375 @@
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="240">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="36" customHeight="1">
+      <c r="A5" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="86"/>
+      <c r="H5" s="80"/>
+    </row>
+    <row r="6" spans="1:8" ht="36" customHeight="1">
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="86"/>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="86"/>
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="1:8" ht="36" customHeight="1">
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="86"/>
+      <c r="H8" s="80"/>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1">
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="240">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="17" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H15" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="2" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B17" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="75">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="54" customHeight="1">
+      <c r="A21" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D21" s="5">
+        <v>145879</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="54" customHeight="1">
+      <c r="A22" s="78"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="5">
+        <v>200437</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="54" customHeight="1">
+      <c r="A23" s="78"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="5">
+        <v>310111</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="54" customHeight="1">
+      <c r="A24" s="78"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="5">
+        <v>528401</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="54" customHeight="1">
+      <c r="A25" s="78"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="5">
+        <v>1076753</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="270" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="74"/>
+      <c r="C27" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="75">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="54" customHeight="1">
-      <c r="A11" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="5">
-        <v>145879</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="54" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="5">
-        <v>200437</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="5">
-        <v>310111</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="54" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="5">
-        <v>528401</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="54" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="5">
-        <v>1076753</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="270" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="12" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="H5:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3647,8 +3801,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3659,32 +3813,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3703,10 +3857,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
@@ -3737,10 +3891,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
@@ -3776,10 +3930,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
@@ -3810,10 +3964,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -3843,11 +3997,11 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="74" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -3864,7 +4018,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="73"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3878,9 +4032,9 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -3959,8 +4113,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3982,13 +4136,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4033,14 +4187,14 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
@@ -4071,11 +4225,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="81"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="82"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -4099,9 +4253,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -4125,9 +4279,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -4151,9 +4305,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -4190,25 +4344,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>58</v>
+      <c r="C9" s="77" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -4222,64 +4376,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="81"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="81"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="81"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -4297,7 +4451,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4372,13 +4526,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4413,7 +4567,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>0</v>
@@ -4431,10 +4585,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
@@ -4442,12 +4596,12 @@
       <c r="E3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
       <c r="J3" s="18" t="s">
         <v>45</v>
       </c>
@@ -4484,7 +4638,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
@@ -4492,12 +4646,12 @@
       <c r="E5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="20" t="s">
         <v>22</v>
       </c>
@@ -4542,20 +4696,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4605,7 +4759,7 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4618,29 +4772,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="75" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -4650,68 +4804,68 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>66</v>
+      <c r="B3" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="53" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="53" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4729,7 +4883,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -4762,10 +4916,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -4797,10 +4951,10 @@
         <v>26</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
@@ -4850,14 +5004,14 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="75" t="s">
-        <v>132</v>
+      <c r="C20" s="76" t="s">
+        <v>131</v>
       </c>
       <c r="D20" s="5">
         <v>145879</v>
@@ -4869,22 +5023,24 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="78"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="76"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="5">
         <v>200437</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="G21" s="47" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="54" customHeight="1">
-      <c r="A22" s="78"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="5">
         <v>310111</v>
       </c>
@@ -4894,9 +5050,9 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="76"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="5">
         <v>528401</v>
       </c>
@@ -4906,9 +5062,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="78"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="5">
         <v>1076753</v>
       </c>
@@ -4927,13 +5083,13 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
@@ -4998,23 +5154,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="75" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -5023,10 +5179,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="1"/>
       <c r="F2" s="8" t="s">
         <v>42</v>
@@ -5046,10 +5202,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
@@ -5083,7 +5239,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
@@ -5114,10 +5270,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
@@ -5148,10 +5304,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -5181,11 +5337,11 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="74" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -5202,7 +5358,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="73"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5212,18 +5368,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="83" t="s">
-        <v>82</v>
+      <c r="B13" s="74"/>
+      <c r="C13" s="84" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="83" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="22" t="s">
@@ -5233,14 +5389,14 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="22" t="s">
         <v>23</v>
       </c>
@@ -5248,14 +5404,14 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="82"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="28" t="s">
         <v>23</v>
       </c>
@@ -5263,14 +5419,14 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="82"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="28" t="s">
         <v>23</v>
       </c>
@@ -5278,14 +5434,14 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="84"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="82"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="28" t="s">
         <v>23</v>
       </c>
@@ -5324,7 +5480,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:13">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBFECD-2E02-4B19-BBF8-A7FCF7D69939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6EFB5-A539-4074-8BAD-C5E9E1EADD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="138">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -891,6 +891,9 @@
 gamma.alpha = 1,
 gamma.beta = 20
 down_samp_thres = 3000</t>
+  </si>
+  <si>
+    <t>mSigHdp_ds_3k</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1231,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1387,6 +1390,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1482,15 +1491,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1941,10 +1941,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1993,12 +1993,12 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="11"/>
       <c r="J1" s="13"/>
       <c r="K1" s="11"/>
@@ -2039,13 +2039,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="56" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="2">
@@ -2063,20 +2063,20 @@
       <c r="H3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="81" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2092,14 +2092,14 @@
       <c r="H4" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="79"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2115,14 +2115,14 @@
       <c r="H5" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="79"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2138,14 +2138,14 @@
       <c r="H6" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="79"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2161,9 +2161,9 @@
       <c r="H7" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="79"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="11"/>
@@ -2179,18 +2179,18 @@
       <c r="K8" s="2"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
@@ -2243,12 +2243,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2309,13 +2309,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -2360,13 +2360,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="56" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2">
@@ -2387,20 +2387,20 @@
       <c r="I3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2419,14 +2419,14 @@
       <c r="I4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="79"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="79"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2445,14 +2445,14 @@
       <c r="I5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="79"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2471,14 +2471,14 @@
       <c r="I6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="79"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="79"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2497,9 +2497,9 @@
       <c r="I7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="79"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -2530,19 +2530,19 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5" t="s">
@@ -2602,15 +2602,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -2691,39 +2691,39 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="69" t="s">
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="69"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="68"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="34" t="s">
@@ -2751,11 +2751,11 @@
         <v>96</v>
       </c>
       <c r="B11" s="34"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="37" t="s">
         <v>104</v>
       </c>
@@ -2768,9 +2768,9 @@
         <v>99</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="35" t="s">
         <v>98</v>
       </c>
@@ -2783,9 +2783,9 @@
         <v>100</v>
       </c>
       <c r="B13" s="34"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="35" t="s">
         <v>98</v>
       </c>
@@ -2798,9 +2798,9 @@
         <v>101</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="35" t="s">
         <v>98</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="57" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -2825,7 +2825,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="55"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="34" t="s">
         <v>105</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
@@ -2855,7 +2855,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="55"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="34" t="s">
         <v>119</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="34" t="s">
         <v>120</v>
       </c>
@@ -2883,7 +2883,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="55"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="34" t="s">
         <v>124</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="57" t="s">
         <v>121</v>
       </c>
       <c r="B21" s="34" t="s">
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="55"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="34" t="s">
         <v>128</v>
       </c>
@@ -2914,7 +2914,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="55"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="34" t="s">
         <v>129</v>
       </c>
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="55"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="34" t="s">
         <v>124</v>
       </c>
@@ -2953,7 +2953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16AE307-4AD6-4677-ADDD-934D34217471}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2963,15 +2963,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="40"/>
@@ -3058,39 +3058,39 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67" t="s">
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="30"/>
@@ -3116,11 +3116,11 @@
         <v>96</v>
       </c>
       <c r="B12" s="34"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="35" t="s">
         <v>98</v>
       </c>
@@ -3133,9 +3133,9 @@
         <v>99</v>
       </c>
       <c r="B13" s="34"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="35" t="s">
         <v>98</v>
       </c>
@@ -3148,9 +3148,9 @@
         <v>100</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="35" t="s">
         <v>98</v>
       </c>
@@ -3163,9 +3163,9 @@
         <v>101</v>
       </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="35" t="s">
         <v>98</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="57" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="34" t="s">
@@ -3193,7 +3193,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="55"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="34" t="s">
         <v>108</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -3222,12 +3222,12 @@
         <v>98</v>
       </c>
       <c r="F18" s="30"/>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="72" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="34" t="s">
         <v>119</v>
       </c>
@@ -3237,10 +3237,10 @@
         <v>98</v>
       </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="71"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="55"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="34" t="s">
         <v>120</v>
       </c>
@@ -3250,30 +3250,30 @@
         <v>98</v>
       </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="71"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="55"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="34" t="s">
         <v>122</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="71"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="55"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="34" t="s">
         <v>123</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="74"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="57" t="s">
         <v>125</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -3282,57 +3282,52 @@
       <c r="E23" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="72" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="55"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="34" t="s">
         <v>128</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="71"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="55"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="34" t="s">
         <v>129</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="71"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="55"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="34" t="s">
         <v>124</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="71"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="55"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="34" t="s">
         <v>123</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="72"/>
+      <c r="G27" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3340,6 +3335,11 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3351,10 +3351,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3365,29 +3365,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="77"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="165">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -3424,80 +3424,90 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1">
-      <c r="A5" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="56" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="2">
         <v>145879</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:8" ht="36" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2">
         <v>200437</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="80"/>
+      <c r="G6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="2">
         <v>310111</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="80"/>
+      <c r="G7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="82"/>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="2">
         <v>528401</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="80"/>
+      <c r="G8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="82"/>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="2">
         <v>1076753</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="80"/>
+      <c r="G9" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="82"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2"/>
@@ -3505,36 +3515,60 @@
       <c r="C10" s="19"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="2"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" ht="240">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="F11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="19"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="2"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2"/>
@@ -3543,247 +3577,186 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="240">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>66</v>
+    <row r="15" spans="1:8" ht="75">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="54" customHeight="1">
+      <c r="A17" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="5">
+        <v>145879</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="17" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="54" customHeight="1">
+      <c r="A18" s="80"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="5">
+        <v>200437</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="17" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="54" customHeight="1">
+      <c r="A19" s="80"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="5">
+        <v>310111</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="30">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="75">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+    <row r="20" spans="1:8" ht="54" customHeight="1">
+      <c r="A20" s="80"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="5">
+        <v>528401</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="55" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1">
-      <c r="A21" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>79</v>
-      </c>
+      <c r="A21" s="80"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="5">
-        <v>145879</v>
+        <v>1076753</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="47" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="54" customHeight="1">
-      <c r="A22" s="78"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="5">
-        <v>200437</v>
-      </c>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="54" customHeight="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="5">
-        <v>310111</v>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="270" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="54" customHeight="1">
-      <c r="A24" s="78"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="5">
-        <v>528401</v>
-      </c>
+      <c r="H23" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="54" customHeight="1">
-      <c r="A25" s="78"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="5">
-        <v>1076753</v>
-      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="5"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" ht="270" customHeight="1">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+      <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B17:B23"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
@@ -3813,32 +3786,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="77"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -3997,7 +3970,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -4018,7 +3991,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="74"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4032,7 +4005,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="24" t="s">
         <v>80</v>
       </c>
@@ -4136,13 +4109,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4187,13 +4160,13 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="79" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="11">
@@ -4225,11 +4198,11 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="82"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -4253,9 +4226,9 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="82"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -4279,9 +4252,9 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="82"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -4305,9 +4278,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="82"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -4344,25 +4317,25 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="79" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -4376,64 +4349,64 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="2"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="83"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -4526,13 +4499,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4596,12 +4569,12 @@
       <c r="E3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="18" t="s">
         <v>45</v>
       </c>
@@ -4646,12 +4619,12 @@
       <c r="E5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="20" t="s">
         <v>22</v>
       </c>
@@ -4696,20 +4669,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4772,29 +4745,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="75"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="73"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>42</v>
@@ -4804,13 +4777,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="56" t="s">
         <v>65</v>
       </c>
       <c r="D3" s="2">
@@ -4822,9 +4795,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -4834,9 +4807,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="79"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -4846,9 +4819,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="79"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -4858,9 +4831,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="79"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -5004,13 +4977,13 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="78" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="5">
@@ -5023,9 +4996,9 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="77"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="5">
         <v>200437</v>
       </c>
@@ -5038,9 +5011,9 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" ht="54" customHeight="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="77"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="5">
         <v>310111</v>
       </c>
@@ -5050,9 +5023,9 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="77"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="5">
         <v>528401</v>
       </c>
@@ -5062,9 +5035,9 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="77"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="5">
         <v>1076753</v>
       </c>
@@ -5083,13 +5056,13 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5" t="s">
@@ -5140,7 +5113,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5154,23 +5127,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="77" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="75"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -5179,10 +5152,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="1"/>
       <c r="F2" s="8" t="s">
         <v>42</v>
@@ -5337,7 +5310,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="24" t="s">
@@ -5358,7 +5331,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="74"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5368,18 +5341,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="86" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="85" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="22" t="s">
@@ -5389,14 +5362,14 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="79"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="84"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="83"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="22" t="s">
         <v>23</v>
       </c>
@@ -5404,14 +5377,14 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="79"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="84"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="83"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="28" t="s">
         <v>23</v>
       </c>
@@ -5419,14 +5392,14 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="79"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="83"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="28" t="s">
         <v>23</v>
       </c>
@@ -5434,14 +5407,14 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="84"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="83"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="28" t="s">
         <v>23</v>
       </c>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F6EFB5-A539-4074-8BAD-C5E9E1EADD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCAD1A0-A6DB-4F1B-9C5E-B31E3BCECEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -66,10 +66,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}</author>
-    <author>tc={22E2E612-D633-4B09-9D4D-78AA3C124725}</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}">
       <text>
         <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
@@ -78,22 +77,12 @@
 In the new run, I set memory limit to 200GB.</t>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{22E2E612-D633-4B09-9D4D-78AA3C124725}">
-      <text>
-        <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    The 4 seeds with results may also be wrong.
-The error message says they were killed due to memory exceeded limit.
-I also rerun mSigHdp on 10k, with seeds 200437 310111 528401 1076753</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="144">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -631,9 +620,6 @@
   </si>
   <si>
     <t>Some runs failed</t>
-  </si>
-  <si>
-    <t>hpc-long</t>
   </si>
   <si>
     <t>hpc-super</t>
@@ -869,9 +855,6 @@
     </r>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>HPC(wuyang)</t>
   </si>
   <si>
@@ -895,12 +878,39 @@
   <si>
     <t>mSigHdp_ds_3k</t>
   </si>
+  <si>
+    <t>hpc (e0240162)</t>
+  </si>
+  <si>
+    <t>10k-rerun</t>
+  </si>
+  <si>
+    <t>10k-failed</t>
+  </si>
+  <si>
+    <t>hpc-super(e0240162)</t>
+  </si>
+  <si>
+    <t>hpc-super
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-long
+(e0240162)</t>
+  </si>
+  <si>
+    <t>Noiseless-failed</t>
+  </si>
+  <si>
+    <t>m2
+(e0240162)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,13 +1007,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1231,7 +1234,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1369,9 +1372,6 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,12 +1381,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1396,6 +1390,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1489,8 +1492,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1788,14 +1803,9 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H3" dT="2022-08-08T13:23:30.12" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}">
+  <threadedComment ref="I3" dT="2022-08-08T13:23:30.12" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}">
     <text>Failed probably because it reached memory limit of qsub system (100GB) in the previous run.
 In the new run, I set memory limit to 200GB.</text>
-  </threadedComment>
-  <threadedComment ref="H4" dT="2022-08-08T13:33:16.82" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{22E2E612-D633-4B09-9D4D-78AA3C124725}">
-    <text>The 4 seeds with results may also be wrong.
-The error message says they were killed due to memory exceeded limit.
-I also rerun mSigHdp on 10k, with seeds 200437 310111 528401 1076753</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1972,10 +1982,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1984,11 +1994,12 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1999,11 +2010,12 @@
       <c r="F1" s="75"/>
       <c r="G1" s="75"/>
       <c r="H1" s="75"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="45">
+      <c r="I1" s="75"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -2022,23 +2034,26 @@
       <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="35.1" customHeight="1">
+    <row r="3" spans="1:12" ht="35.1" customHeight="1">
       <c r="A3" s="81" t="s">
         <v>10</v>
       </c>
@@ -2051,121 +2066,116 @@
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="81" t="s">
+      <c r="E3" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="L3" s="81" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="35.1" customHeight="1">
+    <row r="4" spans="1:12" ht="35.1" customHeight="1">
       <c r="A4" s="81"/>
       <c r="B4" s="76"/>
       <c r="C4" s="56"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" ht="35.1" customHeight="1">
+      <c r="E4" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="89"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="81"/>
+    </row>
+    <row r="5" spans="1:12" ht="35.1" customHeight="1">
       <c r="A5" s="81"/>
       <c r="B5" s="76"/>
       <c r="C5" s="56"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="81"/>
-    </row>
-    <row r="6" spans="1:11" ht="35.1" customHeight="1">
+      <c r="E5" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="89"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="81"/>
+    </row>
+    <row r="6" spans="1:12" ht="35.1" customHeight="1">
       <c r="A6" s="81"/>
       <c r="B6" s="76"/>
       <c r="C6" s="56"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="81"/>
-    </row>
-    <row r="7" spans="1:11" ht="35.1" customHeight="1">
+      <c r="E6" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="81"/>
+    </row>
+    <row r="7" spans="1:12" ht="35.1" customHeight="1">
       <c r="A7" s="81"/>
       <c r="B7" s="76"/>
       <c r="C7" s="56"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="81"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="E7" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="89"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="81"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="11"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2175,10 +2185,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J8" s="2"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="56" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2202,9 @@
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="56"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -2204,25 +2216,26 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="5"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2259,19 +2272,20 @@
       <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
     <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{BB77AC9D-0D8E-4A54-B106-A21D8FD578EE}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{BB77AC9D-0D8E-4A54-B106-A21D8FD578EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2287,7 +2301,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2339,7 +2353,7 @@
       <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -2372,25 +2386,25 @@
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>110</v>
+      <c r="E3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="J3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="88" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="81" t="s">
@@ -2404,23 +2418,23 @@
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>110</v>
+      <c r="E4" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="J4" s="81"/>
-      <c r="K4" s="87"/>
+      <c r="K4" s="88"/>
       <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
@@ -2430,23 +2444,23 @@
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>110</v>
+      <c r="E5" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="J5" s="81"/>
-      <c r="K5" s="87"/>
+      <c r="K5" s="88"/>
       <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
@@ -2456,23 +2470,23 @@
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>110</v>
+      <c r="E6" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="J6" s="81"/>
-      <c r="K6" s="87"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
@@ -2482,23 +2496,23 @@
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>110</v>
+      <c r="E7" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="J7" s="81"/>
-      <c r="K7" s="87"/>
+      <c r="K7" s="88"/>
       <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:13">
@@ -2623,7 +2637,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -2648,7 +2662,7 @@
         <v>85</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -2671,7 +2685,7 @@
         <v>85</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -2760,7 +2774,7 @@
         <v>104</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1">
@@ -2818,7 +2832,7 @@
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="37" t="s">
         <v>104</v>
@@ -2843,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -2857,7 +2871,7 @@
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A18" s="57"/>
       <c r="B18" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -2871,7 +2885,7 @@
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A19" s="57"/>
       <c r="B19" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -2885,7 +2899,7 @@
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A20" s="57"/>
       <c r="B20" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -2895,10 +2909,10 @@
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
       <c r="A21" s="57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>98</v>
@@ -2907,7 +2921,7 @@
     <row r="22" spans="1:7" ht="39" thickBot="1">
       <c r="A22" s="57"/>
       <c r="B22" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>98</v>
@@ -2916,7 +2930,7 @@
     <row r="23" spans="1:7" ht="39" thickBot="1">
       <c r="A23" s="57"/>
       <c r="B23" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>98</v>
@@ -2925,7 +2939,7 @@
     <row r="24" spans="1:7" ht="39" thickBot="1">
       <c r="A24" s="57"/>
       <c r="B24" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>98</v>
@@ -2984,7 +2998,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -3009,7 +3023,7 @@
         <v>85</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -3031,7 +3045,7 @@
         <v>85</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -3105,7 +3119,7 @@
         <v>95</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>95</v>
@@ -3214,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -3223,13 +3237,13 @@
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
       <c r="A19" s="57"/>
       <c r="B19" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -3242,7 +3256,7 @@
     <row r="20" spans="1:7" ht="39" thickBot="1">
       <c r="A20" s="57"/>
       <c r="B20" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -3255,7 +3269,7 @@
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
       <c r="A21" s="57"/>
       <c r="B21" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>98</v>
@@ -3265,7 +3279,7 @@
     <row r="22" spans="1:7" ht="90" thickBot="1">
       <c r="A22" s="57"/>
       <c r="B22" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="35" t="s">
         <v>98</v>
@@ -3274,22 +3288,22 @@
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
       <c r="A23" s="57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>98</v>
       </c>
       <c r="G23" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
       <c r="A24" s="57"/>
       <c r="B24" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="35" t="s">
         <v>98</v>
@@ -3299,7 +3313,7 @@
     <row r="25" spans="1:7" ht="39" thickBot="1">
       <c r="A25" s="57"/>
       <c r="B25" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>98</v>
@@ -3309,7 +3323,7 @@
     <row r="26" spans="1:7" ht="39" thickBot="1">
       <c r="A26" s="57"/>
       <c r="B26" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>98</v>
@@ -3319,7 +3333,7 @@
     <row r="27" spans="1:7" ht="90" thickBot="1">
       <c r="A27" s="57"/>
       <c r="B27" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>98</v>
@@ -3353,8 +3367,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3403,7 +3417,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>61</v>
@@ -3425,23 +3439,23 @@
     </row>
     <row r="5" spans="1:8" ht="36" customHeight="1">
       <c r="A5" s="81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2">
         <v>145879</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H5" s="82"/>
     </row>
@@ -3454,10 +3468,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="82"/>
     </row>
@@ -3470,10 +3484,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H7" s="82"/>
     </row>
@@ -3486,10 +3500,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" s="82"/>
     </row>
@@ -3502,10 +3516,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H9" s="82"/>
     </row>
@@ -3517,7 +3531,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="54"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="240">
       <c r="A11" s="2" t="s">
@@ -3624,7 +3638,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="52" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3638,7 +3652,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="52" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3652,7 +3666,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="52" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3666,7 +3680,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="52" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3680,7 +3694,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="52" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3700,7 +3714,7 @@
       </c>
       <c r="B23" s="76"/>
       <c r="C23" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>36</v>
@@ -3774,8 +3788,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3982,7 +3996,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>37</v>
       </c>
       <c r="I11" s="2"/>
@@ -4013,7 +4027,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="2"/>
@@ -4086,8 +4100,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4475,7 +4489,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4566,7 +4580,7 @@
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="85" t="s">
@@ -4732,8 +4746,8 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4790,7 +4804,7 @@
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="50" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4802,7 +4816,7 @@
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="50" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4814,7 +4828,7 @@
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="50" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4826,7 +4840,7 @@
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="50" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4838,7 +4852,7 @@
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="50" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4984,14 +4998,14 @@
         <v>46</v>
       </c>
       <c r="C20" s="78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="5">
         <v>145879</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="G20" s="47" t="s">
-        <v>22</v>
+      <c r="G20" s="91" t="s">
+        <v>143</v>
       </c>
       <c r="N20" s="14"/>
     </row>
@@ -5002,11 +5016,9 @@
       <c r="D21" s="5">
         <v>200437</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>22</v>
+      <c r="E21" s="5"/>
+      <c r="G21" s="91" t="s">
+        <v>143</v>
       </c>
       <c r="N21" s="14"/>
     </row>
@@ -5018,8 +5030,8 @@
         <v>310111</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="G22" s="47" t="s">
-        <v>22</v>
+      <c r="G22" s="91" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
@@ -5030,8 +5042,8 @@
         <v>528401</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="G23" s="47" t="s">
-        <v>22</v>
+      <c r="G23" s="91" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
@@ -5042,8 +5054,8 @@
         <v>1076753</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="G24" s="47" t="s">
-        <v>22</v>
+      <c r="G24" s="91" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5113,7 +5125,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5320,24 +5332,30 @@
         <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>23</v>
+      <c r="F11" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>136</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="30">
       <c r="A12" s="5"/>
       <c r="B12" s="76"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
@@ -5352,13 +5370,15 @@
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
@@ -5369,11 +5389,13 @@
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="5"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
@@ -5384,11 +5406,13 @@
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="87"/>
+      <c r="G15" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="5"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
@@ -5399,11 +5423,13 @@
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="28" t="s">
+      <c r="F16" s="87"/>
+      <c r="G16" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
@@ -5414,11 +5440,13 @@
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="5"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCAD1A0-A6DB-4F1B-9C5E-B31E3BCECEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2006E70F-6F09-429C-B818-8257EAC2E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6255" yWindow="975" windowWidth="18645" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
     <sheet name="SBS_general" sheetId="12" r:id="rId2"/>
     <sheet name="Indel_general" sheetId="13" r:id="rId3"/>
     <sheet name="SBS_set1" sheetId="11" r:id="rId4"/>
-    <sheet name="indel_set1" sheetId="10" r:id="rId5"/>
-    <sheet name="SBS_set1_down_samp" sheetId="1" r:id="rId6"/>
-    <sheet name="indel_set1_down_samp" sheetId="4" r:id="rId7"/>
-    <sheet name="SBS_set2" sheetId="8" r:id="rId8"/>
-    <sheet name="indel_set2" sheetId="9" r:id="rId9"/>
-    <sheet name="SBS_set2_down_samp" sheetId="15" r:id="rId10"/>
-    <sheet name="indel_set2_down_samp" sheetId="14" r:id="rId11"/>
+    <sheet name="SBS_set1__SBS35_spikein" sheetId="16" r:id="rId5"/>
+    <sheet name="indel_set1" sheetId="10" r:id="rId6"/>
+    <sheet name="SBS_set1_down_samp" sheetId="1" r:id="rId7"/>
+    <sheet name="indel_set1_down_samp" sheetId="4" r:id="rId8"/>
+    <sheet name="SBS_set2" sheetId="8" r:id="rId9"/>
+    <sheet name="indel_set2" sheetId="9" r:id="rId10"/>
+    <sheet name="SBS_set2_down_samp" sheetId="15" r:id="rId11"/>
+    <sheet name="indel_set2_down_samp" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,15 +48,39 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={03387F0B-E401-4BD4-B95B-38BE57A81858}</author>
+    <author>tc={E68ABE94-AAC2-428A-BBD6-EBC4EF1F710E}</author>
+    <author>tc={05356E87-CF50-43B3-B006-266C95804CB2}</author>
+    <author>tc={951A56E7-234C-4F7A-A36A-03F37A929761}</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{03387F0B-E401-4BD4-B95B-38BE57A81858}">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{E68ABE94-AAC2-428A-BBD6-EBC4EF1F710E}">
       <text>
         <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
-    From monster2, Downloading large data files for mSigHdp and SigProfilerExtractor, starting at 2022-Jul-21th</t>
+    Failed when using queue hpc-long
+I assume that hpc-long can only allocate 100GB to each job, and this causes the error.
+Now re-running on hpc-super queue.</t>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="1" shapeId="0" xr:uid="{05356E87-CF50-43B3-B006-266C95804CB2}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Failed when using queue hpc-long
+I assume that hpc-long can only allocate 100GB to each job, and this causes the error.
+Now re-running on hpc-super queue.</t>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="2" shapeId="0" xr:uid="{951A56E7-234C-4F7A-A36A-03F37A929761}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Failed when using queue hpc-long
+I assume that hpc-long can only allocate 100GB to each job, and this causes the error.
+Now re-running on hpc-super queue.</t>
       </text>
     </comment>
   </commentList>
@@ -82,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="155">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -217,18 +242,12 @@
   </si>
   <si>
     <t>3) In the main text, we only included results summary on Realistic data set.</t>
-  </si>
-  <si>
-    <t>mm</t>
   </si>
   <si>
     <t>mSigHdp v0.0.0.9019
 (on branch for-NR-version-plus-fixes)
 hdpx v0.1.5.0099
 (on branch NR-version-plus-fixes)</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>Data set name</t>
@@ -905,12 +924,73 @@
     <t>m2
 (e0240162)</t>
   </si>
+  <si>
+    <t>1) Filling colors: 
+White - not started; Red - failed;  Green - running; Blue - Finished; 
+Violet - Finished with result revision; 
+Black - Finished with result revision and image files (e.g., large Rdata file and python pickle files) downloaded;
+Grey - Black + Large image files moved to folder “mSigHdp_paper_sup_files_x1_new”</t>
+  </si>
+  <si>
+    <t>hpc
+(steve)</t>
+  </si>
+  <si>
+    <t>m2 
+(e0240162)</t>
+  </si>
+  <si>
+    <t>hpc
+(e0240162)</t>
+  </si>
+  <si>
+    <t>hpc-super
+(e0240162)</t>
+  </si>
+  <si>
+    <t>2) Filling colors: 
+White - not started; Red - failed;  Green - running; Blue - Finished; 
+Violet - Finished with result revision; 
+Black - Finished with result revision and image files (e.g., large Rdata file and python pickle files) downloaded;
+Grey - Black + Large image files moved to folder “mSigHdp_paper_sup_files_x1_new”;
+Dark Brown - Large image files downloaded to folder "mSigHdp_paper_sup_files_x1_new", yet we do not review these results</t>
+  </si>
+  <si>
+    <t>1) Filling colors: 
+White - not started; Red - failed;  Green - running; Blue - Finished; 
+Violet - Finished with result revision; 
+Black - Finished with result revision and image files (e.g., large Rdata file and python pickle files) downloaded;
+Grey - Black + Large image files moved to folder “mSigHdp_paper_sup_files_x1_new”;
+Dark Brown - Large image files downloaded to folder "mSigHdp_paper_sup_files_x1_new", yet we do not review these results</t>
+  </si>
+  <si>
+    <t>mm
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m
+(wuyang)</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>no_down_samp</t>
+  </si>
+  <si>
+    <t>Start NR_hdp_gb_1 jobs!</t>
+  </si>
+  <si>
+    <t>HPC cluster returns "hold"
+(Probably due to overload)
+(Wait until the first 3 jobs are finished)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,8 +1088,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1073,6 +1160,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1333,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1269,9 +1368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1287,9 +1383,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,9 +1390,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1310,9 +1400,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,32 +1459,60 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1486,8 +1601,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1501,11 +1616,17 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1515,6 +1636,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD26900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1795,8 +1921,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E3" dT="2022-07-21T14:51:33.18" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{03387F0B-E401-4BD4-B95B-38BE57A81858}">
-    <text>From monster2, Downloading large data files for mSigHdp and SigProfilerExtractor, starting at 2022-Jul-21th</text>
+  <threadedComment ref="G15" dT="2022-08-28T11:28:19.37" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{E68ABE94-AAC2-428A-BBD6-EBC4EF1F710E}">
+    <text>Failed when using queue hpc-long
+I assume that hpc-long can only allocate 100GB to each job, and this causes the error.
+Now re-running on hpc-super queue.</text>
+  </threadedComment>
+  <threadedComment ref="G16" dT="2022-08-28T11:28:19.37" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{05356E87-CF50-43B3-B006-266C95804CB2}">
+    <text>Failed when using queue hpc-long
+I assume that hpc-long can only allocate 100GB to each job, and this causes the error.
+Now re-running on hpc-super queue.</text>
+  </threadedComment>
+  <threadedComment ref="G17" dT="2022-08-28T11:28:19.37" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{951A56E7-234C-4F7A-A36A-03F37A929761}">
+    <text>Failed when using queue hpc-long
+I assume that hpc-long can only allocate 100GB to each job, and this causes the error.
+Now re-running on hpc-super queue.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1951,10 +2089,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -1978,6 +2116,409 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DE763-45BF-4630-996D-9B80B26D1A4B}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="46.5" customHeight="1">
+      <c r="A1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="83"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" ht="30.75" customHeight="1">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="165">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="240">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="90">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="270" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="30">
+      <c r="A12" s="5"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="54" customHeight="1">
+      <c r="A13" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="5">
+        <v>145879</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="54" customHeight="1">
+      <c r="A14" s="87"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="5">
+        <v>200437</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="54" customHeight="1">
+      <c r="A15" s="87"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="5">
+        <v>310111</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="54" customHeight="1">
+      <c r="A16" s="87"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="5">
+        <v>528401</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="54" customHeight="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="5">
+        <v>1076753</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="105" customHeight="1">
+      <c r="A20" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF7C9A9-BAE7-4BED-BECB-93E5F2CC9436}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -1985,7 +2526,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1993,9 +2534,12 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2004,15 +2548,15 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="13"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="45">
@@ -2031,17 +2575,17 @@
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>137</v>
+      <c r="H2" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
@@ -2054,126 +2598,126 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>65</v>
+      <c r="B3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="81" t="s">
+      <c r="E3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="87" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="81"/>
+      <c r="E4" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="81"/>
+      <c r="E5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="95"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="81"/>
+      <c r="E6" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="95"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="81"/>
+      <c r="E7" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
@@ -2186,23 +2730,23 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
@@ -2217,7 +2761,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -2256,12 +2800,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2293,7 +2837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF84DB8-9AE4-4269-A055-41FA0F5B8B27}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -2301,7 +2845,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2310,8 +2854,7 @@
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="7" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="5" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -2323,13 +2866,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -2350,17 +2893,17 @@
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
@@ -2374,146 +2917,106 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>62</v>
+      <c r="B3" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3" s="81" t="s">
+      <c r="E3" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="87" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="81"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="87"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="J5" s="81"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="81"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="81"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="81"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -2526,7 +3029,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13">
@@ -2544,30 +3047,30 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" ht="99.95" customHeight="1">
+      <c r="A11" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -2584,7 +3087,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="L3:L7"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A10:K10"/>
@@ -2593,6 +3097,11 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="K3:K7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{1C164972-05C4-4332-B960-F3345B2C884F}"/>
@@ -2612,337 +3121,337 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="44" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="44" t="s">
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="76"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A10" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A11" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39" thickBot="1">
+      <c r="A12" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="26.25" thickBot="1">
+      <c r="A13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A15" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A16" s="63"/>
+      <c r="B16" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A17" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="71"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A10" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A11" s="34" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="37" t="s">
+      <c r="G17" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="39" thickBot="1">
-      <c r="A12" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="26.25" thickBot="1">
-      <c r="A13" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A14" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="37" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A18" s="63"/>
+      <c r="B18" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="37" t="s">
+    <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="34" t="s">
+    <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="39" thickBot="1">
+      <c r="A21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39" thickBot="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="63"/>
+      <c r="B23" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>98</v>
+      <c r="E23" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>98</v>
+      <c r="A24" s="63"/>
+      <c r="B24" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2973,372 +3482,372 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="44" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="75"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="51.75" thickBot="1">
+      <c r="A12" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="39" thickBot="1">
+      <c r="A13" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26.25" thickBot="1">
+      <c r="A14" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A15" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A16" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" thickBot="1">
+      <c r="A17" s="63"/>
+      <c r="B17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="39" thickBot="1">
+      <c r="A18" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A5" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" s="70"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="51.75" thickBot="1">
-      <c r="A12" s="34" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="39" thickBot="1">
+      <c r="A19" s="63"/>
+      <c r="B19" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="39" thickBot="1">
-      <c r="A13" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A14" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="34" t="s">
+      <c r="F19" s="26"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" ht="39" thickBot="1">
+      <c r="A20" s="63"/>
+      <c r="B20" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="79"/>
+    </row>
+    <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A21" s="63"/>
+      <c r="B21" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="73"/>
-    </row>
-    <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="34" t="s">
+      <c r="E21" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="79"/>
+    </row>
+    <row r="22" spans="1:7" ht="90" thickBot="1">
+      <c r="A22" s="63"/>
+      <c r="B22" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="80"/>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" thickBot="1">
+      <c r="A24" s="63"/>
+      <c r="B24" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="79"/>
+    </row>
+    <row r="25" spans="1:7" ht="39" thickBot="1">
+      <c r="A25" s="63"/>
+      <c r="B25" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="79"/>
+    </row>
+    <row r="26" spans="1:7" ht="39" thickBot="1">
+      <c r="A26" s="63"/>
+      <c r="B26" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="73"/>
-    </row>
-    <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="74"/>
-    </row>
-    <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="73"/>
+      <c r="E26" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="74"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3365,10 +3874,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3376,354 +3885,360 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="6" max="8" width="10.7109375" style="61" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="77"/>
-      <c r="F2" s="1" t="s">
+      <c r="F1" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="83"/>
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="165">
+      <c r="I2" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="165">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>61</v>
+      <c r="B3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="19"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1">
-      <c r="A5" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>134</v>
+    <row r="5" spans="1:9" ht="36" customHeight="1">
+      <c r="A5" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>132</v>
       </c>
       <c r="D5" s="2">
         <v>145879</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="82"/>
-    </row>
-    <row r="6" spans="1:8" ht="36" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="56"/>
+      <c r="F5" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="2">
         <v>200437</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="56"/>
+      <c r="F6" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="2">
         <v>310111</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="82"/>
-    </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="56"/>
+      <c r="F7" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="2">
         <v>528401</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="82"/>
-    </row>
-    <row r="9" spans="1:8" ht="36" customHeight="1">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="56"/>
+      <c r="F8" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="2">
         <v>1076753</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="F9" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:8" ht="240">
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:9" ht="240">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="30">
+      <c r="F12" s="23"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>77</v>
+      <c r="B13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="11"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="75">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="75">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>73</v>
+      <c r="B15" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5"/>
       <c r="B16" s="11"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="54" customHeight="1">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>79</v>
+      <c r="B17" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="5">
         <v>145879</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="52" t="s">
-        <v>22</v>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="79"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="52" t="s">
-        <v>22</v>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" customHeight="1">
-      <c r="A19" s="80"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="52" t="s">
-        <v>22</v>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="79"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="52" t="s">
-        <v>22</v>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="52" t="s">
-        <v>22</v>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5"/>
-      <c r="B22" s="76"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="270" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="25" t="s">
-        <v>131</v>
+      <c r="B23" s="82"/>
+      <c r="C23" s="22" t="s">
+        <v>129</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="12" t="s">
-        <v>37</v>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="46" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3732,9 +4247,9 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="5"/>
@@ -3742,27 +4257,33 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="94.5" customHeight="1">
+      <c r="A26" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
+      <c r="A27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5" t="s">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="A1:A2"/>
@@ -3774,7 +4295,6 @@
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="H5:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3782,14 +4302,274 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E91F4A-8416-459C-BC5A-9ED97E3E9EC2}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="83"/>
+      <c r="F2" s="10">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10">
+        <v>10</v>
+      </c>
+      <c r="H2" s="10">
+        <v>20</v>
+      </c>
+      <c r="I2" s="10">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10">
+        <v>50</v>
+      </c>
+      <c r="K2" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68.25" customHeight="1">
+      <c r="A3" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="11">
+        <v>145879</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+    </row>
+    <row r="4" spans="1:11" ht="36" customHeight="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="11">
+        <v>200437</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="36" customHeight="1">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="11">
+        <v>310111</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="11">
+        <v>528401</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="36" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="11">
+        <v>1076753</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:11" ht="54" customHeight="1">
+      <c r="A9" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="11">
+        <v>145879</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="54" customHeight="1">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="11">
+        <v>200437</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="54" customHeight="1">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="11">
+        <v>310111</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="54" customHeight="1">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="11">
+        <v>528401</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="54" customHeight="1">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="11">
+        <v>1076753</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="94.5" customHeight="1">
+      <c r="A15" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A9EF94-C3F0-491E-B97E-7A2B5FFF7AB0}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3800,37 +4580,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="F1" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="83"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>42</v>
@@ -3843,19 +4623,19 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>63</v>
+      <c r="B3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
@@ -3878,23 +4658,23 @@
         <v>11</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
+      <c r="F5" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="56" t="s">
+        <v>141</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4"/>
@@ -3916,19 +4696,19 @@
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>75</v>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
@@ -3950,19 +4730,19 @@
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>71</v>
+      <c r="B9" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -3984,11 +4764,11 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>83</v>
+      <c r="B11" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -3996,8 +4776,8 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="49" t="s">
-        <v>37</v>
+      <c r="H11" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
@@ -4005,7 +4785,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="76"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4019,15 +4799,15 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="24" t="s">
-        <v>80</v>
+      <c r="B13" s="82"/>
+      <c r="C13" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="2"/>
@@ -4036,7 +4816,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -4047,13 +4827,15 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+    <row r="15" spans="1:11" ht="75" customHeight="1">
+      <c r="A15" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4061,26 +4843,18 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="14"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="A1:A2"/>
@@ -4093,15 +4867,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4111,30 +4885,31 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5703125" customWidth="1"/>
+    <col min="6" max="9" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="11"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="45">
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="45">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -4150,7 +4925,7 @@
       <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -4159,165 +4934,173 @@
       <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="60" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="60" customHeight="1">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>61</v>
+      <c r="B3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="E3" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="84"/>
+    <row r="4" spans="1:14" ht="30" customHeight="1">
+      <c r="A4" s="87"/>
+      <c r="B4" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="90"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>22</v>
+      <c r="E4" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="84"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="87"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="84"/>
+      <c r="E5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="87"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="84"/>
+      <c r="E6" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="E7" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="45"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4326,119 +5109,124 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="48" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="48" customHeight="1">
+      <c r="A9" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>57</v>
+      <c r="C9" s="85" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83" t="s">
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="59"/>
+      <c r="K9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="48" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+    <row r="10" spans="1:14" ht="48" customHeight="1">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="48" customHeight="1">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="84"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="48" customHeight="1">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="48" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" ht="48" customHeight="1">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="K12" s="5"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="59"/>
       <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="48" customHeight="1">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="48" customHeight="1">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-      <c r="K13" s="5"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="59"/>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="K14" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="K15" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="K16" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4449,13 +5237,14 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4474,23 +5263,22 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCBB4E0-5F89-431B-A9E8-4B03CB92E69C}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4500,8 +5288,7 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="8" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="6" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
     <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
@@ -4513,13 +5300,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4544,17 +5331,17 @@
       <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>0</v>
@@ -4571,26 +5358,32 @@
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>60</v>
+      <c r="B3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="18" t="s">
-        <v>45</v>
+      <c r="E3" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
@@ -4624,23 +5417,23 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>54</v>
+      <c r="C5" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="20" t="s">
-        <v>22</v>
+      <c r="E5" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>2</v>
@@ -4683,20 +5476,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -4725,10 +5518,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A9:L9"/>
-    <mergeCell ref="F3:I3"/>
     <mergeCell ref="F5:I5"/>
   </mergeCells>
   <hyperlinks>
@@ -4739,15 +5531,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA50912E-27FE-44B5-A047-41F12E48181B}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4755,105 +5547,106 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="83" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="77"/>
+      <c r="G1" s="83"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="75"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="77"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>65</v>
+      <c r="B3" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="50" t="s">
-        <v>45</v>
+      <c r="F3" s="46" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="81"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="50" t="s">
-        <v>45</v>
+      <c r="F4" s="46" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="50" t="s">
-        <v>45</v>
+      <c r="F5" s="46" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="50" t="s">
-        <v>45</v>
+      <c r="F6" s="46" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="81"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="50" t="s">
-        <v>45</v>
+      <c r="F7" s="46" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4869,17 +5662,17 @@
       <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>59</v>
+      <c r="C9" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="57" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2"/>
@@ -4902,20 +5695,20 @@
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>76</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4937,20 +5730,20 @@
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>72</v>
+      <c r="B15" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4960,7 +5753,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="11" t="s">
@@ -4972,7 +5765,10 @@
         <v>36</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="N17" s="14"/>
+      <c r="G17" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="5"/>
@@ -4980,7 +5776,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="5"/>
@@ -4988,74 +5784,74 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>130</v>
+      <c r="B20" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>128</v>
       </c>
       <c r="D20" s="5">
         <v>145879</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="G20" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="N20" s="14"/>
+      <c r="G20" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="81"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="79"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="5">
         <v>200437</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="G21" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="N21" s="14"/>
+      <c r="G21" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="54" customHeight="1">
-      <c r="A22" s="81"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="79"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="5">
         <v>310111</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="G22" s="91" t="s">
-        <v>143</v>
+      <c r="G22" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="81"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="79"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="5">
         <v>528401</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="G23" s="91" t="s">
-        <v>143</v>
+      <c r="G23" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="79"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="5">
         <v>1076753</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="G24" s="91" t="s">
-        <v>143</v>
+      <c r="G24" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5067,42 +5863,33 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+    <row r="26" spans="1:14" ht="99.95" customHeight="1">
+      <c r="A26" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -5115,398 +5902,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DE763-45BF-4630-996D-9B80B26D1A4B}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="165">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="240">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="90">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="270" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="5"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="5">
-        <v>145879</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="81"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="5">
-        <v>200437</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="5">
-        <v>310111</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="5">
-        <v>528401</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="5">
-        <v>1076753</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2006E70F-6F09-429C-B818-8257EAC2E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23BC98-FA7C-47E4-8BA8-A810F0F3BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="975" windowWidth="18645" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="600" windowWidth="17655" windowHeight="13500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -46,6 +46,24 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E7E8AB2C-34D0-42B0-AC25-1C61178C0DC6}</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{E7E8AB2C-34D0-42B0-AC25-1C61178C0DC6}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Need to double-check version of SigProfilerExtractor</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E68ABE94-AAC2-428A-BBD6-EBC4EF1F710E}</author>
@@ -87,7 +105,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}</author>
@@ -107,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="164">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -874,9 +892,6 @@
     </r>
   </si>
   <si>
-    <t>HPC(wuyang)</t>
-  </si>
-  <si>
     <t>mSigHdp = 1.1.7;
 hdpx = 0.3.4</t>
   </si>
@@ -985,12 +1000,60 @@
 (Probably due to overload)
 (Wait until the first 3 jobs are finished)</t>
   </si>
+  <si>
+    <t>HPC
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107239&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107240&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107241&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107242&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>Queued</t>
+  </si>
+  <si>
+    <t>SigProfilerExtractor==1.1.7
+(2022-May-29)
+SigProfilerAssignment==0.0.8
+SigProfilerMatrixGenerator==1.2.9</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;107249&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;107250&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;107251&gt;
+(wuyang)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1154,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1333,7 +1410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1514,6 +1591,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1592,6 +1672,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1613,19 +1699,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1921,6 +2019,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B9" dT="2022-08-29T21:44:04.30" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{E7E8AB2C-34D0-42B0-AC25-1C61178C0DC6}">
+    <text>Need to double-check version of SigProfilerExtractor</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="G15" dT="2022-08-28T11:28:19.37" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{E68ABE94-AAC2-428A-BBD6-EBC4EF1F710E}">
     <text>Failed when using queue hpc-long
 I assume that hpc-long can only allocate 100GB to each job, and this causes the error.
@@ -1939,7 +2045,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="I3" dT="2022-08-08T13:23:30.12" personId="{AB773AB3-621A-4D8C-80C6-159025BBDEEC}" id="{02DCCEA3-3360-4EC2-8065-19C6EFB3B5C6}">
     <text>Failed probably because it reached memory limit of qsub system (100GB) in the previous run.
@@ -2089,10 +2195,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -2122,8 +2228,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2138,23 +2244,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="84"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2163,10 +2269,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
         <v>42</v>
@@ -2196,10 +2302,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="2"/>
       <c r="M3" s="2"/>
@@ -2219,7 +2325,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="104" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2321,7 +2427,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2332,17 +2438,17 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="5"/>
-      <c r="B12" s="82"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2353,27 +2459,27 @@
         <v>41</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="92" t="s">
+      <c r="B13" s="83"/>
+      <c r="C13" s="95" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="93" t="s">
-        <v>134</v>
+      <c r="F13" s="96" t="s">
+        <v>133</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>23</v>
@@ -2381,16 +2487,16 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="92"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="93"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>23</v>
@@ -2398,16 +2504,16 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="87"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="92"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="93"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>23</v>
@@ -2415,16 +2521,16 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="92"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="93"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>23</v>
@@ -2432,16 +2538,16 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="92"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="93"/>
+      <c r="F17" s="96"/>
       <c r="G17" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>23</v>
@@ -2479,15 +2585,15 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="105" customHeight="1">
-      <c r="A20" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="A20" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
@@ -2501,16 +2607,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2548,13 +2654,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
@@ -2582,10 +2688,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
@@ -2598,13 +2704,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -2620,25 +2726,25 @@
         <v>108</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="I3" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="88" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2651,15 +2757,15 @@
       <c r="G4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="95"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="87"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2672,15 +2778,15 @@
       <c r="G5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="87"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2693,15 +2799,15 @@
       <c r="G6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="87"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2714,10 +2820,10 @@
       <c r="G7" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="87"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="88"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
@@ -2734,19 +2840,19 @@
       <c r="L8" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
@@ -2800,12 +2906,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2845,7 +2951,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I7"/>
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2866,13 +2972,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -2917,106 +3023,106 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="J3" s="87" t="s">
+      <c r="E3" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="88" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="87"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="87"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="87"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="87"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="88"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -3047,30 +3153,30 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A11" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="A11" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3125,15 +3231,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3214,39 +3320,39 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="77" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="30" t="s">
@@ -3274,11 +3380,11 @@
         <v>94</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="33" t="s">
         <v>102</v>
       </c>
@@ -3291,9 +3397,9 @@
         <v>97</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
@@ -3306,9 +3412,9 @@
         <v>98</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="31" t="s">
         <v>96</v>
       </c>
@@ -3321,9 +3427,9 @@
         <v>99</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="31" t="s">
         <v>96</v>
       </c>
@@ -3332,7 +3438,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3348,7 +3454,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="30" t="s">
         <v>103</v>
       </c>
@@ -3362,7 +3468,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -3378,7 +3484,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="63"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="30" t="s">
         <v>116</v>
       </c>
@@ -3392,7 +3498,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="63"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="30" t="s">
         <v>117</v>
       </c>
@@ -3406,7 +3512,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="63"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="30" t="s">
         <v>121</v>
       </c>
@@ -3417,7 +3523,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="64" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -3428,7 +3534,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="63"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="30" t="s">
         <v>125</v>
       </c>
@@ -3437,7 +3543,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="63"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="30" t="s">
         <v>126</v>
       </c>
@@ -3446,7 +3552,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="63"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="30" t="s">
         <v>121</v>
       </c>
@@ -3486,15 +3592,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3581,39 +3687,39 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="26"/>
@@ -3639,11 +3745,11 @@
         <v>94</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
@@ -3656,9 +3762,9 @@
         <v>97</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="31" t="s">
         <v>96</v>
       </c>
@@ -3671,9 +3777,9 @@
         <v>98</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="31" t="s">
         <v>96</v>
       </c>
@@ -3686,9 +3792,9 @@
         <v>99</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="31" t="s">
         <v>96</v>
       </c>
@@ -3697,7 +3803,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -3716,7 +3822,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="30" t="s">
         <v>106</v>
       </c>
@@ -3733,7 +3839,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -3745,12 +3851,12 @@
         <v>96</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="79" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="63"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="30" t="s">
         <v>116</v>
       </c>
@@ -3760,10 +3866,10 @@
         <v>96</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="79"/>
+      <c r="G19" s="80"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="63"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="30" t="s">
         <v>117</v>
       </c>
@@ -3773,30 +3879,30 @@
         <v>96</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="79"/>
+      <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="63"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="79"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="63"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="80"/>
+      <c r="G22" s="81"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="64" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -3805,52 +3911,57 @@
       <c r="E23" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="78" t="s">
+      <c r="G23" s="79" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="63"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="79"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="63"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="30" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="79"/>
+      <c r="G25" s="80"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="63"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="30" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="79"/>
+      <c r="G26" s="80"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="63"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="80"/>
+      <c r="G27" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3858,11 +3969,6 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3876,8 +3982,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3890,29 +3996,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="84"/>
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
@@ -3923,7 +4029,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="165">
@@ -3931,7 +4037,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>59</v>
@@ -3953,88 +4059,88 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1">
-      <c r="A5" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="82" t="s">
+      <c r="A5" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>132</v>
+      <c r="C5" s="63" t="s">
+        <v>131</v>
       </c>
       <c r="D5" s="2">
         <v>145879</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>130</v>
+      <c r="F5" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="2">
         <v>200437</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>130</v>
+      <c r="F6" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="2">
         <v>310111</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>130</v>
+      <c r="F7" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="H7" s="53"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="2">
         <v>528401</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>130</v>
+      <c r="F8" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="H8" s="53"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="2">
         <v>1076753</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>130</v>
+      <c r="F9" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="H9" s="53"/>
     </row>
@@ -4052,7 +4158,7 @@
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="100" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -4063,13 +4169,13 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4138,13 +4244,13 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="54" customHeight="1">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="85" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="5">
@@ -4154,13 +4260,13 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" customHeight="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
@@ -4168,13 +4274,13 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="85"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
@@ -4182,13 +4288,13 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
@@ -4196,13 +4302,13 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
@@ -4210,12 +4316,12 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5"/>
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -4227,7 +4333,7 @@
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="22" t="s">
         <v>129</v>
       </c>
@@ -4238,7 +4344,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4262,14 +4368,14 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A26" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="A26" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -4302,14 +4408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E91F4A-8416-459C-BC5A-9ED97E3E9EC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E91F4A-8416-459C-BC5A-9ED97E3E9EC2}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4320,32 +4426,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="84"/>
       <c r="F2" s="10">
         <v>5</v>
       </c>
@@ -4366,34 +4472,42 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="68.25" customHeight="1">
-      <c r="A3" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>132</v>
+      <c r="C3" s="63" t="s">
+        <v>131</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
+      <c r="F3" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -4406,9 +4520,9 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -4421,9 +4535,9 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -4431,14 +4545,11 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -4459,51 +4570,65 @@
       <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="83" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
+      <c r="F9" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
@@ -4520,14 +4645,14 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="A15" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -4540,7 +4665,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4550,14 +4675,14 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="F1:K1"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4568,8 +4693,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4580,32 +4705,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="84"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -4657,7 +4782,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="100" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -4668,13 +4793,13 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4"/>
@@ -4764,7 +4889,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="83" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -4777,7 +4902,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
@@ -4785,7 +4910,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="82"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4799,7 +4924,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="21" t="s">
         <v>78</v>
       </c>
@@ -4828,14 +4953,14 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="A15" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4874,8 +4999,8 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4897,13 +5022,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -4938,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>0</v>
@@ -4952,32 +5077,32 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="86" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="2" t="s">
@@ -4991,28 +5116,28 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="90"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -5020,26 +5145,26 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="90"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="45"/>
       <c r="K5" s="2"/>
@@ -5047,26 +5172,26 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="2"/>
@@ -5074,26 +5199,26 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="90"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I7" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="2"/>
@@ -5114,25 +5239,25 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="48" customHeight="1">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="86" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89" t="s">
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="59"/>
@@ -5147,67 +5272,67 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="90"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
       <c r="J10" s="59"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="90"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
       <c r="J11" s="59"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="89"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="59"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="90"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="59"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -5278,7 +5403,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5300,13 +5425,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5368,22 +5493,22 @@
         <v>36</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
@@ -5414,7 +5539,7 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="102" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -5424,16 +5549,16 @@
         <v>36</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
+        <v>140</v>
+      </c>
+      <c r="F5" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
       <c r="J5" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>2</v>
@@ -5476,20 +5601,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -5538,8 +5663,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5552,29 +5677,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="81"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="83"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
@@ -5584,13 +5709,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -5598,55 +5723,55 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="87"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5659,7 +5784,7 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="104" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -5766,7 +5891,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="G17" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N17" s="13"/>
     </row>
@@ -5787,13 +5912,13 @@
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="85" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="5">
@@ -5801,57 +5926,57 @@
       </c>
       <c r="E20" s="5"/>
       <c r="G20" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="87"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="5">
         <v>200437</v>
       </c>
       <c r="E21" s="5"/>
       <c r="G21" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="54" customHeight="1">
-      <c r="A22" s="87"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="5">
         <v>310111</v>
       </c>
       <c r="E22" s="5"/>
       <c r="G22" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="87"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="85"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="5">
         <v>528401</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="87"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="85"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="5">
         <v>1076753</v>
       </c>
       <c r="E24" s="5"/>
       <c r="G24" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5864,15 +5989,15 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:14" ht="99.95" customHeight="1">
-      <c r="A26" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
+      <c r="A26" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23BC98-FA7C-47E4-8BA8-A810F0F3BFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4D2FD2-67FC-4FE2-8A71-3B6D8ED2B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="600" windowWidth="17655" windowHeight="13500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="600" windowWidth="17655" windowHeight="13500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="174">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -993,9 +993,6 @@
     <t>no_down_samp</t>
   </si>
   <si>
-    <t>Start NR_hdp_gb_1 jobs!</t>
-  </si>
-  <si>
     <t>HPC cluster returns "hold"
 (Probably due to overload)
 (Wait until the first 3 jobs are finished)</t>
@@ -1046,6 +1043,72 @@
   <si>
     <t>hpc-long
 &lt;107251&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>Arguments for function mSigHdp::RunHdpParallel():
+K.guess = 64,
+multi.types = TRUE,
+post.burnin = 5000 * 20,
+post.n = 200,
+post.space = 100,
+post.cpiter = 3,
+num.child.process = 20,
+CPU.cores = 20,
+cos.merge = 0.9,
+min.sample = 1
+Arguments for function mSigHdp::SetupAndPosterior():
+GLOBAL.gamma.alpha = 1,
+GLOBAL.gamma.beta = 1</t>
+  </si>
+  <si>
+    <t>m2
+&lt;1273094&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2
+&lt;1273339&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2
+&lt;1273498&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2
+&lt;1273659&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2
+&lt;1273818&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>mm
+&lt;1060617&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>mm
+&lt;1060777&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>mm
+&lt;1060937&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>mm
+&lt;1061097&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>mm
+&lt;1060327&gt;
 (wuyang)</t>
   </si>
 </sst>
@@ -1053,7 +1116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,12 +1220,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1410,7 +1467,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1551,9 +1608,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1587,13 +1641,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1672,6 +1734,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1684,6 +1752,9 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1696,6 +1767,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1703,27 +1777,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2195,10 +2248,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -2228,8 +2281,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2244,23 +2297,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="84"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2269,10 +2322,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
         <v>42</v>
@@ -2301,10 +2354,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>148</v>
       </c>
       <c r="H3" s="2"/>
@@ -2325,7 +2378,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -2335,10 +2388,10 @@
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -2403,7 +2456,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -2427,7 +2480,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="84" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2440,7 +2493,7 @@
       <c r="F11" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="53" t="s">
         <v>133</v>
       </c>
       <c r="H11" s="5"/>
@@ -2448,7 +2501,7 @@
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="5"/>
-      <c r="B12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2464,21 +2517,21 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="99" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>138</v>
       </c>
       <c r="H13" s="19" t="s">
@@ -2487,15 +2540,15 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="95"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="50" t="s">
+      <c r="F14" s="100"/>
+      <c r="G14" s="49" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="19" t="s">
@@ -2504,15 +2557,15 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="95"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="51" t="s">
+      <c r="F15" s="100"/>
+      <c r="G15" s="50" t="s">
         <v>145</v>
       </c>
       <c r="H15" s="24" t="s">
@@ -2521,15 +2574,15 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="50" t="s">
         <v>145</v>
       </c>
       <c r="H16" s="24" t="s">
@@ -2538,15 +2591,15 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="95"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="51" t="s">
+      <c r="F17" s="100"/>
+      <c r="G17" s="50" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -2585,15 +2638,15 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="105" customHeight="1">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
@@ -2607,16 +2660,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2654,13 +2707,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
@@ -2704,13 +2757,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -2728,23 +2781,23 @@
       <c r="H3" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="89" t="s">
+      <c r="I3" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="89" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2757,15 +2810,15 @@
       <c r="G4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="89"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="88"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2778,15 +2831,15 @@
       <c r="G5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="88"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2799,15 +2852,15 @@
       <c r="G6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="88"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2820,10 +2873,10 @@
       <c r="G7" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="89"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="88"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
@@ -2840,19 +2893,19 @@
       <c r="L8" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
@@ -2906,12 +2959,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -2972,13 +3025,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3023,106 +3076,106 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="89" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="88"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="88"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="88"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="88"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -3153,30 +3206,30 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3231,15 +3284,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3320,39 +3373,39 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="78" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="30" t="s">
@@ -3380,11 +3433,11 @@
         <v>94</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="33" t="s">
         <v>102</v>
       </c>
@@ -3397,9 +3450,9 @@
         <v>97</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
@@ -3412,9 +3465,9 @@
         <v>98</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="31" t="s">
         <v>96</v>
       </c>
@@ -3427,9 +3480,9 @@
         <v>99</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="31" t="s">
         <v>96</v>
       </c>
@@ -3438,7 +3491,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="65" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3454,7 +3507,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="64"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="30" t="s">
         <v>103</v>
       </c>
@@ -3468,7 +3521,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -3484,7 +3537,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="64"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="30" t="s">
         <v>116</v>
       </c>
@@ -3498,7 +3551,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="30" t="s">
         <v>117</v>
       </c>
@@ -3512,7 +3565,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="64"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="30" t="s">
         <v>121</v>
       </c>
@@ -3523,7 +3576,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="65" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -3534,7 +3587,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="30" t="s">
         <v>125</v>
       </c>
@@ -3543,7 +3596,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="64"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="30" t="s">
         <v>126</v>
       </c>
@@ -3552,7 +3605,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="64"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="30" t="s">
         <v>121</v>
       </c>
@@ -3592,15 +3645,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3687,39 +3740,39 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="77"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="26"/>
@@ -3745,11 +3798,11 @@
         <v>94</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
@@ -3762,9 +3815,9 @@
         <v>97</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="31" t="s">
         <v>96</v>
       </c>
@@ -3777,9 +3830,9 @@
         <v>98</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="31" t="s">
         <v>96</v>
       </c>
@@ -3792,9 +3845,9 @@
         <v>99</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="31" t="s">
         <v>96</v>
       </c>
@@ -3803,7 +3856,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="65" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -3822,7 +3875,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="64"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="30" t="s">
         <v>106</v>
       </c>
@@ -3839,7 +3892,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -3851,12 +3904,12 @@
         <v>96</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="80" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="64"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="30" t="s">
         <v>116</v>
       </c>
@@ -3866,10 +3919,10 @@
         <v>96</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="80"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="64"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="30" t="s">
         <v>117</v>
       </c>
@@ -3879,30 +3932,30 @@
         <v>96</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="80"/>
+      <c r="G20" s="81"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="64"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="80"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="64"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="81"/>
+      <c r="G22" s="82"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -3911,57 +3964,52 @@
       <c r="E23" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="80" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="64"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="80"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="64"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="30" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="64"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="30" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="80"/>
+      <c r="G26" s="81"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="64"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="81"/>
+      <c r="G27" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -3969,6 +4017,11 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3982,7 +4035,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3991,34 +4044,34 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" style="61" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="61"/>
+    <col min="6" max="8" width="10.7109375" style="59" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
@@ -4046,10 +4099,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2"/>
@@ -4059,90 +4112,90 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="64" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="2">
         <v>145879</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="53"/>
+      <c r="F5" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>200437</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="53"/>
+      <c r="F6" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>310111</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="53"/>
+      <c r="F7" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="2">
         <v>528401</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="53"/>
+      <c r="F8" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="2">
         <v>1076753</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="53"/>
+      <c r="F9" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2"/>
@@ -4150,15 +4203,15 @@
       <c r="C10" s="17"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="240">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -4168,13 +4221,13 @@
         <v>36</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="55" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4201,9 +4254,9 @@
         <v>36</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
@@ -4229,9 +4282,9 @@
         <v>36</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5"/>
@@ -4244,13 +4297,13 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="54" customHeight="1">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="86" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="5">
@@ -4264,9 +4317,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" customHeight="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="86"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
@@ -4278,9 +4331,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" customHeight="1">
-      <c r="A19" s="87"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="86"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
@@ -4292,9 +4345,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1">
-      <c r="A20" s="87"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
@@ -4306,9 +4359,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1">
-      <c r="A21" s="87"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="86"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
@@ -4321,7 +4374,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5"/>
-      <c r="B22" s="83"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -4333,7 +4386,7 @@
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="83"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="22" t="s">
         <v>129</v>
       </c>
@@ -4368,14 +4421,14 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -4414,7 +4467,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4426,32 +4479,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="F2" s="10">
         <v>5</v>
       </c>
@@ -4472,42 +4525,42 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="68.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="H3" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="I3" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="J3" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J3" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -4520,9 +4573,9 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -4535,9 +4588,9 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -4547,9 +4600,9 @@
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -4570,65 +4623,65 @@
       <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="84" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="H9" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
+      <c r="I9" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
@@ -4645,14 +4698,14 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -4705,32 +4758,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -4758,9 +4811,9 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
@@ -4782,7 +4835,7 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="61" t="s">
         <v>49</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -4792,13 +4845,13 @@
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="55" t="s">
         <v>140</v>
       </c>
       <c r="I5" s="2"/>
@@ -4865,9 +4918,9 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -4889,7 +4942,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="84" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -4901,7 +4954,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="54" t="s">
         <v>142</v>
       </c>
       <c r="I11" s="2"/>
@@ -4910,7 +4963,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -4924,7 +4977,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="21" t="s">
         <v>78</v>
       </c>
@@ -4953,14 +5006,14 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4999,7 +5052,7 @@
   </sheetPr>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
@@ -5022,13 +5075,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5062,7 +5115,7 @@
       <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="57" t="s">
         <v>151</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -5077,31 +5130,31 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="87" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="56" t="s">
         <v>144</v>
       </c>
       <c r="J3" s="45"/>
@@ -5116,27 +5169,27 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="56" t="s">
         <v>140</v>
       </c>
       <c r="J4" s="2"/>
@@ -5145,25 +5198,25 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="93"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="97"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>140</v>
       </c>
       <c r="J5" s="45"/>
@@ -5172,25 +5225,25 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>140</v>
       </c>
       <c r="J6" s="45"/>
@@ -5199,25 +5252,25 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="93"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="56" t="s">
         <v>144</v>
       </c>
       <c r="J7" s="45"/>
@@ -5239,28 +5292,28 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="48" customHeight="1">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="87" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92" t="s">
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5272,68 +5325,68 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="93"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="59"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="59"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="59"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="58"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="93"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="59"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="58"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
@@ -5402,7 +5455,7 @@
   </sheetPr>
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5425,13 +5478,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5492,7 +5545,7 @@
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>144</v>
       </c>
       <c r="F3" s="46" t="s">
@@ -5539,7 +5592,7 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -5548,16 +5601,16 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="55" t="s">
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="54" t="s">
         <v>140</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -5601,20 +5654,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -5661,10 +5714,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5677,29 +5730,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="84"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
@@ -5709,13 +5762,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -5727,9 +5780,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -5739,9 +5792,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -5751,9 +5804,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="88"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -5763,9 +5816,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -5784,7 +5837,7 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="63" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -5794,10 +5847,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2"/>
@@ -5852,7 +5905,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:14" ht="75" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -5865,7 +5918,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="48" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -5880,140 +5933,188 @@
       <c r="E16" s="5"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:14" ht="54" customHeight="1">
+      <c r="A17" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
+      <c r="B17" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="5">
+        <v>145879</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="G17" s="60" t="s">
-        <v>152</v>
+      <c r="F17" s="60" t="s">
+        <v>173</v>
       </c>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+    <row r="18" spans="1:14" ht="54" customHeight="1">
+      <c r="A18" s="89"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="5">
+        <v>200437</v>
+      </c>
       <c r="E18" s="5"/>
+      <c r="F18" s="60" t="s">
+        <v>169</v>
+      </c>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+    <row r="19" spans="1:14" ht="54" customHeight="1">
+      <c r="A19" s="89"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="5">
+        <v>310111</v>
+      </c>
       <c r="E19" s="5"/>
+      <c r="F19" s="60" t="s">
+        <v>170</v>
+      </c>
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="5">
+        <v>528401</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" ht="54" customHeight="1">
+      <c r="A21" s="89"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="5">
+        <v>1076753</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" ht="54" customHeight="1">
+      <c r="A23" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B23" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C23" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D23" s="5">
         <v>145879</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="G20" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="5">
+      <c r="E23" s="5"/>
+      <c r="F23" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" ht="54" customHeight="1">
+      <c r="A24" s="89"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="5">
         <v>200437</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="G21" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" ht="54" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="5">
+      <c r="E24" s="5"/>
+      <c r="F24" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" ht="54" customHeight="1">
+      <c r="A25" s="89"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="5">
         <v>310111</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="G22" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="5">
+      <c r="E25" s="5"/>
+      <c r="F25" s="60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="54" customHeight="1">
+      <c r="A26" s="89"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="5">
         <v>528401</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="G23" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="5">
+      <c r="E26" s="5"/>
+      <c r="F26" s="60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="54" customHeight="1">
+      <c r="A27" s="89"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="5">
         <v>1076753</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="G24" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" ht="99.95" customHeight="1">
-      <c r="A26" s="63" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" ht="99.95" customHeight="1">
+      <c r="A29" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A20:A24"/>
+  <mergeCells count="15">
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -6022,7 +6123,10 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4D2FD2-67FC-4FE2-8A71-3B6D8ED2B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74E3CC-0AF6-4674-848E-03A146B9702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="600" windowWidth="17655" windowHeight="13500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="2490" windowWidth="16695" windowHeight="11820" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="181">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -993,11 +993,6 @@
     <t>no_down_samp</t>
   </si>
   <si>
-    <t>HPC cluster returns "hold"
-(Probably due to overload)
-(Wait until the first 3 jobs are finished)</t>
-  </si>
-  <si>
     <t>HPC
 (wuyang)</t>
   </si>
@@ -1020,9 +1015,6 @@
     <t>hpc-super
 &lt;107242&gt;
 (wuyang)</t>
-  </si>
-  <si>
-    <t>Queued</t>
   </si>
   <si>
     <t>SigProfilerExtractor==1.1.7
@@ -1109,6 +1101,49 @@
   <si>
     <t>mm
 &lt;1060327&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107243&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107405&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;107375&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;107376&gt;(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107411&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107424&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;107325&gt;(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107477&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107478&gt;
 (wuyang)</t>
   </si>
 </sst>
@@ -1467,7 +1502,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1743,9 +1778,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1777,6 +1809,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2521,14 +2577,14 @@
         <v>33</v>
       </c>
       <c r="B13" s="84"/>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="98" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="99" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="49" t="s">
@@ -2542,12 +2598,12 @@
     <row r="14" spans="1:13" ht="54" customHeight="1">
       <c r="A14" s="89"/>
       <c r="B14" s="84"/>
-      <c r="C14" s="99"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="100"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="49" t="s">
         <v>138</v>
       </c>
@@ -2559,12 +2615,12 @@
     <row r="15" spans="1:13" ht="54" customHeight="1">
       <c r="A15" s="89"/>
       <c r="B15" s="84"/>
-      <c r="C15" s="99"/>
+      <c r="C15" s="98"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="100"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="50" t="s">
         <v>145</v>
       </c>
@@ -2576,12 +2632,12 @@
     <row r="16" spans="1:13" ht="54" customHeight="1">
       <c r="A16" s="89"/>
       <c r="B16" s="84"/>
-      <c r="C16" s="99"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="100"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="50" t="s">
         <v>145</v>
       </c>
@@ -2593,12 +2649,12 @@
     <row r="17" spans="1:13" ht="54" customHeight="1">
       <c r="A17" s="89"/>
       <c r="B17" s="84"/>
-      <c r="C17" s="99"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="100"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="50" t="s">
         <v>145</v>
       </c>
@@ -2660,16 +2716,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2760,7 +2816,7 @@
       <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -2787,7 +2843,7 @@
       <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="101" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="89" t="s">
@@ -2796,7 +2852,7 @@
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
       <c r="A4" s="89"/>
-      <c r="B4" s="101"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
@@ -2812,12 +2868,12 @@
       </c>
       <c r="I4" s="92"/>
       <c r="J4" s="89"/>
-      <c r="K4" s="102"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
       <c r="A5" s="89"/>
-      <c r="B5" s="101"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
@@ -2833,12 +2889,12 @@
       </c>
       <c r="I5" s="92"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="102"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
       <c r="A6" s="89"/>
-      <c r="B6" s="101"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
@@ -2854,12 +2910,12 @@
       </c>
       <c r="I6" s="92"/>
       <c r="J6" s="89"/>
-      <c r="K6" s="102"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
       <c r="A7" s="89"/>
-      <c r="B7" s="101"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
@@ -2875,7 +2931,7 @@
       </c>
       <c r="I7" s="92"/>
       <c r="J7" s="89"/>
-      <c r="K7" s="102"/>
+      <c r="K7" s="101"/>
       <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:12">
@@ -3079,7 +3135,7 @@
       <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="100" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -3088,25 +3144,25 @@
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="103" t="s">
+      <c r="E3" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="103" t="s">
         <v>138</v>
       </c>
       <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="101" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="89" t="s">
@@ -3115,66 +3171,66 @@
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="89"/>
-      <c r="B4" s="101"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="89"/>
-      <c r="K4" s="102"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="89"/>
-      <c r="B5" s="101"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="102"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="89"/>
-      <c r="B6" s="101"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="89"/>
-      <c r="K6" s="102"/>
+      <c r="K6" s="101"/>
       <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="89"/>
-      <c r="B7" s="101"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
       <c r="J7" s="89"/>
-      <c r="K7" s="102"/>
+      <c r="K7" s="101"/>
       <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13">
@@ -4010,6 +4066,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -4017,11 +4078,6 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4126,10 +4182,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H5" s="52"/>
     </row>
@@ -4142,10 +4198,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="52"/>
     </row>
@@ -4158,10 +4214,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="52"/>
     </row>
@@ -4174,10 +4230,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="52"/>
     </row>
@@ -4190,10 +4246,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H9" s="52"/>
     </row>
@@ -4467,8 +4523,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4524,7 +4580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="68.25" customHeight="1">
+    <row r="3" spans="1:11" ht="68.25" customHeight="1" thickBot="1">
       <c r="A3" s="89" t="s">
         <v>132</v>
       </c>
@@ -4538,23 +4594,20 @@
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="H3" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="I3" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>158</v>
+      <c r="J3" s="49" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1">
@@ -4565,12 +4618,22 @@
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>180</v>
+      </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="I4" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="105" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
       <c r="A5" s="89"/>
@@ -4580,12 +4643,12 @@
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="106"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="A6" s="89"/>
@@ -4595,11 +4658,14 @@
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
       <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="36" customHeight="1">
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="106"/>
+    </row>
+    <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A7" s="89"/>
       <c r="B7" s="89"/>
       <c r="C7" s="64"/>
@@ -4607,14 +4673,14 @@
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="107"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -4622,12 +4688,12 @@
       <c r="E8" s="2"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1">
+    <row r="9" spans="1:11" ht="54" customHeight="1" thickBot="1">
       <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>64</v>
@@ -4636,20 +4702,24 @@
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
+      <c r="I9" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9" s="111" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1">
       <c r="A10" s="89"/>
@@ -4718,7 +4788,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F4:F7"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4731,7 +4805,7 @@
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="J4:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5173,7 +5247,7 @@
       <c r="B4" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="97"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -5200,7 +5274,7 @@
     <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="89"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="97"/>
+      <c r="C5" s="96"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -5227,7 +5301,7 @@
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="89"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="97"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -5254,7 +5328,7 @@
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="89"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="97"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -5295,7 +5369,7 @@
       <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="87" t="s">
@@ -5304,13 +5378,13 @@
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="58"/>
@@ -5326,16 +5400,16 @@
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
       <c r="A10" s="89"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="58"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
@@ -5343,16 +5417,16 @@
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
       <c r="A11" s="89"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="58"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
@@ -5360,32 +5434,32 @@
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
       <c r="A12" s="89"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="58"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
       <c r="A13" s="89"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="58"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -5604,12 +5678,12 @@
       <c r="E5" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
       <c r="J5" s="54" t="s">
         <v>140</v>
       </c>
@@ -5716,7 +5790,7 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5937,70 +6011,70 @@
       <c r="A17" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="98" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" s="5">
         <v>145879</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1">
       <c r="A18" s="89"/>
-      <c r="B18" s="99"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="87"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1">
       <c r="A19" s="89"/>
-      <c r="B19" s="99"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="87"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
       <c r="A20" s="89"/>
-      <c r="B20" s="99"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="87"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
       <c r="A21" s="89"/>
-      <c r="B21" s="99"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="87"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N21" s="13"/>
     </row>
@@ -6016,7 +6090,7 @@
       <c r="A23" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="98" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="86" t="s">
@@ -6027,57 +6101,57 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
       <c r="A24" s="89"/>
-      <c r="B24" s="99"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="87"/>
       <c r="D24" s="5">
         <v>200437</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1">
       <c r="A25" s="89"/>
-      <c r="B25" s="99"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="87"/>
       <c r="D25" s="5">
         <v>310111</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="99"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="87"/>
       <c r="D26" s="5">
         <v>528401</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="99"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="87"/>
       <c r="D27" s="5">
         <v>1076753</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:14">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74E3CC-0AF6-4674-848E-03A146B9702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFF7504-379D-4EFC-89D5-1A576AE6735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="2490" windowWidth="16695" windowHeight="11820" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10725" yWindow="2805" windowWidth="16920" windowHeight="11820" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="indel_set2_down_samp" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -125,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="186">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -951,10 +952,6 @@
 (steve)</t>
   </si>
   <si>
-    <t>m2 
-(e0240162)</t>
-  </si>
-  <si>
     <t>hpc
 (e0240162)</t>
   </si>
@@ -1133,10 +1130,6 @@
 (wuyang)</t>
   </si>
   <si>
-    <t>hpc-long
-&lt;107325&gt;(wuyang)</t>
-  </si>
-  <si>
     <t>hpc-super
 &lt;107477&gt;
 (wuyang)</t>
@@ -1145,6 +1138,39 @@
     <t>hpc-super
 &lt;107478&gt;
 (wuyang)</t>
+  </si>
+  <si>
+    <t>m2 
+&lt;444863&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2 
+&lt;445022&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2 
+&lt;445161&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2 
+&lt;530945&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>m2 
+&lt;531105&gt;
+(e0240162)</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;108524&gt;(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-long
+&lt;108530&gt;(wuyang)</t>
   </si>
 </sst>
 </file>
@@ -1775,64 +1801,64 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2411,10 +2437,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H3" s="2"/>
       <c r="M3" s="2"/>
@@ -2577,14 +2603,14 @@
         <v>33</v>
       </c>
       <c r="B13" s="84"/>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="104" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="105" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="49" t="s">
@@ -2598,12 +2624,12 @@
     <row r="14" spans="1:13" ht="54" customHeight="1">
       <c r="A14" s="89"/>
       <c r="B14" s="84"/>
-      <c r="C14" s="98"/>
+      <c r="C14" s="104"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="99"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="49" t="s">
         <v>138</v>
       </c>
@@ -2615,14 +2641,14 @@
     <row r="15" spans="1:13" ht="54" customHeight="1">
       <c r="A15" s="89"/>
       <c r="B15" s="84"/>
-      <c r="C15" s="98"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="99"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>23</v>
@@ -2632,14 +2658,14 @@
     <row r="16" spans="1:13" ht="54" customHeight="1">
       <c r="A16" s="89"/>
       <c r="B16" s="84"/>
-      <c r="C16" s="98"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="99"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>23</v>
@@ -2649,14 +2675,14 @@
     <row r="17" spans="1:13" ht="54" customHeight="1">
       <c r="A17" s="89"/>
       <c r="B17" s="84"/>
-      <c r="C17" s="98"/>
+      <c r="C17" s="104"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="99"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>23</v>
@@ -2695,7 +2721,7 @@
     </row>
     <row r="20" spans="1:13" ht="105" customHeight="1">
       <c r="A20" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -2816,7 +2842,7 @@
       <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -2837,13 +2863,13 @@
       <c r="H3" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="108" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="107" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="89" t="s">
@@ -2852,7 +2878,7 @@
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
       <c r="A4" s="89"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
@@ -2866,14 +2892,14 @@
       <c r="G4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="92"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="89"/>
-      <c r="K4" s="101"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
       <c r="A5" s="89"/>
-      <c r="B5" s="100"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
@@ -2887,14 +2913,14 @@
       <c r="G5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="101"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
       <c r="A6" s="89"/>
-      <c r="B6" s="100"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
@@ -2908,14 +2934,14 @@
       <c r="G6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="I6" s="108"/>
       <c r="J6" s="89"/>
-      <c r="K6" s="101"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
       <c r="A7" s="89"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
@@ -2929,9 +2955,9 @@
       <c r="G7" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="92"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="89"/>
-      <c r="K7" s="101"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:12">
@@ -3135,7 +3161,7 @@
       <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -3144,25 +3170,25 @@
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="109" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="103" t="s">
+      <c r="I3" s="110" t="s">
         <v>138</v>
       </c>
       <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="107" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="89" t="s">
@@ -3171,66 +3197,66 @@
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="89"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="89"/>
-      <c r="K4" s="101"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="89"/>
-      <c r="B5" s="100"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="101"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="89"/>
-      <c r="B6" s="100"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="89"/>
-      <c r="K6" s="101"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="89"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
       <c r="J7" s="89"/>
-      <c r="K7" s="101"/>
+      <c r="K7" s="107"/>
       <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13">
@@ -3278,7 +3304,7 @@
     </row>
     <row r="11" spans="1:13" ht="99.95" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -4091,8 +4117,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4138,7 +4164,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="165">
@@ -4182,10 +4208,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="52"/>
     </row>
@@ -4198,10 +4224,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="52"/>
     </row>
@@ -4214,10 +4240,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="52"/>
     </row>
@@ -4230,10 +4256,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" s="52"/>
     </row>
@@ -4246,10 +4272,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="52"/>
     </row>
@@ -4369,7 +4395,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="46" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" customHeight="1">
@@ -4383,7 +4409,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="46" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" customHeight="1">
@@ -4397,7 +4423,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="46" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1">
@@ -4411,7 +4437,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="46" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1">
@@ -4425,7 +4451,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="46" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4524,7 +4550,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J4" sqref="J4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4595,19 +4621,19 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="49" t="s">
-        <v>156</v>
-      </c>
       <c r="J3" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1">
@@ -4618,24 +4644,24 @@
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="105" t="s">
-        <v>180</v>
+      <c r="F4" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>178</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="K4" s="105" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1">
+    </row>
+    <row r="5" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="64"/>
@@ -4643,12 +4669,12 @@
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="106"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="A6" s="89"/>
@@ -4658,12 +4684,16 @@
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
+      <c r="F6" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>178</v>
+      </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="106"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="97"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A7" s="89"/>
@@ -4673,12 +4703,12 @@
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="107"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="98"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>
@@ -4693,7 +4723,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="84" t="s">
         <v>64</v>
@@ -4702,23 +4732,23 @@
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="H9" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="J9" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="K9" s="111" t="s">
-        <v>178</v>
+      <c r="K9" s="96" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1">
@@ -4729,6 +4759,14 @@
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1">
       <c r="A11" s="89"/>
@@ -4738,6 +4776,12 @@
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1">
       <c r="A12" s="89"/>
@@ -4747,8 +4791,14 @@
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1">
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+    </row>
+    <row r="13" spans="1:11" ht="54" customHeight="1" thickBot="1">
       <c r="A13" s="89"/>
       <c r="B13" s="91"/>
       <c r="C13" s="84"/>
@@ -4756,6 +4806,12 @@
         <v>1076753</v>
       </c>
       <c r="E13" s="2"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
@@ -4788,12 +4844,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="25">
     <mergeCell ref="K4:K7"/>
-    <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F4:F7"/>
     <mergeCell ref="A15:F15"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4801,11 +4870,6 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="J4:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4920,10 +4984,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="55" t="s">
         <v>140</v>
@@ -5190,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>0</v>
@@ -5229,7 +5293,7 @@
         <v>140</v>
       </c>
       <c r="I3" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="2" t="s">
@@ -5247,7 +5311,7 @@
       <c r="B4" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="96"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -5274,7 +5338,7 @@
     <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="89"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="96"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -5301,7 +5365,7 @@
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="89"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="96"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -5328,7 +5392,7 @@
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="89"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="96"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -5339,13 +5403,13 @@
         <v>140</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="2"/>
@@ -5369,7 +5433,7 @@
       <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="101" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="87" t="s">
@@ -5378,13 +5442,13 @@
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="94" t="s">
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="58"/>
@@ -5400,16 +5464,16 @@
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
       <c r="A10" s="89"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="58"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
@@ -5417,16 +5481,16 @@
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
       <c r="A11" s="89"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="94"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="58"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
@@ -5434,32 +5498,32 @@
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
       <c r="A12" s="89"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="58"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
       <c r="A13" s="89"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="58"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -5620,22 +5684,22 @@
         <v>36</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
@@ -5678,12 +5742,12 @@
       <c r="E5" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="103" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
       <c r="J5" s="54" t="s">
         <v>140</v>
       </c>
@@ -5850,7 +5914,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
@@ -5862,7 +5926,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
@@ -5874,7 +5938,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
@@ -5886,7 +5950,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
@@ -5898,7 +5962,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -6011,70 +6075,70 @@
       <c r="A17" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="5">
         <v>145879</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1">
       <c r="A18" s="89"/>
-      <c r="B18" s="98"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="87"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1">
       <c r="A19" s="89"/>
-      <c r="B19" s="98"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="87"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
       <c r="A20" s="89"/>
-      <c r="B20" s="98"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="87"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
       <c r="A21" s="89"/>
-      <c r="B21" s="98"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="87"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N21" s="13"/>
     </row>
@@ -6090,7 +6154,7 @@
       <c r="A23" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="104" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="86" t="s">
@@ -6101,57 +6165,57 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
       <c r="A24" s="89"/>
-      <c r="B24" s="98"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="87"/>
       <c r="D24" s="5">
         <v>200437</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1">
       <c r="A25" s="89"/>
-      <c r="B25" s="98"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="87"/>
       <c r="D25" s="5">
         <v>310111</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="98"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="87"/>
       <c r="D26" s="5">
         <v>528401</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="98"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="87"/>
       <c r="D27" s="5">
         <v>1076753</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6165,7 +6229,7 @@
     </row>
     <row r="29" spans="1:14" ht="99.95" customHeight="1">
       <c r="A29" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFF7504-379D-4EFC-89D5-1A576AE6735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD1BA1-162D-4841-B0FE-F3BFFAF699A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="2805" windowWidth="16920" windowHeight="11820" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="1680" windowWidth="16920" windowHeight="11820" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="indel_set2_down_samp" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1106,11 +1105,6 @@
 (wuyang)</t>
   </si>
   <si>
-    <t>hpc-super
-&lt;107405&gt;
-(wuyang)</t>
-  </si>
-  <si>
     <t>hpc-long
 &lt;107375&gt;
 (wuyang)</t>
@@ -1121,16 +1115,6 @@
   </si>
   <si>
     <t>hpc-super
-&lt;107411&gt;
-(wuyang)</t>
-  </si>
-  <si>
-    <t>hpc-super
-&lt;107424&gt;
-(wuyang)</t>
-  </si>
-  <si>
-    <t>hpc-super
 &lt;107477&gt;
 (wuyang)</t>
   </si>
@@ -1166,11 +1150,27 @@
   </si>
   <si>
     <t>hpc-long
-&lt;108524&gt;(wuyang)</t>
-  </si>
-  <si>
-    <t>hpc-long
 &lt;108530&gt;(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;108929&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;108931&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;108932&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;108933&gt;
+(wuyang)</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1795,33 +1795,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1860,6 +1851,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2603,14 +2600,14 @@
         <v>33</v>
       </c>
       <c r="B13" s="84"/>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="101" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="102" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="49" t="s">
@@ -2624,12 +2621,12 @@
     <row r="14" spans="1:13" ht="54" customHeight="1">
       <c r="A14" s="89"/>
       <c r="B14" s="84"/>
-      <c r="C14" s="104"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="105"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="49" t="s">
         <v>138</v>
       </c>
@@ -2641,12 +2638,12 @@
     <row r="15" spans="1:13" ht="54" customHeight="1">
       <c r="A15" s="89"/>
       <c r="B15" s="84"/>
-      <c r="C15" s="104"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="105"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="50" t="s">
         <v>144</v>
       </c>
@@ -2658,12 +2655,12 @@
     <row r="16" spans="1:13" ht="54" customHeight="1">
       <c r="A16" s="89"/>
       <c r="B16" s="84"/>
-      <c r="C16" s="104"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="105"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="50" t="s">
         <v>144</v>
       </c>
@@ -2675,12 +2672,12 @@
     <row r="17" spans="1:13" ht="54" customHeight="1">
       <c r="A17" s="89"/>
       <c r="B17" s="84"/>
-      <c r="C17" s="104"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="105"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="50" t="s">
         <v>144</v>
       </c>
@@ -2742,16 +2739,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2842,7 +2839,7 @@
       <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -2863,13 +2860,13 @@
       <c r="H3" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="108" t="s">
+      <c r="I3" s="105" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="89" t="s">
@@ -2878,7 +2875,7 @@
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
       <c r="A4" s="89"/>
-      <c r="B4" s="106"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
@@ -2892,14 +2889,14 @@
       <c r="G4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="89"/>
-      <c r="K4" s="107"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
       <c r="A5" s="89"/>
-      <c r="B5" s="106"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
@@ -2913,14 +2910,14 @@
       <c r="G5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="108"/>
+      <c r="I5" s="105"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="107"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
       <c r="A6" s="89"/>
-      <c r="B6" s="106"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
@@ -2934,14 +2931,14 @@
       <c r="G6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="108"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="89"/>
-      <c r="K6" s="107"/>
+      <c r="K6" s="104"/>
       <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
       <c r="A7" s="89"/>
-      <c r="B7" s="106"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
@@ -2955,9 +2952,9 @@
       <c r="G7" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="108"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="89"/>
-      <c r="K7" s="107"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:12">
@@ -3161,7 +3158,7 @@
       <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="103" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="64" t="s">
@@ -3170,25 +3167,25 @@
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="107" t="s">
         <v>138</v>
       </c>
       <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K3" s="104" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="89" t="s">
@@ -3197,66 +3194,66 @@
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
       <c r="A4" s="89"/>
-      <c r="B4" s="106"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="110"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
       <c r="J4" s="89"/>
-      <c r="K4" s="107"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
       <c r="A5" s="89"/>
-      <c r="B5" s="106"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="107"/>
       <c r="J5" s="89"/>
-      <c r="K5" s="107"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
       <c r="A6" s="89"/>
-      <c r="B6" s="106"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="89"/>
-      <c r="K6" s="107"/>
+      <c r="K6" s="104"/>
       <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
       <c r="A7" s="89"/>
-      <c r="B7" s="106"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="89"/>
-      <c r="K7" s="107"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13">
@@ -4092,11 +4089,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -4104,6 +4096,11 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4117,8 +4114,8 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4395,7 +4392,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="46" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" customHeight="1">
@@ -4409,7 +4406,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="46" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" customHeight="1">
@@ -4423,7 +4420,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1">
@@ -4437,7 +4434,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="46" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1">
@@ -4451,7 +4448,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4550,7 +4547,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4582,7 +4579,7 @@
       <c r="J1" s="83"/>
       <c r="K1" s="83"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="83"/>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -4635,6 +4632,9 @@
       <c r="J3" s="49" t="s">
         <v>171</v>
       </c>
+      <c r="K3" s="90" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1">
       <c r="A4" s="89"/>
@@ -4644,24 +4644,24 @@
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="92" t="s">
+      <c r="F4" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" s="96" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="H4" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="91"/>
+    </row>
+    <row r="5" spans="1:11" ht="36" customHeight="1">
       <c r="A5" s="89"/>
       <c r="B5" s="89"/>
       <c r="C5" s="64"/>
@@ -4669,14 +4669,14 @@
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="97"/>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1">
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="89"/>
       <c r="B6" s="89"/>
       <c r="C6" s="64"/>
@@ -4684,16 +4684,12 @@
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="97"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A7" s="89"/>
@@ -4703,14 +4699,18 @@
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="98"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+      <c r="F7" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -4718,11 +4718,11 @@
       <c r="E8" s="2"/>
       <c r="H8" s="45"/>
     </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1" thickBot="1">
+    <row r="9" spans="1:11" ht="54" customHeight="1">
       <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="94" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="84" t="s">
@@ -4732,86 +4732,84 @@
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="G9" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="J9" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="96" t="s">
-        <v>185</v>
+      <c r="K9" s="108" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1">
       <c r="A10" s="89"/>
-      <c r="B10" s="91"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="84"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="97"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1">
       <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="84"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="108"/>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1">
       <c r="A12" s="89"/>
-      <c r="B12" s="91"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="84"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="108"/>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1" thickBot="1">
       <c r="A13" s="89"/>
-      <c r="B13" s="91"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="84"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="108"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
@@ -4844,16 +4842,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="24">
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B9:B13"/>
@@ -4870,6 +4859,14 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="H4:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5311,7 +5308,7 @@
       <c r="B4" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="99"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -5338,7 +5335,7 @@
     <row r="5" spans="1:14" ht="30" customHeight="1">
       <c r="A5" s="89"/>
       <c r="B5" s="84"/>
-      <c r="C5" s="102"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -5365,7 +5362,7 @@
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="89"/>
       <c r="B6" s="84"/>
-      <c r="C6" s="102"/>
+      <c r="C6" s="99"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -5392,7 +5389,7 @@
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="89"/>
       <c r="B7" s="84"/>
-      <c r="C7" s="102"/>
+      <c r="C7" s="99"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -5433,7 +5430,7 @@
       <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="98" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="87" t="s">
@@ -5442,13 +5439,13 @@
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="100" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="58"/>
@@ -5464,16 +5461,16 @@
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
       <c r="A10" s="89"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="58"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
@@ -5481,16 +5478,16 @@
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
       <c r="A11" s="89"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
       <c r="J11" s="58"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
@@ -5498,32 +5495,32 @@
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
       <c r="A12" s="89"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="102"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="100"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="58"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
       <c r="A13" s="89"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="58"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -5742,12 +5739,12 @@
       <c r="E5" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
       <c r="J5" s="54" t="s">
         <v>140</v>
       </c>
@@ -6075,7 +6072,7 @@
       <c r="A17" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="86" t="s">
@@ -6092,7 +6089,7 @@
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1">
       <c r="A18" s="89"/>
-      <c r="B18" s="104"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="87"/>
       <c r="D18" s="5">
         <v>200437</v>
@@ -6105,7 +6102,7 @@
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1">
       <c r="A19" s="89"/>
-      <c r="B19" s="104"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="87"/>
       <c r="D19" s="5">
         <v>310111</v>
@@ -6118,7 +6115,7 @@
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
       <c r="A20" s="89"/>
-      <c r="B20" s="104"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="87"/>
       <c r="D20" s="5">
         <v>528401</v>
@@ -6131,7 +6128,7 @@
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
       <c r="A21" s="89"/>
-      <c r="B21" s="104"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="87"/>
       <c r="D21" s="5">
         <v>1076753</v>
@@ -6154,7 +6151,7 @@
       <c r="A23" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="101" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="86" t="s">
@@ -6171,7 +6168,7 @@
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
       <c r="A24" s="89"/>
-      <c r="B24" s="104"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="87"/>
       <c r="D24" s="5">
         <v>200437</v>
@@ -6184,7 +6181,7 @@
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1">
       <c r="A25" s="89"/>
-      <c r="B25" s="104"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="87"/>
       <c r="D25" s="5">
         <v>310111</v>
@@ -6196,7 +6193,7 @@
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="104"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="87"/>
       <c r="D26" s="5">
         <v>528401</v>
@@ -6208,7 +6205,7 @@
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1">
       <c r="A27" s="89"/>
-      <c r="B27" s="104"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="87"/>
       <c r="D27" s="5">
         <v>1076753</v>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD1BA1-162D-4841-B0FE-F3BFFAF699A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1AF7EC-13E8-4CB5-B9DE-FDA466A0F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9240" yWindow="1680" windowWidth="16920" windowHeight="11820" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
     <sheet name="SBS_general" sheetId="12" r:id="rId2"/>
     <sheet name="Indel_general" sheetId="13" r:id="rId3"/>
     <sheet name="SBS_set1" sheetId="11" r:id="rId4"/>
-    <sheet name="SBS_set1__SBS35_spikein" sheetId="16" r:id="rId5"/>
+    <sheet name="SBS_set1__SBS35_spikein_1066" sheetId="16" r:id="rId5"/>
     <sheet name="indel_set1" sheetId="10" r:id="rId6"/>
     <sheet name="SBS_set1_down_samp" sheetId="1" r:id="rId7"/>
     <sheet name="indel_set1_down_samp" sheetId="4" r:id="rId8"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -1119,11 +1119,6 @@
 (wuyang)</t>
   </si>
   <si>
-    <t>hpc-super
-&lt;107478&gt;
-(wuyang)</t>
-  </si>
-  <si>
     <t>m2 
 &lt;444863&gt;
 (e0240162)</t>
@@ -1171,6 +1166,16 @@
     <t>hpc-super
 &lt;108933&gt;
 (wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;107479&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>Data set name:
+sens_SBS35_&lt;**&gt;_1066
+&lt;**&gt; is one of the numbers below</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1533,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1717,6 +1722,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1795,6 +1809,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1804,15 +1833,6 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,15 +1868,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2327,10 +2338,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -2376,23 +2387,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="85"/>
+      <c r="G1" s="88"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2401,10 +2412,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
         <v>42</v>
@@ -2559,7 +2570,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="87" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2580,7 +2591,7 @@
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="5"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2596,18 +2607,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="106" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="107" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="49" t="s">
@@ -2619,14 +2630,14 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="101"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="102"/>
+      <c r="F14" s="107"/>
       <c r="G14" s="49" t="s">
         <v>138</v>
       </c>
@@ -2636,14 +2647,14 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="101"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="102"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="50" t="s">
         <v>144</v>
       </c>
@@ -2653,14 +2664,14 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="101"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="102"/>
+      <c r="F16" s="107"/>
       <c r="G16" s="50" t="s">
         <v>144</v>
       </c>
@@ -2670,14 +2681,14 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="101"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="102"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="50" t="s">
         <v>144</v>
       </c>
@@ -2717,15 +2728,15 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="105" customHeight="1">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
@@ -2739,16 +2750,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="C13:C17"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2786,13 +2797,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
@@ -2836,13 +2847,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -2860,23 +2871,23 @@
       <c r="H3" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="92" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2889,15 +2900,15 @@
       <c r="G4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="89"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2910,15 +2921,15 @@
       <c r="G5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="89"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2931,15 +2942,15 @@
       <c r="G6" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="89"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2952,10 +2963,10 @@
       <c r="G7" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="89"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
@@ -2972,19 +2983,19 @@
       <c r="L8" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
@@ -3038,12 +3049,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -3104,13 +3115,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3155,106 +3166,106 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="106" t="s">
+      <c r="E3" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="106" t="s">
+      <c r="G3" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="106" t="s">
+      <c r="H3" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="107" t="s">
+      <c r="I3" s="112" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="92" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="89"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="89"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="89"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="89"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -3285,30 +3296,30 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3363,15 +3374,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3452,39 +3463,39 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="79" t="s">
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="79"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78" t="s">
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="81"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="30" t="s">
@@ -3512,11 +3523,11 @@
         <v>94</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="33" t="s">
         <v>102</v>
       </c>
@@ -3529,9 +3540,9 @@
         <v>97</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
@@ -3544,9 +3555,9 @@
         <v>98</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="31" t="s">
         <v>96</v>
       </c>
@@ -3559,9 +3570,9 @@
         <v>99</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="31" t="s">
         <v>96</v>
       </c>
@@ -3570,7 +3581,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="68" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3586,7 +3597,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="65"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="30" t="s">
         <v>103</v>
       </c>
@@ -3600,7 +3611,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="68" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -3616,7 +3627,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="65"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="30" t="s">
         <v>116</v>
       </c>
@@ -3630,7 +3641,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="30" t="s">
         <v>117</v>
       </c>
@@ -3644,7 +3655,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="65"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="30" t="s">
         <v>121</v>
       </c>
@@ -3655,7 +3666,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="68" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -3666,7 +3677,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="30" t="s">
         <v>125</v>
       </c>
@@ -3675,7 +3686,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="65"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="30" t="s">
         <v>126</v>
       </c>
@@ -3684,7 +3695,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="30" t="s">
         <v>121</v>
       </c>
@@ -3724,15 +3735,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3819,39 +3830,39 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="78"/>
+      <c r="G10" s="81"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="26"/>
@@ -3877,11 +3888,11 @@
         <v>94</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="31" t="s">
         <v>96</v>
       </c>
@@ -3894,9 +3905,9 @@
         <v>97</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="31" t="s">
         <v>96</v>
       </c>
@@ -3909,9 +3920,9 @@
         <v>98</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="31" t="s">
         <v>96</v>
       </c>
@@ -3924,9 +3935,9 @@
         <v>99</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="31" t="s">
         <v>96</v>
       </c>
@@ -3935,7 +3946,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="68" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -3954,7 +3965,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="30" t="s">
         <v>106</v>
       </c>
@@ -3971,7 +3982,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="68" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -3983,12 +3994,12 @@
         <v>96</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="83" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="30" t="s">
         <v>116</v>
       </c>
@@ -3998,10 +4009,10 @@
         <v>96</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="81"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="65"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="30" t="s">
         <v>117</v>
       </c>
@@ -4011,30 +4022,30 @@
         <v>96</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="81"/>
+      <c r="G20" s="84"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="65"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="81"/>
+      <c r="G21" s="84"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="82"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="68" t="s">
         <v>122</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -4043,52 +4054,57 @@
       <c r="E23" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="83" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="65"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="30" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="81"/>
+      <c r="G25" s="84"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="65"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="30" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="81"/>
+      <c r="G26" s="84"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="65"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="82"/>
+      <c r="G27" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -4096,11 +4112,6 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4128,29 +4139,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
@@ -4191,13 +4202,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="67" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="2">
@@ -4213,9 +4224,9 @@
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="2">
         <v>200437</v>
       </c>
@@ -4229,9 +4240,9 @@
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="2">
         <v>310111</v>
       </c>
@@ -4245,9 +4256,9 @@
       <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="2">
         <v>528401</v>
       </c>
@@ -4261,9 +4272,9 @@
       <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="2">
         <v>1076753</v>
       </c>
@@ -4376,13 +4387,13 @@
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="54" customHeight="1">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="89" t="s">
         <v>77</v>
       </c>
       <c r="D17" s="5">
@@ -4392,13 +4403,13 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="87"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
@@ -4406,13 +4417,13 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="87"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
@@ -4420,13 +4431,13 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="54" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="87"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
@@ -4434,13 +4445,13 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="54" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="87"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
@@ -4448,12 +4459,12 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5"/>
-      <c r="B22" s="84"/>
+      <c r="B22" s="87"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -4465,7 +4476,7 @@
       <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="84"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="22" t="s">
         <v>129</v>
       </c>
@@ -4500,14 +4511,14 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -4547,7 +4558,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4557,33 +4568,33 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" ht="50.1" customHeight="1">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="F1" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="F2" s="10">
         <v>5</v>
       </c>
@@ -4604,13 +4615,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="11">
@@ -4632,83 +4643,87 @@
       <c r="J3" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="90" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="64"/>
+      <c r="K3" s="66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="75.75" thickBot="1">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="90" t="s">
+      <c r="G4" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="J4" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="J4" s="90" t="s">
-        <v>185</v>
-      </c>
-      <c r="K4" s="91"/>
+      <c r="K4" s="98" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="64"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="99"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="91"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="110" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
@@ -4719,97 +4734,97 @@
       <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="87" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="95" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="108" t="s">
-        <v>181</v>
+      <c r="K9" s="95" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="108"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="84"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="108"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="84"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="108"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1" thickBot="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="108"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="95"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
@@ -4822,14 +4837,14 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
@@ -4843,11 +4858,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K4:K7"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="J4:J7"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="H9:H13"/>
@@ -4859,14 +4882,6 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="H4:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4893,32 +4908,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
@@ -5077,7 +5092,7 @@
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="87" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -5098,7 +5113,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5112,7 +5127,7 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="21" t="s">
         <v>78</v>
       </c>
@@ -5141,14 +5156,14 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -5210,13 +5225,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5265,13 +5280,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="11">
@@ -5304,11 +5319,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="99"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -5333,9 +5348,9 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="99"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -5360,9 +5375,9 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -5387,9 +5402,9 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -5427,25 +5442,25 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="48" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="90" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97" t="s">
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="102" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="58"/>
@@ -5460,67 +5475,67 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="58"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="58"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="58"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="58"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -5613,13 +5628,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5739,12 +5754,12 @@
       <c r="E5" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="54" t="s">
         <v>140</v>
       </c>
@@ -5789,20 +5804,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -5865,29 +5880,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="85"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>42</v>
@@ -5897,13 +5912,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="67" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="2">
@@ -5915,9 +5930,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -5927,9 +5942,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -5939,9 +5954,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -5951,9 +5966,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -6069,13 +6084,13 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="54" customHeight="1">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="89" t="s">
         <v>160</v>
       </c>
       <c r="D17" s="5">
@@ -6088,9 +6103,9 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1">
-      <c r="A18" s="89"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="87"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
@@ -6101,9 +6116,9 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1">
-      <c r="A19" s="89"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="87"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
@@ -6114,9 +6129,9 @@
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="87"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
@@ -6127,9 +6142,9 @@
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="87"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
@@ -6148,13 +6163,13 @@
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="89" t="s">
         <v>128</v>
       </c>
       <c r="D23" s="5">
@@ -6167,9 +6182,9 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="87"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="5">
         <v>200437</v>
       </c>
@@ -6180,9 +6195,9 @@
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="87"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="5">
         <v>310111</v>
       </c>
@@ -6192,9 +6207,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1">
-      <c r="A26" s="89"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="87"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="5">
         <v>528401</v>
       </c>
@@ -6204,9 +6219,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1">
-      <c r="A27" s="89"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="87"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="5">
         <v>1076753</v>
       </c>
@@ -6225,15 +6240,15 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="99.95" customHeight="1">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1AF7EC-13E8-4CB5-B9DE-FDA466A0F320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BB629C-DFD8-4DD7-BB46-FB17305CFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9870" yWindow="1275" windowWidth="18960" windowHeight="11820" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="187">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>All 5 seeds</t>
-  </si>
-  <si>
-    <t>hpc-steve</t>
   </si>
   <si>
     <t>2) Texts in each cell stands for machine to run the job: m2 - monster2; hpc - new HPC cluster</t>
@@ -1176,6 +1173,10 @@
     <t>Data set name:
 sens_SBS35_&lt;**&gt;_1066
 &lt;**&gt; is one of the numbers below</t>
+  </si>
+  <si>
+    <t>m2
+(mo)</t>
   </si>
 </sst>
 </file>
@@ -1662,9 +1663,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1722,13 +1720,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1818,19 +1813,25 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2338,10 +2339,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -2387,23 +2388,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="86" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="88"/>
+      <c r="F1" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="86"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2412,16 +2413,16 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2435,20 +2436,20 @@
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>147</v>
+      <c r="F3" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>146</v>
       </c>
       <c r="H3" s="2"/>
       <c r="M3" s="2"/>
@@ -2468,20 +2469,20 @@
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
@@ -2503,10 +2504,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
@@ -2537,16 +2538,16 @@
         <v>26</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -2570,59 +2571,59 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="87" t="s">
-        <v>45</v>
+      <c r="B11" s="85" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>133</v>
+      <c r="F11" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>132</v>
       </c>
       <c r="H11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="5"/>
-      <c r="B12" s="87"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>23</v>
@@ -2630,16 +2631,16 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="92"/>
-      <c r="B14" s="87"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="106"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="107"/>
-      <c r="G14" s="49" t="s">
-        <v>138</v>
+      <c r="G14" s="48" t="s">
+        <v>137</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>23</v>
@@ -2647,16 +2648,16 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="87"/>
+      <c r="A15" s="90"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="106"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="107"/>
-      <c r="G15" s="50" t="s">
-        <v>144</v>
+      <c r="G15" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="H15" s="24" t="s">
         <v>23</v>
@@ -2664,16 +2665,16 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="92"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="106"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="107"/>
-      <c r="G16" s="50" t="s">
-        <v>144</v>
+      <c r="G16" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>23</v>
@@ -2681,16 +2682,16 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="92"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="90"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="106"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="107"/>
-      <c r="G17" s="50" t="s">
-        <v>144</v>
+      <c r="G17" s="49" t="s">
+        <v>143</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>23</v>
@@ -2728,24 +2729,24 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="105" customHeight="1">
-      <c r="A20" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="A20" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2797,13 +2798,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
@@ -2831,10 +2832,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
@@ -2847,126 +2848,126 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>136</v>
       </c>
       <c r="I3" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="90" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="90" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A4" s="92"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="108"/>
-      <c r="C4" s="67"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="110"/>
-      <c r="J4" s="92"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="109"/>
-      <c r="L4" s="92"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A5" s="92"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="108"/>
-      <c r="C5" s="67"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" s="110"/>
-      <c r="J5" s="92"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="109"/>
-      <c r="L5" s="92"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="92"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="108"/>
-      <c r="C6" s="67"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="110"/>
-      <c r="J6" s="92"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="109"/>
-      <c r="L6" s="92"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="92"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="108"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I7" s="110"/>
-      <c r="J7" s="92"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="109"/>
-      <c r="L7" s="92"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
@@ -2983,19 +2984,19 @@
       <c r="L8" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
@@ -3014,7 +3015,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3049,12 +3050,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -3115,13 +3116,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3152,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>0</v>
@@ -3166,47 +3167,47 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F3" s="111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="111" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="90" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="90" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="92"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="108"/>
-      <c r="C4" s="67"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -3215,14 +3216,14 @@
       <c r="G4" s="111"/>
       <c r="H4" s="111"/>
       <c r="I4" s="112"/>
-      <c r="J4" s="92"/>
+      <c r="J4" s="90"/>
       <c r="K4" s="109"/>
-      <c r="L4" s="92"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="92"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="108"/>
-      <c r="C5" s="67"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -3231,14 +3232,14 @@
       <c r="G5" s="111"/>
       <c r="H5" s="111"/>
       <c r="I5" s="112"/>
-      <c r="J5" s="92"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="109"/>
-      <c r="L5" s="92"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="92"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="108"/>
-      <c r="C6" s="67"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -3247,14 +3248,14 @@
       <c r="G6" s="111"/>
       <c r="H6" s="111"/>
       <c r="I6" s="112"/>
-      <c r="J6" s="92"/>
+      <c r="J6" s="90"/>
       <c r="K6" s="109"/>
-      <c r="L6" s="92"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="92"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="108"/>
-      <c r="C7" s="67"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -3263,9 +3264,9 @@
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
       <c r="I7" s="112"/>
-      <c r="J7" s="92"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="109"/>
-      <c r="L7" s="92"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -3296,30 +3297,30 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A11" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
+      <c r="A11" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3327,7 +3328,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3374,15 +3375,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="A1" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3395,7 +3396,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -3406,10 +3407,10 @@
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1">
       <c r="A4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>84</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -3417,10 +3418,10 @@
       <c r="F4" s="40"/>
       <c r="G4" s="37"/>
       <c r="H4" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -3429,10 +3430,10 @@
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -3440,10 +3441,10 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -3463,244 +3464,244 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="C7" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="82"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="81"/>
+      <c r="C9" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="E10" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>93</v>
-      </c>
       <c r="F10" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="51.75" thickBot="1">
       <c r="A11" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="39" thickBot="1">
       <c r="A12" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1">
       <c r="A13" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1">
       <c r="A14" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A15" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="68" t="s">
+      <c r="B15" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>101</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="51.75" thickBot="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="30" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="66" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="68"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="68"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="68" t="s">
-        <v>118</v>
+      <c r="A21" s="66" t="s">
+        <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39" thickBot="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="30" t="s">
+      <c r="E22" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="68"/>
-      <c r="B23" s="30" t="s">
-        <v>126</v>
-      </c>
       <c r="E23" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="68"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3735,15 +3736,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="A1" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3756,7 +3757,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -3767,10 +3768,10 @@
     </row>
     <row r="4" spans="1:12" ht="25.5" customHeight="1">
       <c r="A4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>84</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -3778,10 +3779,10 @@
       <c r="F4" s="40"/>
       <c r="G4" s="37"/>
       <c r="H4" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -3789,10 +3790,10 @@
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -3800,10 +3801,10 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -3830,273 +3831,273 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="C8" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="80"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="81"/>
+      <c r="C10" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="E11" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>93</v>
-      </c>
       <c r="F11" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="51.75" thickBot="1">
       <c r="A12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="69" t="s">
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="31" t="s">
-        <v>96</v>
-      </c>
       <c r="G12" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="39" thickBot="1">
       <c r="A13" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="26.25" thickBot="1">
       <c r="A14" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
+      <c r="A16" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="68" t="s">
+      <c r="B16" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>101</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="68"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="66" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="83" t="s">
-        <v>114</v>
+      <c r="G18" s="81" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="84"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="68"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="84"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="68"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:7" ht="90" thickBot="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="84"/>
-    </row>
-    <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="30" t="s">
+      <c r="E22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="83"/>
+    </row>
+    <row r="23" spans="1:7" ht="39" thickBot="1">
+      <c r="A23" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39" thickBot="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="82"/>
+    </row>
+    <row r="25" spans="1:7" ht="39" thickBot="1">
+      <c r="A25" s="66"/>
+      <c r="B25" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="82"/>
+    </row>
+    <row r="26" spans="1:7" ht="39" thickBot="1">
+      <c r="A26" s="66"/>
+      <c r="B26" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="85"/>
-    </row>
-    <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="68"/>
-      <c r="B24" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="84"/>
-    </row>
-    <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="68"/>
-      <c r="B25" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="84"/>
-    </row>
-    <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="68"/>
-      <c r="B26" s="30" t="s">
-        <v>121</v>
-      </c>
       <c r="E26" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="84"/>
+        <v>95</v>
+      </c>
+      <c r="G26" s="82"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="85"/>
+        <v>95</v>
+      </c>
+      <c r="G27" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4123,10 +4124,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4134,416 +4135,504 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" style="59" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="59"/>
+    <col min="6" max="8" width="10.7109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="88"/>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="I2" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="165">
-      <c r="A3" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" customHeight="1">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2">
+        <v>145879</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" customHeight="1">
+      <c r="A4" s="90"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="2">
+        <v>200437</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="36" customHeight="1">
+      <c r="A5" s="90"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="2">
+        <v>310111</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1">
+      <c r="A6" s="90"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="2">
+        <v>528401</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1">
+      <c r="A7" s="90"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="2">
+        <v>1076753</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1">
+      <c r="A9" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="36" customHeight="1">
-      <c r="A5" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D9" s="2">
         <v>145879</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="52"/>
-    </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="2">
+      <c r="E9" s="2"/>
+      <c r="F9" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="2">
         <v>200437</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="2">
+      <c r="E10" s="2"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="2">
         <v>310111</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="2">
+      <c r="E11" s="2"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" ht="36" customHeight="1">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="2">
         <v>528401</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="2">
+      <c r="E12" s="2"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1">
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="2">
         <v>1076753</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-    </row>
-    <row r="11" spans="1:9" ht="240">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="75">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+    </row>
+    <row r="15" spans="1:9" ht="240">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="54" customHeight="1">
-      <c r="A17" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="5">
-        <v>145879</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="54" customHeight="1">
-      <c r="A18" s="91"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="5">
-        <v>200437</v>
-      </c>
-      <c r="E18" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="45">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="46" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="54" customHeight="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="5">
-        <v>310111</v>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="75">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="54" customHeight="1">
-      <c r="A20" s="91"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="5">
-        <v>528401</v>
-      </c>
+      <c r="F19" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="54" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="90"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="54" customHeight="1">
+      <c r="A21" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>76</v>
+      </c>
       <c r="D21" s="5">
-        <v>1076753</v>
+        <v>145879</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="H21" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="54" customHeight="1">
+      <c r="A22" s="89"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="5">
+        <v>200437</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="270" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>36</v>
+      <c r="H22" s="45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="54" customHeight="1">
+      <c r="A23" s="89"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="5">
+        <v>310111</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="H23" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="54" customHeight="1">
+      <c r="A24" s="89"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="5">
+        <v>528401</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="H24" s="45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="54" customHeight="1">
+      <c r="A25" s="89"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="5">
+        <v>1076753</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A26" s="67" t="s">
+      <c r="H25" s="45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="270" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="85"/>
+      <c r="C27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="5" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="94.5" customHeight="1">
+      <c r="A30" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A26:F26"/>
+  <mergeCells count="19">
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4557,8 +4646,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4569,32 +4658,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="88"/>
+      <c r="F1" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="86"/>
       <c r="F2" s="10">
         <v>5</v>
       </c>
@@ -4615,115 +4704,117 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A3" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="67" t="s">
+      <c r="A3" s="90" t="s">
         <v>131</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>130</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>181</v>
+      <c r="J3" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="75.75" thickBot="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="64" t="s">
+      <c r="F4" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="J4" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="98" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="67"/>
+      <c r="K4" s="63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="J5" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="99"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="94" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="67"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="95"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
@@ -4731,100 +4822,100 @@
       <c r="C8" s="17"/>
       <c r="D8" s="11"/>
       <c r="E8" s="2"/>
-      <c r="H8" s="45"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>64</v>
+      <c r="B9" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="93" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="95" t="s">
+      <c r="H9" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="95" t="s">
-        <v>180</v>
+      <c r="K9" s="93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="87"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="87"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="87"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1" thickBot="1">
-      <c r="A13" s="92"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="87"/>
+      <c r="A13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="95"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5"/>
@@ -4837,18 +4928,18 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A15" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="A15" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -4857,16 +4948,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B9:B13"/>
@@ -4882,6 +4975,7 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
+    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4896,8 +4990,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4905,71 +4999,74 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="6" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="F1" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="88"/>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="86"/>
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="165">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="F3" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4982,34 +5079,33 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="240">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>49</v>
+      <c r="B5" s="60" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="2"/>
+      <c r="F5" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5021,28 +5117,34 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>139</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5055,28 +5157,34 @@
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="75">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="F9" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5089,14 +5197,14 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="270" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="87" t="s">
-        <v>45</v>
+      <c r="B11" s="85" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -5104,16 +5212,16 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="54" t="s">
-        <v>142</v>
+      <c r="H11" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="87"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5124,19 +5232,19 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="270" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="H13" s="44" t="s">
-        <v>37</v>
+      <c r="H13" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
@@ -5156,14 +5264,14 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
+      <c r="A15" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -5172,7 +5280,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5181,7 +5289,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="B11:B13"/>
@@ -5189,6 +5297,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5225,13 +5334,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5265,8 +5374,8 @@
       <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="57" t="s">
-        <v>150</v>
+      <c r="J2" s="56" t="s">
+        <v>149</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>0</v>
@@ -5280,34 +5389,34 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>58</v>
       </c>
       <c r="D3" s="11">
         <v>145879</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="45"/>
+      <c r="E3" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="44"/>
       <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5319,28 +5428,28 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="87" t="s">
-        <v>54</v>
+      <c r="A4" s="90"/>
+      <c r="B4" s="85" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="104"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>140</v>
+      <c r="E4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>139</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -5348,82 +5457,82 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="87"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="104"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="45"/>
+      <c r="E5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="44"/>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="104"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="J6" s="45"/>
+      <c r="E6" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="44"/>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="104"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="45"/>
+      <c r="E7" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="44"/>
       <c r="K7" s="2"/>
       <c r="L7" s="3"/>
       <c r="M7" s="2"/>
@@ -5442,14 +5551,14 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="48" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="90" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="90" t="s">
-        <v>55</v>
+      <c r="C9" s="88" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
@@ -5463,7 +5572,7 @@
       <c r="I9" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="58"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5475,7 +5584,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
-      <c r="A10" s="92"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
       <c r="D10" s="11">
@@ -5486,13 +5595,13 @@
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
       <c r="I10" s="102"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
-      <c r="A11" s="92"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="103"/>
       <c r="C11" s="104"/>
       <c r="D11" s="11">
@@ -5503,13 +5612,13 @@
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
       <c r="I11" s="102"/>
-      <c r="J11" s="58"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
-      <c r="A12" s="92"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="103"/>
       <c r="C12" s="104"/>
       <c r="D12" s="11">
@@ -5520,12 +5629,12 @@
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
       <c r="I12" s="102"/>
-      <c r="J12" s="58"/>
+      <c r="J12" s="57"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
-      <c r="A13" s="92"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="103"/>
       <c r="C13" s="104"/>
       <c r="D13" s="11">
@@ -5536,7 +5645,7 @@
       <c r="G13" s="101"/>
       <c r="H13" s="101"/>
       <c r="I13" s="102"/>
-      <c r="J13" s="58"/>
+      <c r="J13" s="57"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
@@ -5554,7 +5663,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5569,7 +5678,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5628,13 +5737,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5669,7 +5778,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>0</v>
@@ -5687,31 +5796,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>147</v>
+      <c r="E3" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>146</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>2</v>
@@ -5742,26 +5851,26 @@
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="53" t="s">
-        <v>140</v>
+      <c r="E5" s="52" t="s">
+        <v>139</v>
       </c>
       <c r="F5" s="105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="101"/>
       <c r="H5" s="101"/>
       <c r="I5" s="101"/>
-      <c r="J5" s="54" t="s">
-        <v>140</v>
+      <c r="J5" s="53" t="s">
+        <v>139</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>2</v>
@@ -5804,20 +5913,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -5837,7 +5946,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5880,101 +5989,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="86" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="88"/>
+      <c r="F1" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="86"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="88"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>63</v>
+      <c r="B3" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="46" t="s">
-        <v>147</v>
+      <c r="F3" s="45" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="46" t="s">
-        <v>147</v>
+      <c r="F4" s="45" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="46" t="s">
-        <v>147</v>
+      <c r="F5" s="45" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="92"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="67"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="46" t="s">
-        <v>147</v>
+      <c r="F6" s="45" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="46" t="s">
-        <v>147</v>
+      <c r="F7" s="45" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5987,20 +6096,20 @@
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="55" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="2"/>
@@ -6024,10 +6133,10 @@
         <v>25</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -6059,16 +6168,16 @@
         <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="47" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -6084,73 +6193,73 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="54" customHeight="1">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="89" t="s">
-        <v>160</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>159</v>
       </c>
       <c r="D17" s="5">
         <v>145879</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="60" t="s">
-        <v>170</v>
+      <c r="F17" s="59" t="s">
+        <v>169</v>
       </c>
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1">
-      <c r="A18" s="92"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="106"/>
-      <c r="C18" s="90"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="60" t="s">
-        <v>166</v>
+      <c r="F18" s="59" t="s">
+        <v>165</v>
       </c>
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1">
-      <c r="A19" s="92"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="106"/>
-      <c r="C19" s="90"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="60" t="s">
-        <v>167</v>
+      <c r="F19" s="59" t="s">
+        <v>166</v>
       </c>
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="92"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="106"/>
-      <c r="C20" s="90"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="60" t="s">
-        <v>168</v>
+      <c r="F20" s="59" t="s">
+        <v>167</v>
       </c>
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="92"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="106"/>
-      <c r="C21" s="90"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="60" t="s">
-        <v>169</v>
+      <c r="F21" s="59" t="s">
+        <v>168</v>
       </c>
       <c r="N21" s="13"/>
     </row>
@@ -6163,71 +6272,71 @@
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="90" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>127</v>
       </c>
       <c r="D23" s="5">
         <v>145879</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="60" t="s">
-        <v>162</v>
+      <c r="F23" s="59" t="s">
+        <v>161</v>
       </c>
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="92"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="106"/>
-      <c r="C24" s="90"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="5">
         <v>200437</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="60" t="s">
-        <v>163</v>
+      <c r="F24" s="59" t="s">
+        <v>162</v>
       </c>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1">
-      <c r="A25" s="92"/>
+      <c r="A25" s="90"/>
       <c r="B25" s="106"/>
-      <c r="C25" s="90"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="5">
         <v>310111</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="60" t="s">
-        <v>164</v>
+      <c r="F25" s="59" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1">
-      <c r="A26" s="92"/>
+      <c r="A26" s="90"/>
       <c r="B26" s="106"/>
-      <c r="C26" s="90"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="5">
         <v>528401</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="60" t="s">
-        <v>165</v>
+      <c r="F26" s="59" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1">
-      <c r="A27" s="92"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="106"/>
-      <c r="C27" s="90"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="5">
         <v>1076753</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="60" t="s">
-        <v>161</v>
+      <c r="F27" s="59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6240,24 +6349,24 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="99.95" customHeight="1">
-      <c r="A29" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="A29" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BB629C-DFD8-4DD7-BB46-FB17305CFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D6948-3343-4A3C-8772-B92E04621387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="1275" windowWidth="18960" windowHeight="11820" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9030" yWindow="1275" windowWidth="19770" windowHeight="14415" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="192">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -1177,6 +1177,31 @@
   <si>
     <t>m2
 (mo)</t>
+  </si>
+  <si>
+    <t>Data set name:
+sens_SBS35_&lt;**&gt;_728
+&lt;**&gt; is one of the numbers below</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110719&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110726&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110727&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110728&gt;
+(wuyang)</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1559,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1720,117 +1745,117 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,10 +1889,19 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2339,10 +2373,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -2388,23 +2422,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="86"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2413,10 +2447,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
         <v>41</v>
@@ -2571,7 +2605,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2592,7 +2626,7 @@
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="5"/>
-      <c r="B12" s="85"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2608,10 +2642,10 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="106" t="s">
         <v>78</v>
       </c>
@@ -2631,8 +2665,8 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="90"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="106"/>
       <c r="D14" s="5">
         <v>200437</v>
@@ -2648,8 +2682,8 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="90"/>
-      <c r="B15" s="85"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="106"/>
       <c r="D15" s="5">
         <v>310111</v>
@@ -2665,8 +2699,8 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="90"/>
-      <c r="B16" s="85"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="106"/>
       <c r="D16" s="5">
         <v>528401</v>
@@ -2682,8 +2716,8 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="90"/>
-      <c r="B17" s="85"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="106"/>
       <c r="D17" s="5">
         <v>1076753</v>
@@ -2729,15 +2763,15 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="105" customHeight="1">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
@@ -2776,7 +2810,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2798,13 +2832,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
@@ -2848,13 +2882,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2">
@@ -2875,20 +2909,20 @@
       <c r="I3" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="89" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A4" s="90"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="108"/>
-      <c r="C4" s="65"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2902,14 +2936,14 @@
         <v>107</v>
       </c>
       <c r="I4" s="110"/>
-      <c r="J4" s="90"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="109"/>
-      <c r="L4" s="90"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A5" s="90"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="108"/>
-      <c r="C5" s="65"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2923,14 +2957,14 @@
         <v>107</v>
       </c>
       <c r="I5" s="110"/>
-      <c r="J5" s="90"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="109"/>
-      <c r="L5" s="90"/>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="90"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="108"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2944,14 +2978,14 @@
         <v>107</v>
       </c>
       <c r="I6" s="110"/>
-      <c r="J6" s="90"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="109"/>
-      <c r="L6" s="90"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="90"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="108"/>
-      <c r="C7" s="65"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2965,9 +2999,9 @@
         <v>107</v>
       </c>
       <c r="I7" s="110"/>
-      <c r="J7" s="90"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="109"/>
-      <c r="L7" s="90"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
@@ -2984,30 +3018,30 @@
       <c r="L8" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+    </row>
+    <row r="11" spans="1:12" ht="75" customHeight="1">
+      <c r="A11" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3050,12 +3084,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -3066,7 +3100,7 @@
       <c r="F20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="L3:L7"/>
@@ -3077,6 +3111,7 @@
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="K3:K7"/>
     <mergeCell ref="I3:I7"/>
+    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K3" r:id="rId1" xr:uid="{BB77AC9D-0D8E-4A54-B106-A21D8FD578EE}"/>
@@ -3094,8 +3129,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3116,13 +3151,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3167,106 +3202,106 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="112" t="s">
+      <c r="I3" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="89" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="89" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="90"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="108"/>
-      <c r="C4" s="65"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="89"/>
       <c r="K4" s="109"/>
-      <c r="L4" s="90"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="90"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="108"/>
-      <c r="C5" s="65"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="109"/>
-      <c r="L5" s="90"/>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="90"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="108"/>
-      <c r="C6" s="65"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="109"/>
-      <c r="L6" s="90"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="90"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="108"/>
-      <c r="C7" s="65"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="109"/>
-      <c r="L7" s="90"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -3297,30 +3332,30 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3375,15 +3410,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3464,39 +3499,39 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="80" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="79"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="30" t="s">
@@ -3524,11 +3559,11 @@
         <v>93</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="33" t="s">
         <v>101</v>
       </c>
@@ -3541,9 +3576,9 @@
         <v>96</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="31" t="s">
         <v>95</v>
       </c>
@@ -3556,9 +3591,9 @@
         <v>97</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="31" t="s">
         <v>95</v>
       </c>
@@ -3571,9 +3606,9 @@
         <v>98</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="31" t="s">
         <v>95</v>
       </c>
@@ -3582,7 +3617,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="65" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3598,7 +3633,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="30" t="s">
         <v>102</v>
       </c>
@@ -3612,7 +3647,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -3628,7 +3663,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="30" t="s">
         <v>115</v>
       </c>
@@ -3642,7 +3677,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="30" t="s">
         <v>116</v>
       </c>
@@ -3656,7 +3691,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="30" t="s">
         <v>120</v>
       </c>
@@ -3667,7 +3702,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="65" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -3678,7 +3713,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="30" t="s">
         <v>124</v>
       </c>
@@ -3687,7 +3722,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
       <c r="B23" s="30" t="s">
         <v>125</v>
       </c>
@@ -3696,7 +3731,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="30" t="s">
         <v>120</v>
       </c>
@@ -3736,15 +3771,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3831,39 +3866,39 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="79"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="26"/>
@@ -3889,11 +3924,11 @@
         <v>93</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="31" t="s">
         <v>95</v>
       </c>
@@ -3906,9 +3941,9 @@
         <v>96</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="31" t="s">
         <v>95</v>
       </c>
@@ -3921,9 +3956,9 @@
         <v>97</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="31" t="s">
         <v>95</v>
       </c>
@@ -3936,9 +3971,9 @@
         <v>98</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="31" t="s">
         <v>95</v>
       </c>
@@ -3947,7 +3982,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="65" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -3966,7 +4001,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="30" t="s">
         <v>105</v>
       </c>
@@ -3983,7 +4018,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -3995,12 +4030,12 @@
         <v>95</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="80" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="30" t="s">
         <v>115</v>
       </c>
@@ -4010,10 +4045,10 @@
         <v>95</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="82"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="30" t="s">
         <v>116</v>
       </c>
@@ -4023,30 +4058,30 @@
         <v>95</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="82"/>
+      <c r="G20" s="81"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="30" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="82"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="83"/>
+      <c r="G22" s="82"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="65" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -4055,49 +4090,49 @@
       <c r="E23" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="80" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
       <c r="B24" s="30" t="s">
         <v>124</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="82"/>
+      <c r="G24" s="81"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
       <c r="B25" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="82"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="82"/>
+      <c r="G26" s="81"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="83"/>
+      <c r="G27" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4140,29 +4175,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
@@ -4177,13 +4212,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="84" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="2">
@@ -4193,10 +4228,10 @@
       <c r="F3" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="111" t="s">
+      <c r="H3" s="90" t="s">
         <v>186</v>
       </c>
       <c r="I3" s="55" t="s">
@@ -4204,9 +4239,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -4214,16 +4249,16 @@
       <c r="F4" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -4231,16 +4266,16 @@
       <c r="F5" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -4248,16 +4283,16 @@
       <c r="F6" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -4265,8 +4300,8 @@
       <c r="F7" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="55" t="s">
         <v>139</v>
       </c>
@@ -4279,73 +4314,73 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="2">
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="111" t="s">
+      <c r="G9" s="90" t="s">
         <v>150</v>
       </c>
       <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="2">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="2">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="2">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="65"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:9">
@@ -4469,13 +4504,13 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="54" customHeight="1">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="86" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="5">
@@ -4489,9 +4524,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="54" customHeight="1">
-      <c r="A22" s="89"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="88"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="5">
         <v>200437</v>
       </c>
@@ -4503,9 +4538,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="54" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="88"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="5">
         <v>310111</v>
       </c>
@@ -4517,9 +4552,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="54" customHeight="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="88"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="5">
         <v>528401</v>
       </c>
@@ -4531,9 +4566,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="54" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="88"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="5">
         <v>1076753</v>
       </c>
@@ -4546,7 +4581,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
-      <c r="B26" s="85"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -4558,7 +4593,7 @@
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="22" t="s">
         <v>128</v>
       </c>
@@ -4593,14 +4628,14 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
@@ -4614,8 +4649,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="G3:G7"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="A30:F30"/>
@@ -4633,6 +4666,8 @@
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G3:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4644,10 +4679,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4657,33 +4692,41 @@
     <col min="3" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="50.1" customHeight="1">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:18" ht="50.1" customHeight="1">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="86"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="M1" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="F2" s="10">
         <v>5</v>
       </c>
@@ -4702,15 +4745,33 @@
       <c r="K2" s="10">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A3" s="90" t="s">
+      <c r="M2" s="10">
+        <v>5</v>
+      </c>
+      <c r="N2" s="10">
+        <v>10</v>
+      </c>
+      <c r="O2" s="10">
+        <v>20</v>
+      </c>
+      <c r="P2" s="10">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>50</v>
+      </c>
+      <c r="R2" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="68.25" customHeight="1" thickBot="1">
+      <c r="A3" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="11">
@@ -4732,14 +4793,14 @@
       <c r="J3" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="64" t="s">
+      <c r="K3" s="63" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="75.75" thickBot="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="65"/>
+    <row r="4" spans="1:18" ht="75" customHeight="1">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -4759,64 +4820,64 @@
       <c r="J4" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="113" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="65"/>
+    <row r="5" spans="1:18" ht="36" customHeight="1" thickBot="1">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="93"/>
       <c r="G5" s="98"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="94" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="65"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="114"/>
+    </row>
+    <row r="6" spans="1:18" ht="36" customHeight="1" thickBot="1">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="93"/>
       <c r="G6" s="98"/>
-      <c r="H6" s="94" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="94" t="s">
-        <v>182</v>
-      </c>
-      <c r="J6" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="K6" s="95"/>
-    </row>
-    <row r="7" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="65"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="36" customHeight="1" thickBot="1">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="93"/>
       <c r="G7" s="98"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
+      <c r="H7" s="112" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="112" t="s">
+        <v>183</v>
+      </c>
       <c r="K7" s="96"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17"/>
@@ -4824,14 +4885,14 @@
       <c r="E8" s="2"/>
       <c r="H8" s="44"/>
     </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1">
-      <c r="A9" s="90" t="s">
+    <row r="9" spans="1:18" ht="54" customHeight="1">
+      <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="84" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="11">
@@ -4856,11 +4917,23 @@
       <c r="K9" s="93" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="54" customHeight="1">
-      <c r="A10" s="90"/>
+      <c r="M9" s="94" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="94" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="54" customHeight="1">
+      <c r="A10" s="89"/>
       <c r="B10" s="92"/>
-      <c r="C10" s="85"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
@@ -4871,11 +4944,15 @@
       <c r="I10" s="93"/>
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
-    </row>
-    <row r="11" spans="1:11" ht="54" customHeight="1">
-      <c r="A11" s="90"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+    </row>
+    <row r="11" spans="1:18" ht="54" customHeight="1">
+      <c r="A11" s="89"/>
       <c r="B11" s="92"/>
-      <c r="C11" s="85"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
@@ -4886,11 +4963,15 @@
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
-    </row>
-    <row r="12" spans="1:11" ht="54" customHeight="1">
-      <c r="A12" s="90"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+    </row>
+    <row r="12" spans="1:18" ht="54" customHeight="1">
+      <c r="A12" s="89"/>
       <c r="B12" s="92"/>
-      <c r="C12" s="85"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
@@ -4901,11 +4982,15 @@
       <c r="I12" s="93"/>
       <c r="J12" s="93"/>
       <c r="K12" s="93"/>
-    </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" thickBot="1">
-      <c r="A13" s="90"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+    </row>
+    <row r="13" spans="1:18" ht="54" customHeight="1" thickBot="1">
+      <c r="A13" s="89"/>
       <c r="B13" s="92"/>
-      <c r="C13" s="85"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
@@ -4916,8 +5001,12 @@
       <c r="I13" s="93"/>
       <c r="J13" s="97"/>
       <c r="K13" s="93"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4927,17 +5016,17 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="94.5" customHeight="1">
-      <c r="A15" s="65" t="s">
+    <row r="15" spans="1:18" ht="94.5" customHeight="1">
+      <c r="A15" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -4948,18 +5037,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="30">
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="N9:N13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="O9:O13"/>
+    <mergeCell ref="P9:P13"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="K9:K13"/>
     <mergeCell ref="J9:J13"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H6"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B9:B13"/>
@@ -4975,7 +5068,6 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
-    <mergeCell ref="K5:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4990,8 +5082,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5003,32 +5095,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
@@ -5056,11 +5148,11 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
@@ -5170,13 +5262,13 @@
         <v>36</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="45" t="s">
         <v>139</v>
       </c>
       <c r="I9" s="2"/>
@@ -5200,7 +5292,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -5221,7 +5313,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="85"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5235,7 +5327,7 @@
       <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="85"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="21" t="s">
         <v>77</v>
       </c>
@@ -5264,14 +5356,14 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -5334,13 +5426,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5389,13 +5481,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="87" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="11">
@@ -5428,8 +5520,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="104"/>
@@ -5457,8 +5549,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="104"/>
       <c r="D5" s="11">
         <v>310111</v>
@@ -5484,8 +5576,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="104"/>
       <c r="D6" s="11">
         <v>528401</v>
@@ -5511,8 +5603,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="104"/>
       <c r="D7" s="11">
         <v>1076753</v>
@@ -5551,13 +5643,13 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="48" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="89" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="11">
@@ -5584,7 +5676,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
-      <c r="A10" s="90"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
       <c r="D10" s="11">
@@ -5601,7 +5693,7 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
-      <c r="A11" s="90"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="103"/>
       <c r="C11" s="104"/>
       <c r="D11" s="11">
@@ -5618,7 +5710,7 @@
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
-      <c r="A12" s="90"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="103"/>
       <c r="C12" s="104"/>
       <c r="D12" s="11">
@@ -5634,7 +5726,7 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
-      <c r="A13" s="90"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="103"/>
       <c r="C13" s="104"/>
       <c r="D13" s="11">
@@ -5737,13 +5829,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5913,20 +6005,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -5975,7 +6067,7 @@
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -5989,29 +6081,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="85" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="86"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="84"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="86"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>41</v>
@@ -6021,13 +6113,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="64" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2">
@@ -6039,9 +6131,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -6051,9 +6143,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="90"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -6063,9 +6155,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="90"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -6075,9 +6167,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="90"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -6193,13 +6285,13 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="54" customHeight="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="86" t="s">
         <v>159</v>
       </c>
       <c r="D17" s="5">
@@ -6212,9 +6304,9 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1">
-      <c r="A18" s="90"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="106"/>
-      <c r="C18" s="88"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
@@ -6225,9 +6317,9 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1">
-      <c r="A19" s="90"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="106"/>
-      <c r="C19" s="88"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
@@ -6238,9 +6330,9 @@
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="90"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="106"/>
-      <c r="C20" s="88"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
@@ -6251,9 +6343,9 @@
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="90"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="106"/>
-      <c r="C21" s="88"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
@@ -6272,13 +6364,13 @@
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="89" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="86" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="5">
@@ -6291,9 +6383,9 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="90"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="106"/>
-      <c r="C24" s="88"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="5">
         <v>200437</v>
       </c>
@@ -6304,9 +6396,9 @@
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1">
-      <c r="A25" s="90"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="106"/>
-      <c r="C25" s="88"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="5">
         <v>310111</v>
       </c>
@@ -6316,9 +6408,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1">
-      <c r="A26" s="90"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="106"/>
-      <c r="C26" s="88"/>
+      <c r="C26" s="87"/>
       <c r="D26" s="5">
         <v>528401</v>
       </c>
@@ -6328,9 +6420,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1">
-      <c r="A27" s="90"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="106"/>
-      <c r="C27" s="88"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="5">
         <v>1076753</v>
       </c>
@@ -6349,15 +6441,15 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="99.95" customHeight="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3D6948-3343-4A3C-8772-B92E04621387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2543C0-0B20-4B71-A92E-206891C8C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9030" yWindow="1275" windowWidth="19770" windowHeight="14415" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-330" yWindow="1575" windowWidth="15210" windowHeight="12855" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="196">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -1201,6 +1201,26 @@
   <si>
     <t>hpc-super
 &lt;110728&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110744&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110745&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110743&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110746&gt;
 (wuyang)</t>
   </si>
 </sst>
@@ -1559,7 +1579,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1748,6 +1768,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1805,6 +1831,9 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1826,7 +1855,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1835,30 +1885,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1892,16 +1918,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2373,10 +2390,10 @@
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
@@ -2422,23 +2439,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="85"/>
+      <c r="G1" s="88"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
@@ -2447,10 +2464,10 @@
       <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="1"/>
       <c r="F2" s="9" t="s">
         <v>41</v>
@@ -2605,7 +2622,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="87" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2626,7 +2643,7 @@
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="5"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -2642,18 +2659,18 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="54" customHeight="1">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="106" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="108" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="5">
         <v>145879</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="109" t="s">
         <v>132</v>
       </c>
       <c r="G13" s="48" t="s">
@@ -2665,14 +2682,14 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="54" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="106"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="5">
         <v>200437</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="107"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="48" t="s">
         <v>137</v>
       </c>
@@ -2682,14 +2699,14 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" ht="54" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="106"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="108"/>
       <c r="D15" s="5">
         <v>310111</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="49" t="s">
         <v>143</v>
       </c>
@@ -2699,14 +2716,14 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="54" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="106"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="5">
         <v>528401</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="107"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="49" t="s">
         <v>143</v>
       </c>
@@ -2716,14 +2733,14 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" ht="54" customHeight="1">
-      <c r="A17" s="89"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="106"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="5">
         <v>1076753</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="107"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="49" t="s">
         <v>143</v>
       </c>
@@ -2763,15 +2780,15 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="105" customHeight="1">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
@@ -2785,16 +2802,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2832,13 +2849,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="11"/>
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
@@ -2882,13 +2899,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="66" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2">
@@ -2906,23 +2923,23 @@
       <c r="H3" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="112" t="s">
         <v>135</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="92" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -2935,15 +2952,15 @@
       <c r="G4" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="89"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -2956,15 +2973,15 @@
       <c r="G5" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="89"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -2977,15 +2994,15 @@
       <c r="G6" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="110"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="89"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" spans="1:12" ht="35.1" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -2998,10 +3015,10 @@
       <c r="G7" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="89"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="11"/>
@@ -3018,30 +3035,30 @@
       <c r="L8" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:12" ht="75" customHeight="1">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3084,12 +3101,12 @@
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -3151,13 +3168,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -3202,106 +3219,106 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="66" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>145879</v>
       </c>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="111" t="s">
+      <c r="I3" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="92" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="89"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="89"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="89"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" spans="1:13" ht="35.1" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="89"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="11"/>
@@ -3332,30 +3349,30 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -3410,15 +3427,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3499,39 +3516,39 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="79" t="s">
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="79"/>
+      <c r="G8" s="81"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78" t="s">
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="30" t="s">
@@ -3559,11 +3576,11 @@
         <v>93</v>
       </c>
       <c r="B11" s="30"/>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="33" t="s">
         <v>101</v>
       </c>
@@ -3576,9 +3593,9 @@
         <v>96</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="31" t="s">
         <v>95</v>
       </c>
@@ -3591,9 +3608,9 @@
         <v>97</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="31" t="s">
         <v>95</v>
       </c>
@@ -3606,9 +3623,9 @@
         <v>98</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="31" t="s">
         <v>95</v>
       </c>
@@ -3617,7 +3634,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>99</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -3633,7 +3650,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="51.75" thickBot="1">
-      <c r="A16" s="65"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="30" t="s">
         <v>102</v>
       </c>
@@ -3647,7 +3664,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="30" t="s">
@@ -3663,7 +3680,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A18" s="65"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="30" t="s">
         <v>115</v>
       </c>
@@ -3677,7 +3694,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="30" t="s">
         <v>116</v>
       </c>
@@ -3691,7 +3708,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A20" s="65"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="30" t="s">
         <v>120</v>
       </c>
@@ -3702,7 +3719,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="39" thickBot="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="67" t="s">
         <v>117</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -3713,7 +3730,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="39" thickBot="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="30" t="s">
         <v>124</v>
       </c>
@@ -3722,7 +3739,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="65"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="30" t="s">
         <v>125</v>
       </c>
@@ -3731,7 +3748,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="30" t="s">
         <v>120</v>
       </c>
@@ -3771,15 +3788,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1">
       <c r="A2" s="36"/>
@@ -3866,39 +3883,39 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78" t="s">
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="78"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="26"/>
@@ -3924,11 +3941,11 @@
         <v>93</v>
       </c>
       <c r="B12" s="30"/>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="31" t="s">
         <v>95</v>
       </c>
@@ -3941,9 +3958,9 @@
         <v>96</v>
       </c>
       <c r="B13" s="30"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="31" t="s">
         <v>95</v>
       </c>
@@ -3956,9 +3973,9 @@
         <v>97</v>
       </c>
       <c r="B14" s="30"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="31" t="s">
         <v>95</v>
       </c>
@@ -3971,9 +3988,9 @@
         <v>98</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="31" t="s">
         <v>95</v>
       </c>
@@ -3982,7 +3999,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="30" t="s">
@@ -4001,7 +4018,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A17" s="65"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="30" t="s">
         <v>105</v>
       </c>
@@ -4018,7 +4035,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" thickBot="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="30" t="s">
@@ -4030,12 +4047,12 @@
         <v>95</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="82" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" thickBot="1">
-      <c r="A19" s="65"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="30" t="s">
         <v>115</v>
       </c>
@@ -4045,10 +4062,10 @@
         <v>95</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="81"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" ht="39" thickBot="1">
-      <c r="A20" s="65"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="30" t="s">
         <v>116</v>
       </c>
@@ -4058,30 +4075,30 @@
         <v>95</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="81"/>
+      <c r="G20" s="83"/>
     </row>
     <row r="21" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A21" s="65"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="30" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="81"/>
+      <c r="G21" s="83"/>
     </row>
     <row r="22" spans="1:7" ht="90" thickBot="1">
-      <c r="A22" s="65"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="82"/>
+      <c r="G22" s="84"/>
     </row>
     <row r="23" spans="1:7" ht="39" thickBot="1">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="67" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="30" t="s">
@@ -4090,57 +4107,52 @@
       <c r="E23" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="80" t="s">
+      <c r="G23" s="82" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="39" thickBot="1">
-      <c r="A24" s="65"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="30" t="s">
         <v>124</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:7" ht="39" thickBot="1">
-      <c r="A25" s="65"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="30" t="s">
         <v>125</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="81"/>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" ht="39" thickBot="1">
-      <c r="A26" s="65"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="30" t="s">
         <v>120</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="81"/>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" ht="90" thickBot="1">
-      <c r="A27" s="65"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="30" t="s">
         <v>119</v>
       </c>
       <c r="E27" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="82"/>
+      <c r="G27" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G18:G22"/>
@@ -4148,6 +4160,11 @@
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C12:E15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4175,29 +4192,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
@@ -4212,13 +4229,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="2">
@@ -4228,10 +4245,10 @@
       <c r="F3" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="85" t="s">
         <v>186</v>
       </c>
       <c r="I3" s="55" t="s">
@@ -4239,9 +4256,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -4249,16 +4266,16 @@
       <c r="F4" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
       <c r="I4" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -4266,16 +4283,16 @@
       <c r="F5" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="55" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -4283,16 +4300,16 @@
       <c r="F6" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="55" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -4300,8 +4317,8 @@
       <c r="F7" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="55" t="s">
         <v>139</v>
       </c>
@@ -4314,73 +4331,73 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>130</v>
       </c>
       <c r="D9" s="2">
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="85" t="s">
         <v>150</v>
       </c>
       <c r="H9" s="51"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="2">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="51"/>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="2">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="64"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="2">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="2">
         <v>1076753</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:9">
@@ -4504,13 +4521,13 @@
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="54" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="89" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="5">
@@ -4524,9 +4541,9 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="54" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="87"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="5">
         <v>200437</v>
       </c>
@@ -4538,9 +4555,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="54" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="87"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="5">
         <v>310111</v>
       </c>
@@ -4552,9 +4569,9 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="54" customHeight="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="87"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="5">
         <v>528401</v>
       </c>
@@ -4566,9 +4583,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="54" customHeight="1">
-      <c r="A25" s="88"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="87"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="5">
         <v>1076753</v>
       </c>
@@ -4581,7 +4598,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
-      <c r="B26" s="84"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -4593,7 +4610,7 @@
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="84"/>
+      <c r="B27" s="87"/>
       <c r="C27" s="22" t="s">
         <v>128</v>
       </c>
@@ -4628,14 +4645,14 @@
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
@@ -4649,6 +4666,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G3:G7"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="A30:F30"/>
@@ -4665,9 +4685,6 @@
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="G3:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4681,8 +4698,8 @@
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4693,40 +4710,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="50.1" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="M1" s="85" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="M1" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="F2" s="10">
         <v>5</v>
       </c>
@@ -4765,13 +4782,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="68.25" customHeight="1" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="66" t="s">
         <v>130</v>
       </c>
       <c r="D3" s="11">
@@ -4796,86 +4813,108 @@
       <c r="K3" s="63" t="s">
         <v>180</v>
       </c>
+      <c r="M3" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="93" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="75" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="98" t="s">
         <v>180</v>
       </c>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
     </row>
     <row r="5" spans="1:18" ht="36" customHeight="1" thickBot="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="114"/>
-    </row>
-    <row r="6" spans="1:18" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="64"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="100"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+    </row>
+    <row r="6" spans="1:18" ht="36" customHeight="1">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="94" t="s">
+      <c r="F6" s="96"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="93" t="s">
         <v>180</v>
       </c>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
     </row>
     <row r="7" spans="1:18" ht="36" customHeight="1" thickBot="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="112" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="A8" s="2"/>
@@ -4886,125 +4925,133 @@
       <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:18" ht="54" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="87" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="N9" s="94" t="s">
+      <c r="N9" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="O9" s="94" t="s">
+      <c r="O9" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="P9" s="94" t="s">
+      <c r="P9" s="98" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="54" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
     </row>
     <row r="11" spans="1:18" ht="54" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="84"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-    </row>
-    <row r="12" spans="1:18" ht="54" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="84"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+    </row>
+    <row r="12" spans="1:18" ht="54" customHeight="1" thickBot="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="100"/>
     </row>
     <row r="13" spans="1:18" ht="54" customHeight="1" thickBot="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="97"/>
-      <c r="K13" s="93"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="M13" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="O13" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="P13" s="65" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="5"/>
@@ -5017,14 +5064,14 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="94.5" customHeight="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
@@ -5037,22 +5084,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="N9:N13"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="O9:O13"/>
-    <mergeCell ref="P9:P13"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="K9:K13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="H4:H6"/>
+  <mergeCells count="34">
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="B9:B13"/>
@@ -5068,6 +5100,25 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="M3:M7"/>
+    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="O3:O7"/>
+    <mergeCell ref="P3:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5095,32 +5146,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="F2" s="10" t="s">
         <v>40</v>
       </c>
@@ -5148,11 +5199,11 @@
         <v>36</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
@@ -5292,7 +5343,7 @@
       <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="87" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -5313,7 +5364,7 @@
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1">
       <c r="A12" s="11"/>
-      <c r="B12" s="84"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5327,7 +5378,7 @@
       <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="21" t="s">
         <v>77</v>
       </c>
@@ -5356,14 +5407,14 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="75" customHeight="1">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -5426,13 +5477,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5481,13 +5532,13 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="60" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>58</v>
       </c>
       <c r="D3" s="11">
@@ -5520,11 +5571,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="106"/>
       <c r="D4" s="11">
         <v>200437</v>
       </c>
@@ -5549,9 +5600,9 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="104"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="11">
         <v>310111</v>
       </c>
@@ -5576,9 +5627,9 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="104"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="11">
         <v>528401</v>
       </c>
@@ -5603,9 +5654,9 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="104"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="11">
         <v>1076753</v>
       </c>
@@ -5643,25 +5694,25 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="48" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="90" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="11">
         <v>145879</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102" t="s">
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="104" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="57"/>
@@ -5676,67 +5727,67 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="48" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="11">
         <v>200437</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="104"/>
       <c r="J10" s="57"/>
       <c r="K10" s="2"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="48" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="11">
         <v>310111</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="57"/>
       <c r="K11" s="2"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="48" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="11">
         <v>528401</v>
       </c>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="57"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="48" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="11">
         <v>1076753</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
       <c r="J13" s="57"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -5829,13 +5880,13 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="10"/>
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
@@ -5955,12 +6006,12 @@
       <c r="E5" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
       <c r="J5" s="53" t="s">
         <v>139</v>
       </c>
@@ -6005,20 +6056,20 @@
       <c r="M7" s="5"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
@@ -6081,29 +6132,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="49.5" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="85"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="83"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="85"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
         <v>41</v>
@@ -6113,13 +6164,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="66" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="2">
@@ -6131,9 +6182,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="2">
         <v>200437</v>
       </c>
@@ -6143,9 +6194,9 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="2">
         <v>310111</v>
       </c>
@@ -6155,9 +6206,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" customHeight="1">
-      <c r="A6" s="89"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="2">
         <v>528401</v>
       </c>
@@ -6167,9 +6218,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="2">
         <v>1076753</v>
       </c>
@@ -6285,13 +6336,13 @@
       <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" ht="54" customHeight="1">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="89" t="s">
         <v>159</v>
       </c>
       <c r="D17" s="5">
@@ -6304,9 +6355,9 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" ht="54" customHeight="1">
-      <c r="A18" s="89"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="87"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="5">
         <v>200437</v>
       </c>
@@ -6317,9 +6368,9 @@
       <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" ht="54" customHeight="1">
-      <c r="A19" s="89"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="87"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="5">
         <v>310111</v>
       </c>
@@ -6330,9 +6381,9 @@
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="54" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="87"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="5">
         <v>528401</v>
       </c>
@@ -6343,9 +6394,9 @@
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="54" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="87"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="5">
         <v>1076753</v>
       </c>
@@ -6364,13 +6415,13 @@
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="54" customHeight="1">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="89" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="5">
@@ -6383,9 +6434,9 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="54" customHeight="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="87"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="5">
         <v>200437</v>
       </c>
@@ -6396,9 +6447,9 @@
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="54" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="87"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="5">
         <v>310111</v>
       </c>
@@ -6408,9 +6459,9 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="54" customHeight="1">
-      <c r="A26" s="89"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="87"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="5">
         <v>528401</v>
       </c>
@@ -6420,9 +6471,9 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="54" customHeight="1">
-      <c r="A27" s="89"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="87"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="5">
         <v>1076753</v>
       </c>
@@ -6441,15 +6492,15 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="99.95" customHeight="1">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">

--- a/mSigHdp-paper-tracking.xlsx
+++ b/mSigHdp-paper-tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab\Rozen_Lab\practice\6_Mo_mSigHdp\mSigHdp_paper_sup_files_x1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2543C0-0B20-4B71-A92E-206891C8C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BB2B22-4D4C-4196-AD82-9C028A6F162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-330" yWindow="1575" windowWidth="15210" windowHeight="12855" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool_info" sheetId="7" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="198">
   <si>
     <t>Google scholar citations</t>
   </si>
@@ -1221,6 +1221,16 @@
   <si>
     <t>hpc-super
 &lt;110746&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110757&gt;
+(wuyang)</t>
+  </si>
+  <si>
+    <t>hpc-super
+&lt;110758&gt;
 (wuyang)</t>
   </si>
 </sst>
@@ -1579,7 +1589,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1768,123 +1778,117 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alig